--- a/iframe map.xlsx
+++ b/iframe map.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IMPRESIONES_PRADO\Desktop\Angular\allcountries\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\erney\Desktop\allcountries\allcountries\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7305" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7308" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2776" uniqueCount="1553">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2781" uniqueCount="1558">
   <si>
     <t>name</t>
   </si>
@@ -4679,6 +4679,21 @@
   </si>
   <si>
     <t>https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d2020756.4108567983!2d-11.8374914!3d8.42228685!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0xf0106183aabf343%3A0x5369e9cdc72cf719!2sSierra%20Leona!5e0!3m2!1ses-419!2scu!4v1736397598450!5m2!1ses-419!2scu</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3299107.575032213!2d19.496922434466786!3d47.23248327478777!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x4741837bdf37e4c3%3A0xc4290c1e1010!2zSHVuZ3LDrWE!5e0!3m2!1ses-419!2ses!4v1745960900389!5m2!1ses-419!2ses</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3747121.81958051!2d119.49964994999999!3d23.485750050000004!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x346ef3065c07572f%3A0xe711f004bf9c5469!2zVGFpd8Ohbg!5e0!3m2!1ses-419!2ses!4v1745961306993!5m2!1ses-419!2ses</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d7735054.696705869!2d179.95075259682687!3d-18.80340349112262!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x7193b644bb9fd01d%3A0xf36dcccac55ee2a9!2sTonga!5e0!3m2!1ses-419!2ses!4v1745961580395!5m2!1ses-419!2ses</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d13126450.881824328!2d4.992915831352722!3d36.56134771560626!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x135b4ac711716c63%3A0x363a1775dc9a2d1d!2sGrecia!5e0!3m2!1ses-419!2ses!4v1745963084477!5m2!1ses-419!2ses</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d4848067.24041559!2d22.695844556984422!3d53.60737198588018!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x46da2584e2ad4881%3A0xa1d181ec8c10!2sBielorrusia!5e0!3m2!1ses-419!2ses!4v1745964721190!5m2!1ses-419!2ses</t>
   </si>
 </sst>
 </file>
@@ -4743,11 +4758,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -4768,6 +4780,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -5089,1550 +5105,1550 @@
       <selection activeCell="KU5" sqref="KU5:KU254"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.85546875" customWidth="1"/>
-    <col min="2" max="3" width="63.28515625" customWidth="1"/>
-    <col min="4" max="4" width="39.85546875" customWidth="1"/>
-    <col min="5" max="5" width="47.7109375" customWidth="1"/>
-    <col min="6" max="6" width="36.42578125" customWidth="1"/>
-    <col min="7" max="7" width="30.5703125" customWidth="1"/>
-    <col min="8" max="8" width="8.42578125" customWidth="1"/>
-    <col min="9" max="9" width="25.42578125" customWidth="1"/>
-    <col min="10" max="10" width="10.7109375" customWidth="1"/>
-    <col min="11" max="11" width="18.28515625" customWidth="1"/>
-    <col min="12" max="12" width="8.42578125" customWidth="1"/>
+    <col min="1" max="1" width="39.88671875" customWidth="1"/>
+    <col min="2" max="3" width="63.33203125" customWidth="1"/>
+    <col min="4" max="4" width="39.88671875" customWidth="1"/>
+    <col min="5" max="5" width="47.6640625" customWidth="1"/>
+    <col min="6" max="6" width="36.44140625" customWidth="1"/>
+    <col min="7" max="7" width="30.5546875" customWidth="1"/>
+    <col min="8" max="8" width="8.44140625" customWidth="1"/>
+    <col min="9" max="9" width="25.44140625" customWidth="1"/>
+    <col min="10" max="10" width="10.6640625" customWidth="1"/>
+    <col min="11" max="11" width="18.33203125" customWidth="1"/>
+    <col min="12" max="12" width="8.44140625" customWidth="1"/>
     <col min="13" max="14" width="13" customWidth="1"/>
-    <col min="15" max="15" width="27.28515625" customWidth="1"/>
-    <col min="16" max="16" width="8.42578125" customWidth="1"/>
-    <col min="17" max="17" width="33.42578125" customWidth="1"/>
-    <col min="18" max="18" width="23.140625" customWidth="1"/>
-    <col min="19" max="19" width="16.85546875" customWidth="1"/>
-    <col min="20" max="20" width="9.140625" customWidth="1"/>
-    <col min="21" max="21" width="61.5703125" customWidth="1"/>
-    <col min="22" max="22" width="18.5703125" customWidth="1"/>
-    <col min="23" max="23" width="33.140625" customWidth="1"/>
-    <col min="24" max="24" width="8.85546875" customWidth="1"/>
-    <col min="25" max="26" width="26.85546875" customWidth="1"/>
-    <col min="27" max="28" width="30.5703125" customWidth="1"/>
-    <col min="29" max="29" width="16.85546875" customWidth="1"/>
-    <col min="30" max="30" width="8.42578125" customWidth="1"/>
-    <col min="31" max="31" width="19.140625" customWidth="1"/>
-    <col min="32" max="32" width="8.5703125" customWidth="1"/>
-    <col min="33" max="33" width="22.28515625" customWidth="1"/>
-    <col min="34" max="34" width="11.42578125" customWidth="1"/>
-    <col min="35" max="35" width="23.5703125" customWidth="1"/>
-    <col min="36" max="36" width="12.5703125" customWidth="1"/>
+    <col min="15" max="15" width="27.33203125" customWidth="1"/>
+    <col min="16" max="16" width="8.44140625" customWidth="1"/>
+    <col min="17" max="17" width="33.44140625" customWidth="1"/>
+    <col min="18" max="18" width="23.109375" customWidth="1"/>
+    <col min="19" max="19" width="16.88671875" customWidth="1"/>
+    <col min="20" max="20" width="9.109375" customWidth="1"/>
+    <col min="21" max="21" width="61.5546875" customWidth="1"/>
+    <col min="22" max="22" width="18.5546875" customWidth="1"/>
+    <col min="23" max="23" width="33.109375" customWidth="1"/>
+    <col min="24" max="24" width="8.88671875" customWidth="1"/>
+    <col min="25" max="26" width="26.88671875" customWidth="1"/>
+    <col min="27" max="28" width="30.5546875" customWidth="1"/>
+    <col min="29" max="29" width="16.88671875" customWidth="1"/>
+    <col min="30" max="30" width="8.44140625" customWidth="1"/>
+    <col min="31" max="31" width="19.109375" customWidth="1"/>
+    <col min="32" max="32" width="8.5546875" customWidth="1"/>
+    <col min="33" max="33" width="22.33203125" customWidth="1"/>
+    <col min="34" max="34" width="11.44140625" customWidth="1"/>
+    <col min="35" max="35" width="23.5546875" customWidth="1"/>
+    <col min="36" max="36" width="12.5546875" customWidth="1"/>
     <col min="37" max="37" width="25" customWidth="1"/>
-    <col min="38" max="38" width="11.7109375" customWidth="1"/>
-    <col min="39" max="39" width="24.42578125" customWidth="1"/>
-    <col min="40" max="40" width="11.7109375" customWidth="1"/>
-    <col min="41" max="41" width="28.7109375" customWidth="1"/>
-    <col min="42" max="42" width="14.7109375" customWidth="1"/>
-    <col min="43" max="43" width="25.42578125" customWidth="1"/>
-    <col min="44" max="44" width="12.7109375" customWidth="1"/>
-    <col min="45" max="45" width="23.5703125" customWidth="1"/>
-    <col min="46" max="46" width="12.85546875" customWidth="1"/>
-    <col min="47" max="47" width="28.7109375" customWidth="1"/>
-    <col min="48" max="48" width="16.5703125" customWidth="1"/>
-    <col min="49" max="49" width="26.140625" customWidth="1"/>
-    <col min="50" max="50" width="13.140625" customWidth="1"/>
-    <col min="51" max="51" width="27.7109375" customWidth="1"/>
-    <col min="52" max="52" width="14.7109375" customWidth="1"/>
-    <col min="53" max="53" width="33.7109375" customWidth="1"/>
-    <col min="54" max="54" width="19.7109375" customWidth="1"/>
-    <col min="55" max="55" width="40.28515625" customWidth="1"/>
-    <col min="56" max="56" width="21.85546875" customWidth="1"/>
-    <col min="57" max="57" width="29.42578125" customWidth="1"/>
-    <col min="58" max="58" width="16.140625" customWidth="1"/>
-    <col min="59" max="59" width="28.85546875" customWidth="1"/>
-    <col min="60" max="60" width="11.28515625" customWidth="1"/>
+    <col min="38" max="38" width="11.6640625" customWidth="1"/>
+    <col min="39" max="39" width="24.44140625" customWidth="1"/>
+    <col min="40" max="40" width="11.6640625" customWidth="1"/>
+    <col min="41" max="41" width="28.6640625" customWidth="1"/>
+    <col min="42" max="42" width="14.6640625" customWidth="1"/>
+    <col min="43" max="43" width="25.44140625" customWidth="1"/>
+    <col min="44" max="44" width="12.6640625" customWidth="1"/>
+    <col min="45" max="45" width="23.5546875" customWidth="1"/>
+    <col min="46" max="46" width="12.88671875" customWidth="1"/>
+    <col min="47" max="47" width="28.6640625" customWidth="1"/>
+    <col min="48" max="48" width="16.5546875" customWidth="1"/>
+    <col min="49" max="49" width="26.109375" customWidth="1"/>
+    <col min="50" max="50" width="13.109375" customWidth="1"/>
+    <col min="51" max="51" width="27.6640625" customWidth="1"/>
+    <col min="52" max="52" width="14.6640625" customWidth="1"/>
+    <col min="53" max="53" width="33.6640625" customWidth="1"/>
+    <col min="54" max="54" width="19.6640625" customWidth="1"/>
+    <col min="55" max="55" width="40.33203125" customWidth="1"/>
+    <col min="56" max="56" width="21.88671875" customWidth="1"/>
+    <col min="57" max="57" width="29.44140625" customWidth="1"/>
+    <col min="58" max="58" width="16.109375" customWidth="1"/>
+    <col min="59" max="59" width="28.88671875" customWidth="1"/>
+    <col min="60" max="60" width="11.33203125" customWidth="1"/>
     <col min="61" max="62" width="11" customWidth="1"/>
-    <col min="63" max="64" width="20.42578125" customWidth="1"/>
-    <col min="65" max="65" width="18.140625" customWidth="1"/>
-    <col min="66" max="66" width="9.28515625" customWidth="1"/>
-    <col min="67" max="67" width="7.5703125" customWidth="1"/>
-    <col min="68" max="68" width="8.42578125" customWidth="1"/>
+    <col min="63" max="64" width="20.44140625" customWidth="1"/>
+    <col min="65" max="65" width="18.109375" customWidth="1"/>
+    <col min="66" max="66" width="9.33203125" customWidth="1"/>
+    <col min="67" max="67" width="7.5546875" customWidth="1"/>
+    <col min="68" max="68" width="8.44140625" customWidth="1"/>
     <col min="69" max="69" width="23" customWidth="1"/>
-    <col min="70" max="70" width="12.28515625" customWidth="1"/>
-    <col min="71" max="71" width="22.140625" customWidth="1"/>
-    <col min="72" max="72" width="11.140625" customWidth="1"/>
-    <col min="73" max="73" width="43.42578125" customWidth="1"/>
-    <col min="74" max="74" width="11.42578125" customWidth="1"/>
-    <col min="75" max="75" width="37.28515625" customWidth="1"/>
-    <col min="76" max="76" width="10.7109375" customWidth="1"/>
-    <col min="77" max="77" width="20.28515625" customWidth="1"/>
-    <col min="78" max="78" width="8.42578125" customWidth="1"/>
-    <col min="79" max="79" width="13.140625" customWidth="1"/>
-    <col min="80" max="80" width="8.42578125" customWidth="1"/>
-    <col min="81" max="81" width="17.85546875" customWidth="1"/>
-    <col min="82" max="82" width="8.42578125" customWidth="1"/>
-    <col min="83" max="83" width="26.7109375" customWidth="1"/>
-    <col min="84" max="84" width="23.42578125" customWidth="1"/>
-    <col min="85" max="85" width="17.7109375" customWidth="1"/>
-    <col min="86" max="86" width="8.42578125" customWidth="1"/>
-    <col min="87" max="87" width="21.140625" customWidth="1"/>
-    <col min="88" max="88" width="9.85546875" customWidth="1"/>
-    <col min="89" max="89" width="23.5703125" customWidth="1"/>
-    <col min="90" max="90" width="9.85546875" customWidth="1"/>
-    <col min="91" max="91" width="29.140625" customWidth="1"/>
-    <col min="92" max="92" width="12.42578125" customWidth="1"/>
-    <col min="93" max="94" width="10.5703125" customWidth="1"/>
+    <col min="70" max="70" width="12.33203125" customWidth="1"/>
+    <col min="71" max="71" width="22.109375" customWidth="1"/>
+    <col min="72" max="72" width="11.109375" customWidth="1"/>
+    <col min="73" max="73" width="43.44140625" customWidth="1"/>
+    <col min="74" max="74" width="11.44140625" customWidth="1"/>
+    <col min="75" max="75" width="37.33203125" customWidth="1"/>
+    <col min="76" max="76" width="10.6640625" customWidth="1"/>
+    <col min="77" max="77" width="20.33203125" customWidth="1"/>
+    <col min="78" max="78" width="8.44140625" customWidth="1"/>
+    <col min="79" max="79" width="13.109375" customWidth="1"/>
+    <col min="80" max="80" width="8.44140625" customWidth="1"/>
+    <col min="81" max="81" width="17.88671875" customWidth="1"/>
+    <col min="82" max="82" width="8.44140625" customWidth="1"/>
+    <col min="83" max="83" width="26.6640625" customWidth="1"/>
+    <col min="84" max="84" width="23.44140625" customWidth="1"/>
+    <col min="85" max="85" width="17.6640625" customWidth="1"/>
+    <col min="86" max="86" width="8.44140625" customWidth="1"/>
+    <col min="87" max="87" width="21.109375" customWidth="1"/>
+    <col min="88" max="88" width="9.88671875" customWidth="1"/>
+    <col min="89" max="89" width="23.5546875" customWidth="1"/>
+    <col min="90" max="90" width="9.88671875" customWidth="1"/>
+    <col min="91" max="91" width="29.109375" customWidth="1"/>
+    <col min="92" max="92" width="12.44140625" customWidth="1"/>
+    <col min="93" max="94" width="10.5546875" customWidth="1"/>
     <col min="95" max="95" width="16" customWidth="1"/>
-    <col min="96" max="96" width="8.42578125" customWidth="1"/>
-    <col min="97" max="97" width="18.7109375" customWidth="1"/>
-    <col min="98" max="98" width="8.42578125" customWidth="1"/>
-    <col min="99" max="99" width="29.140625" customWidth="1"/>
-    <col min="100" max="100" width="14.42578125" customWidth="1"/>
-    <col min="101" max="101" width="7.7109375" customWidth="1"/>
-    <col min="102" max="102" width="8.42578125" customWidth="1"/>
-    <col min="103" max="103" width="23.7109375" customWidth="1"/>
-    <col min="104" max="104" width="12.42578125" customWidth="1"/>
-    <col min="105" max="105" width="22.28515625" customWidth="1"/>
-    <col min="106" max="106" width="11.140625" customWidth="1"/>
-    <col min="107" max="107" width="21.7109375" customWidth="1"/>
-    <col min="108" max="108" width="8.42578125" customWidth="1"/>
-    <col min="109" max="109" width="13.5703125" customWidth="1"/>
-    <col min="110" max="110" width="8.42578125" customWidth="1"/>
-    <col min="111" max="111" width="21.140625" customWidth="1"/>
-    <col min="112" max="112" width="8.42578125" customWidth="1"/>
-    <col min="113" max="114" width="18.140625" customWidth="1"/>
+    <col min="96" max="96" width="8.44140625" customWidth="1"/>
+    <col min="97" max="97" width="18.6640625" customWidth="1"/>
+    <col min="98" max="98" width="8.44140625" customWidth="1"/>
+    <col min="99" max="99" width="29.109375" customWidth="1"/>
+    <col min="100" max="100" width="14.44140625" customWidth="1"/>
+    <col min="101" max="101" width="7.6640625" customWidth="1"/>
+    <col min="102" max="102" width="8.44140625" customWidth="1"/>
+    <col min="103" max="103" width="23.6640625" customWidth="1"/>
+    <col min="104" max="104" width="12.44140625" customWidth="1"/>
+    <col min="105" max="105" width="22.33203125" customWidth="1"/>
+    <col min="106" max="106" width="11.109375" customWidth="1"/>
+    <col min="107" max="107" width="21.6640625" customWidth="1"/>
+    <col min="108" max="108" width="8.44140625" customWidth="1"/>
+    <col min="109" max="109" width="13.5546875" customWidth="1"/>
+    <col min="110" max="110" width="8.44140625" customWidth="1"/>
+    <col min="111" max="111" width="21.109375" customWidth="1"/>
+    <col min="112" max="112" width="8.44140625" customWidth="1"/>
+    <col min="113" max="114" width="18.109375" customWidth="1"/>
     <col min="115" max="115" width="30" customWidth="1"/>
-    <col min="116" max="116" width="14.7109375" customWidth="1"/>
-    <col min="117" max="117" width="20.7109375" customWidth="1"/>
-    <col min="118" max="118" width="8.42578125" customWidth="1"/>
-    <col min="119" max="119" width="15.85546875" customWidth="1"/>
-    <col min="120" max="120" width="8.42578125" customWidth="1"/>
-    <col min="121" max="121" width="24.85546875" customWidth="1"/>
-    <col min="122" max="122" width="12.28515625" customWidth="1"/>
-    <col min="123" max="123" width="27.5703125" customWidth="1"/>
-    <col min="124" max="124" width="8.42578125" customWidth="1"/>
-    <col min="125" max="126" width="12.85546875" customWidth="1"/>
-    <col min="127" max="127" width="20.5703125" customWidth="1"/>
-    <col min="128" max="128" width="8.42578125" customWidth="1"/>
-    <col min="129" max="129" width="32.140625" customWidth="1"/>
-    <col min="130" max="130" width="13.7109375" customWidth="1"/>
-    <col min="131" max="131" width="32.140625" customWidth="1"/>
-    <col min="132" max="132" width="12.7109375" customWidth="1"/>
-    <col min="133" max="133" width="18.28515625" customWidth="1"/>
-    <col min="134" max="134" width="10.5703125" customWidth="1"/>
-    <col min="135" max="135" width="23.28515625" customWidth="1"/>
-    <col min="136" max="136" width="12.85546875" customWidth="1"/>
+    <col min="116" max="116" width="14.6640625" customWidth="1"/>
+    <col min="117" max="117" width="20.6640625" customWidth="1"/>
+    <col min="118" max="118" width="8.44140625" customWidth="1"/>
+    <col min="119" max="119" width="15.88671875" customWidth="1"/>
+    <col min="120" max="120" width="8.44140625" customWidth="1"/>
+    <col min="121" max="121" width="24.88671875" customWidth="1"/>
+    <col min="122" max="122" width="12.33203125" customWidth="1"/>
+    <col min="123" max="123" width="27.5546875" customWidth="1"/>
+    <col min="124" max="124" width="8.44140625" customWidth="1"/>
+    <col min="125" max="126" width="12.88671875" customWidth="1"/>
+    <col min="127" max="127" width="20.5546875" customWidth="1"/>
+    <col min="128" max="128" width="8.44140625" customWidth="1"/>
+    <col min="129" max="129" width="32.109375" customWidth="1"/>
+    <col min="130" max="130" width="13.6640625" customWidth="1"/>
+    <col min="131" max="131" width="32.109375" customWidth="1"/>
+    <col min="132" max="132" width="12.6640625" customWidth="1"/>
+    <col min="133" max="133" width="18.33203125" customWidth="1"/>
+    <col min="134" max="134" width="10.5546875" customWidth="1"/>
+    <col min="135" max="135" width="23.33203125" customWidth="1"/>
+    <col min="136" max="136" width="12.88671875" customWidth="1"/>
     <col min="137" max="137" width="12" customWidth="1"/>
-    <col min="138" max="138" width="8.42578125" customWidth="1"/>
-    <col min="139" max="140" width="10.28515625" customWidth="1"/>
-    <col min="141" max="141" width="16.85546875" customWidth="1"/>
-    <col min="142" max="142" width="9.140625" customWidth="1"/>
-    <col min="143" max="143" width="7.7109375" customWidth="1"/>
-    <col min="144" max="144" width="8.42578125" customWidth="1"/>
-    <col min="145" max="145" width="20.42578125" customWidth="1"/>
-    <col min="146" max="146" width="8.42578125" customWidth="1"/>
-    <col min="147" max="147" width="17.7109375" customWidth="1"/>
-    <col min="148" max="148" width="8.42578125" customWidth="1"/>
-    <col min="149" max="149" width="17.7109375" customWidth="1"/>
-    <col min="150" max="150" width="8.42578125" customWidth="1"/>
-    <col min="151" max="151" width="17.7109375" customWidth="1"/>
-    <col min="152" max="152" width="8.42578125" customWidth="1"/>
-    <col min="153" max="153" width="17.7109375" customWidth="1"/>
-    <col min="154" max="154" width="8.42578125" customWidth="1"/>
-    <col min="155" max="155" width="17.7109375" customWidth="1"/>
-    <col min="156" max="156" width="8.42578125" customWidth="1"/>
-    <col min="157" max="157" width="19.140625" customWidth="1"/>
-    <col min="158" max="158" width="9.42578125" customWidth="1"/>
-    <col min="159" max="160" width="14.28515625" customWidth="1"/>
+    <col min="138" max="138" width="8.44140625" customWidth="1"/>
+    <col min="139" max="140" width="10.33203125" customWidth="1"/>
+    <col min="141" max="141" width="16.88671875" customWidth="1"/>
+    <col min="142" max="142" width="9.109375" customWidth="1"/>
+    <col min="143" max="143" width="7.6640625" customWidth="1"/>
+    <col min="144" max="144" width="8.44140625" customWidth="1"/>
+    <col min="145" max="145" width="20.44140625" customWidth="1"/>
+    <col min="146" max="146" width="8.44140625" customWidth="1"/>
+    <col min="147" max="147" width="17.6640625" customWidth="1"/>
+    <col min="148" max="148" width="8.44140625" customWidth="1"/>
+    <col min="149" max="149" width="17.6640625" customWidth="1"/>
+    <col min="150" max="150" width="8.44140625" customWidth="1"/>
+    <col min="151" max="151" width="17.6640625" customWidth="1"/>
+    <col min="152" max="152" width="8.44140625" customWidth="1"/>
+    <col min="153" max="153" width="17.6640625" customWidth="1"/>
+    <col min="154" max="154" width="8.44140625" customWidth="1"/>
+    <col min="155" max="155" width="17.6640625" customWidth="1"/>
+    <col min="156" max="156" width="8.44140625" customWidth="1"/>
+    <col min="157" max="157" width="19.109375" customWidth="1"/>
+    <col min="158" max="158" width="9.44140625" customWidth="1"/>
+    <col min="159" max="160" width="14.33203125" customWidth="1"/>
     <col min="161" max="161" width="20" customWidth="1"/>
-    <col min="162" max="162" width="11.140625" customWidth="1"/>
-    <col min="163" max="163" width="11.85546875" customWidth="1"/>
-    <col min="164" max="164" width="8.42578125" customWidth="1"/>
-    <col min="165" max="165" width="11.85546875" customWidth="1"/>
-    <col min="166" max="166" width="8.42578125" customWidth="1"/>
-    <col min="167" max="167" width="20.5703125" customWidth="1"/>
-    <col min="168" max="168" width="11.28515625" customWidth="1"/>
+    <col min="162" max="162" width="11.109375" customWidth="1"/>
+    <col min="163" max="163" width="11.88671875" customWidth="1"/>
+    <col min="164" max="164" width="8.44140625" customWidth="1"/>
+    <col min="165" max="165" width="11.88671875" customWidth="1"/>
+    <col min="166" max="166" width="8.44140625" customWidth="1"/>
+    <col min="167" max="167" width="20.5546875" customWidth="1"/>
+    <col min="168" max="168" width="11.33203125" customWidth="1"/>
     <col min="169" max="169" width="30" customWidth="1"/>
-    <col min="170" max="170" width="9.5703125" customWidth="1"/>
-    <col min="171" max="172" width="18.140625" customWidth="1"/>
-    <col min="173" max="174" width="19.42578125" customWidth="1"/>
-    <col min="175" max="175" width="33.5703125" customWidth="1"/>
-    <col min="176" max="176" width="8.42578125" customWidth="1"/>
-    <col min="177" max="177" width="17.28515625" customWidth="1"/>
-    <col min="178" max="178" width="8.5703125" customWidth="1"/>
-    <col min="179" max="179" width="27.5703125" customWidth="1"/>
-    <col min="180" max="180" width="8.42578125" customWidth="1"/>
-    <col min="181" max="181" width="6.42578125" customWidth="1"/>
-    <col min="182" max="182" width="8.42578125" customWidth="1"/>
-    <col min="183" max="183" width="25.7109375" customWidth="1"/>
-    <col min="184" max="184" width="10.42578125" customWidth="1"/>
-    <col min="185" max="185" width="15.85546875" customWidth="1"/>
-    <col min="186" max="186" width="8.42578125" customWidth="1"/>
-    <col min="187" max="187" width="33.5703125" customWidth="1"/>
-    <col min="188" max="188" width="14.5703125" customWidth="1"/>
-    <col min="189" max="189" width="15.28515625" customWidth="1"/>
-    <col min="190" max="190" width="10.28515625" customWidth="1"/>
-    <col min="191" max="191" width="12.140625" customWidth="1"/>
-    <col min="192" max="192" width="8.42578125" customWidth="1"/>
-    <col min="193" max="193" width="6.42578125" customWidth="1"/>
-    <col min="194" max="194" width="8.42578125" customWidth="1"/>
-    <col min="195" max="195" width="19.7109375" customWidth="1"/>
-    <col min="196" max="196" width="9.5703125" customWidth="1"/>
-    <col min="197" max="197" width="17.140625" customWidth="1"/>
-    <col min="198" max="198" width="8.42578125" customWidth="1"/>
+    <col min="170" max="170" width="9.5546875" customWidth="1"/>
+    <col min="171" max="172" width="18.109375" customWidth="1"/>
+    <col min="173" max="174" width="19.44140625" customWidth="1"/>
+    <col min="175" max="175" width="33.5546875" customWidth="1"/>
+    <col min="176" max="176" width="8.44140625" customWidth="1"/>
+    <col min="177" max="177" width="17.33203125" customWidth="1"/>
+    <col min="178" max="178" width="8.5546875" customWidth="1"/>
+    <col min="179" max="179" width="27.5546875" customWidth="1"/>
+    <col min="180" max="180" width="8.44140625" customWidth="1"/>
+    <col min="181" max="181" width="6.44140625" customWidth="1"/>
+    <col min="182" max="182" width="8.44140625" customWidth="1"/>
+    <col min="183" max="183" width="25.6640625" customWidth="1"/>
+    <col min="184" max="184" width="10.44140625" customWidth="1"/>
+    <col min="185" max="185" width="15.88671875" customWidth="1"/>
+    <col min="186" max="186" width="8.44140625" customWidth="1"/>
+    <col min="187" max="187" width="33.5546875" customWidth="1"/>
+    <col min="188" max="188" width="14.5546875" customWidth="1"/>
+    <col min="189" max="189" width="15.33203125" customWidth="1"/>
+    <col min="190" max="190" width="10.33203125" customWidth="1"/>
+    <col min="191" max="191" width="12.109375" customWidth="1"/>
+    <col min="192" max="192" width="8.44140625" customWidth="1"/>
+    <col min="193" max="193" width="6.44140625" customWidth="1"/>
+    <col min="194" max="194" width="8.44140625" customWidth="1"/>
+    <col min="195" max="195" width="19.6640625" customWidth="1"/>
+    <col min="196" max="196" width="9.5546875" customWidth="1"/>
+    <col min="197" max="197" width="17.109375" customWidth="1"/>
+    <col min="198" max="198" width="8.44140625" customWidth="1"/>
     <col min="199" max="199" width="15" customWidth="1"/>
-    <col min="200" max="200" width="8.42578125" customWidth="1"/>
-    <col min="201" max="201" width="23.140625" customWidth="1"/>
-    <col min="202" max="202" width="8.42578125" customWidth="1"/>
-    <col min="203" max="204" width="28.7109375" customWidth="1"/>
-    <col min="205" max="206" width="27.7109375" customWidth="1"/>
-    <col min="207" max="208" width="29.42578125" customWidth="1"/>
-    <col min="209" max="209" width="33.7109375" customWidth="1"/>
+    <col min="200" max="200" width="8.44140625" customWidth="1"/>
+    <col min="201" max="201" width="23.109375" customWidth="1"/>
+    <col min="202" max="202" width="8.44140625" customWidth="1"/>
+    <col min="203" max="204" width="28.6640625" customWidth="1"/>
+    <col min="205" max="206" width="27.6640625" customWidth="1"/>
+    <col min="207" max="208" width="29.44140625" customWidth="1"/>
+    <col min="209" max="209" width="33.6640625" customWidth="1"/>
     <col min="210" max="210" width="11" customWidth="1"/>
-    <col min="211" max="211" width="14.5703125" customWidth="1"/>
-    <col min="212" max="212" width="8.42578125" customWidth="1"/>
-    <col min="213" max="213" width="17.7109375" customWidth="1"/>
-    <col min="214" max="214" width="9.7109375" customWidth="1"/>
-    <col min="215" max="215" width="20.28515625" customWidth="1"/>
-    <col min="216" max="216" width="8.42578125" customWidth="1"/>
-    <col min="217" max="217" width="6.42578125" customWidth="1"/>
-    <col min="218" max="218" width="8.42578125" customWidth="1"/>
-    <col min="219" max="219" width="20.42578125" customWidth="1"/>
-    <col min="220" max="220" width="8.42578125" customWidth="1"/>
-    <col min="221" max="221" width="12.85546875" customWidth="1"/>
-    <col min="222" max="222" width="8.42578125" customWidth="1"/>
-    <col min="223" max="223" width="16.7109375" customWidth="1"/>
-    <col min="224" max="224" width="8.5703125" customWidth="1"/>
-    <col min="225" max="225" width="30.7109375" customWidth="1"/>
+    <col min="211" max="211" width="14.5546875" customWidth="1"/>
+    <col min="212" max="212" width="8.44140625" customWidth="1"/>
+    <col min="213" max="213" width="17.6640625" customWidth="1"/>
+    <col min="214" max="214" width="9.6640625" customWidth="1"/>
+    <col min="215" max="215" width="20.33203125" customWidth="1"/>
+    <col min="216" max="216" width="8.44140625" customWidth="1"/>
+    <col min="217" max="217" width="6.44140625" customWidth="1"/>
+    <col min="218" max="218" width="8.44140625" customWidth="1"/>
+    <col min="219" max="219" width="20.44140625" customWidth="1"/>
+    <col min="220" max="220" width="8.44140625" customWidth="1"/>
+    <col min="221" max="221" width="12.88671875" customWidth="1"/>
+    <col min="222" max="222" width="8.44140625" customWidth="1"/>
+    <col min="223" max="223" width="16.6640625" customWidth="1"/>
+    <col min="224" max="224" width="8.5546875" customWidth="1"/>
+    <col min="225" max="225" width="30.6640625" customWidth="1"/>
     <col min="226" max="226" width="11" customWidth="1"/>
-    <col min="227" max="227" width="31.5703125" customWidth="1"/>
+    <col min="227" max="227" width="31.5546875" customWidth="1"/>
     <col min="228" max="228" width="9" customWidth="1"/>
-    <col min="229" max="229" width="22.28515625" customWidth="1"/>
-    <col min="230" max="230" width="9.28515625" customWidth="1"/>
-    <col min="231" max="231" width="17.5703125" customWidth="1"/>
-    <col min="232" max="232" width="9.85546875" customWidth="1"/>
+    <col min="229" max="229" width="22.33203125" customWidth="1"/>
+    <col min="230" max="230" width="9.33203125" customWidth="1"/>
+    <col min="231" max="231" width="17.5546875" customWidth="1"/>
+    <col min="232" max="232" width="9.88671875" customWidth="1"/>
     <col min="233" max="233" width="19" customWidth="1"/>
-    <col min="234" max="234" width="8.42578125" customWidth="1"/>
-    <col min="235" max="235" width="15.5703125" customWidth="1"/>
-    <col min="236" max="236" width="8.42578125" customWidth="1"/>
-    <col min="237" max="237" width="15.5703125" customWidth="1"/>
-    <col min="238" max="238" width="8.42578125" customWidth="1"/>
-    <col min="239" max="239" width="18.140625" customWidth="1"/>
-    <col min="240" max="240" width="8.42578125" customWidth="1"/>
+    <col min="234" max="234" width="8.44140625" customWidth="1"/>
+    <col min="235" max="235" width="15.5546875" customWidth="1"/>
+    <col min="236" max="236" width="8.44140625" customWidth="1"/>
+    <col min="237" max="237" width="15.5546875" customWidth="1"/>
+    <col min="238" max="238" width="8.44140625" customWidth="1"/>
+    <col min="239" max="239" width="18.109375" customWidth="1"/>
+    <col min="240" max="240" width="8.44140625" customWidth="1"/>
     <col min="241" max="241" width="20" customWidth="1"/>
-    <col min="242" max="242" width="8.42578125" customWidth="1"/>
-    <col min="243" max="243" width="10.140625" customWidth="1"/>
-    <col min="244" max="244" width="8.42578125" customWidth="1"/>
-    <col min="245" max="245" width="18.7109375" customWidth="1"/>
-    <col min="246" max="246" width="8.42578125" customWidth="1"/>
-    <col min="247" max="247" width="22.85546875" customWidth="1"/>
-    <col min="248" max="248" width="9.85546875" customWidth="1"/>
-    <col min="249" max="249" width="29.28515625" customWidth="1"/>
-    <col min="250" max="250" width="11.140625" customWidth="1"/>
-    <col min="251" max="251" width="14.85546875" customWidth="1"/>
-    <col min="252" max="252" width="8.42578125" customWidth="1"/>
-    <col min="253" max="253" width="6.42578125" customWidth="1"/>
-    <col min="254" max="254" width="8.42578125" customWidth="1"/>
-    <col min="255" max="255" width="13.140625" customWidth="1"/>
-    <col min="256" max="256" width="8.42578125" customWidth="1"/>
+    <col min="242" max="242" width="8.44140625" customWidth="1"/>
+    <col min="243" max="243" width="10.109375" customWidth="1"/>
+    <col min="244" max="244" width="8.44140625" customWidth="1"/>
+    <col min="245" max="245" width="18.6640625" customWidth="1"/>
+    <col min="246" max="246" width="8.44140625" customWidth="1"/>
+    <col min="247" max="247" width="22.88671875" customWidth="1"/>
+    <col min="248" max="248" width="9.88671875" customWidth="1"/>
+    <col min="249" max="249" width="29.33203125" customWidth="1"/>
+    <col min="250" max="250" width="11.109375" customWidth="1"/>
+    <col min="251" max="251" width="14.88671875" customWidth="1"/>
+    <col min="252" max="252" width="8.44140625" customWidth="1"/>
+    <col min="253" max="253" width="6.44140625" customWidth="1"/>
+    <col min="254" max="254" width="8.44140625" customWidth="1"/>
+    <col min="255" max="255" width="13.109375" customWidth="1"/>
+    <col min="256" max="256" width="8.44140625" customWidth="1"/>
     <col min="257" max="257" width="20" customWidth="1"/>
-    <col min="258" max="258" width="10.85546875" customWidth="1"/>
-    <col min="259" max="259" width="18.5703125" customWidth="1"/>
-    <col min="260" max="260" width="8.42578125" customWidth="1"/>
-    <col min="261" max="261" width="20.28515625" customWidth="1"/>
+    <col min="258" max="258" width="10.88671875" customWidth="1"/>
+    <col min="259" max="259" width="18.5546875" customWidth="1"/>
+    <col min="260" max="260" width="8.44140625" customWidth="1"/>
+    <col min="261" max="261" width="20.33203125" customWidth="1"/>
     <col min="262" max="262" width="9" customWidth="1"/>
     <col min="263" max="263" width="16" customWidth="1"/>
     <col min="264" max="264" width="9" customWidth="1"/>
-    <col min="265" max="265" width="16.42578125" customWidth="1"/>
-    <col min="266" max="266" width="8.42578125" customWidth="1"/>
-    <col min="267" max="267" width="6.42578125" customWidth="1"/>
-    <col min="268" max="268" width="8.42578125" customWidth="1"/>
-    <col min="269" max="269" width="30.140625" customWidth="1"/>
-    <col min="270" max="270" width="8.42578125" customWidth="1"/>
-    <col min="271" max="271" width="17.28515625" customWidth="1"/>
-    <col min="272" max="272" width="12.7109375" customWidth="1"/>
-    <col min="273" max="273" width="8.140625" customWidth="1"/>
-    <col min="274" max="274" width="8.42578125" customWidth="1"/>
-    <col min="275" max="275" width="20.28515625" customWidth="1"/>
-    <col min="276" max="276" width="8.42578125" customWidth="1"/>
-    <col min="277" max="277" width="16.85546875" customWidth="1"/>
-    <col min="278" max="278" width="8.42578125" customWidth="1"/>
-    <col min="279" max="279" width="16.140625" customWidth="1"/>
-    <col min="280" max="280" width="8.42578125" customWidth="1"/>
-    <col min="281" max="281" width="15.7109375" customWidth="1"/>
-    <col min="282" max="282" width="8.42578125" customWidth="1"/>
-    <col min="283" max="283" width="19.28515625" customWidth="1"/>
-    <col min="284" max="284" width="9.5703125" customWidth="1"/>
-    <col min="285" max="285" width="19.28515625" customWidth="1"/>
-    <col min="286" max="286" width="9.5703125" customWidth="1"/>
-    <col min="287" max="287" width="19.28515625" customWidth="1"/>
-    <col min="288" max="288" width="9.5703125" customWidth="1"/>
-    <col min="289" max="289" width="19.28515625" customWidth="1"/>
-    <col min="290" max="290" width="9.5703125" customWidth="1"/>
-    <col min="291" max="291" width="19.28515625" customWidth="1"/>
-    <col min="292" max="292" width="9.5703125" customWidth="1"/>
-    <col min="293" max="293" width="19.28515625" customWidth="1"/>
-    <col min="294" max="294" width="9.5703125" customWidth="1"/>
-    <col min="295" max="295" width="19.28515625" customWidth="1"/>
-    <col min="296" max="296" width="9.5703125" customWidth="1"/>
-    <col min="297" max="297" width="19.28515625" customWidth="1"/>
-    <col min="298" max="298" width="9.5703125" customWidth="1"/>
-    <col min="299" max="300" width="11.140625" customWidth="1"/>
-    <col min="301" max="301" width="10.85546875" customWidth="1"/>
-    <col min="302" max="302" width="8.42578125" customWidth="1"/>
-    <col min="303" max="304" width="8.7109375" customWidth="1"/>
-    <col min="305" max="306" width="11.85546875" customWidth="1"/>
-    <col min="307" max="307" width="52.85546875" customWidth="1"/>
-    <col min="308" max="308" width="63.28515625" customWidth="1"/>
+    <col min="265" max="265" width="16.44140625" customWidth="1"/>
+    <col min="266" max="266" width="8.44140625" customWidth="1"/>
+    <col min="267" max="267" width="6.44140625" customWidth="1"/>
+    <col min="268" max="268" width="8.44140625" customWidth="1"/>
+    <col min="269" max="269" width="30.109375" customWidth="1"/>
+    <col min="270" max="270" width="8.44140625" customWidth="1"/>
+    <col min="271" max="271" width="17.33203125" customWidth="1"/>
+    <col min="272" max="272" width="12.6640625" customWidth="1"/>
+    <col min="273" max="273" width="8.109375" customWidth="1"/>
+    <col min="274" max="274" width="8.44140625" customWidth="1"/>
+    <col min="275" max="275" width="20.33203125" customWidth="1"/>
+    <col min="276" max="276" width="8.44140625" customWidth="1"/>
+    <col min="277" max="277" width="16.88671875" customWidth="1"/>
+    <col min="278" max="278" width="8.44140625" customWidth="1"/>
+    <col min="279" max="279" width="16.109375" customWidth="1"/>
+    <col min="280" max="280" width="8.44140625" customWidth="1"/>
+    <col min="281" max="281" width="15.6640625" customWidth="1"/>
+    <col min="282" max="282" width="8.44140625" customWidth="1"/>
+    <col min="283" max="283" width="19.33203125" customWidth="1"/>
+    <col min="284" max="284" width="9.5546875" customWidth="1"/>
+    <col min="285" max="285" width="19.33203125" customWidth="1"/>
+    <col min="286" max="286" width="9.5546875" customWidth="1"/>
+    <col min="287" max="287" width="19.33203125" customWidth="1"/>
+    <col min="288" max="288" width="9.5546875" customWidth="1"/>
+    <col min="289" max="289" width="19.33203125" customWidth="1"/>
+    <col min="290" max="290" width="9.5546875" customWidth="1"/>
+    <col min="291" max="291" width="19.33203125" customWidth="1"/>
+    <col min="292" max="292" width="9.5546875" customWidth="1"/>
+    <col min="293" max="293" width="19.33203125" customWidth="1"/>
+    <col min="294" max="294" width="9.5546875" customWidth="1"/>
+    <col min="295" max="295" width="19.33203125" customWidth="1"/>
+    <col min="296" max="296" width="9.5546875" customWidth="1"/>
+    <col min="297" max="297" width="19.33203125" customWidth="1"/>
+    <col min="298" max="298" width="9.5546875" customWidth="1"/>
+    <col min="299" max="300" width="11.109375" customWidth="1"/>
+    <col min="301" max="301" width="10.88671875" customWidth="1"/>
+    <col min="302" max="302" width="8.44140625" customWidth="1"/>
+    <col min="303" max="304" width="8.6640625" customWidth="1"/>
+    <col min="305" max="306" width="11.88671875" customWidth="1"/>
+    <col min="307" max="307" width="52.88671875" customWidth="1"/>
+    <col min="308" max="308" width="63.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:308" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:308" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
-      <c r="W1" s="1"/>
-      <c r="X1" s="1"/>
-      <c r="Y1" s="1"/>
-      <c r="Z1" s="1"/>
-      <c r="AA1" s="1"/>
-      <c r="AB1" s="1"/>
-      <c r="AC1" s="1"/>
-      <c r="AD1" s="1"/>
-      <c r="AE1" s="1"/>
-      <c r="AF1" s="1"/>
-      <c r="AG1" s="1"/>
-      <c r="AH1" s="1"/>
-      <c r="AI1" s="1"/>
-      <c r="AJ1" s="1"/>
-      <c r="AK1" s="1"/>
-      <c r="AL1" s="1"/>
-      <c r="AM1" s="1"/>
-      <c r="AN1" s="1"/>
-      <c r="AO1" s="1"/>
-      <c r="AP1" s="1"/>
-      <c r="AQ1" s="1"/>
-      <c r="AR1" s="1"/>
-      <c r="AS1" s="1"/>
-      <c r="AT1" s="1"/>
-      <c r="AU1" s="1"/>
-      <c r="AV1" s="1"/>
-      <c r="AW1" s="1"/>
-      <c r="AX1" s="1"/>
-      <c r="AY1" s="1"/>
-      <c r="AZ1" s="1"/>
-      <c r="BA1" s="1"/>
-      <c r="BB1" s="1"/>
-      <c r="BC1" s="1"/>
-      <c r="BD1" s="1"/>
-      <c r="BE1" s="1"/>
-      <c r="BF1" s="1"/>
-      <c r="BG1" s="1"/>
-      <c r="BH1" s="1"/>
-      <c r="BI1" s="1"/>
-      <c r="BJ1" s="1"/>
-      <c r="BK1" s="1"/>
-      <c r="BL1" s="1"/>
-      <c r="BM1" s="1"/>
-      <c r="BN1" s="1"/>
-      <c r="BO1" s="1"/>
-      <c r="BP1" s="1"/>
-      <c r="BQ1" s="1"/>
-      <c r="BR1" s="1"/>
-      <c r="BS1" s="1"/>
-      <c r="BT1" s="1"/>
-      <c r="BU1" s="1"/>
-      <c r="BV1" s="1"/>
-      <c r="BW1" s="1"/>
-      <c r="BX1" s="1"/>
-      <c r="BY1" s="1"/>
-      <c r="BZ1" s="1"/>
-      <c r="CA1" s="1"/>
-      <c r="CB1" s="1"/>
-      <c r="CC1" s="1"/>
-      <c r="CD1" s="1"/>
-      <c r="CE1" s="1"/>
-      <c r="CF1" s="1"/>
-      <c r="CG1" s="1"/>
-      <c r="CH1" s="1"/>
-      <c r="CI1" s="1"/>
-      <c r="CJ1" s="1"/>
-      <c r="CK1" s="1"/>
-      <c r="CL1" s="1"/>
-      <c r="CM1" s="1"/>
-      <c r="CN1" s="1"/>
-      <c r="CO1" s="1"/>
-      <c r="CP1" s="1"/>
-      <c r="CQ1" s="1"/>
-      <c r="CR1" s="1"/>
-      <c r="CS1" s="1"/>
-      <c r="CT1" s="1"/>
-      <c r="CU1" s="1"/>
-      <c r="CV1" s="1"/>
-      <c r="CW1" s="1"/>
-      <c r="CX1" s="1"/>
-      <c r="CY1" s="1"/>
-      <c r="CZ1" s="1"/>
-      <c r="DA1" s="1"/>
-      <c r="DB1" s="1"/>
-      <c r="DC1" s="1"/>
-      <c r="DD1" s="1"/>
-      <c r="DE1" s="1"/>
-      <c r="DF1" s="1"/>
-      <c r="DG1" s="1"/>
-      <c r="DH1" s="1"/>
-      <c r="DI1" s="1"/>
-      <c r="DJ1" s="1"/>
-      <c r="DK1" s="1"/>
-      <c r="DL1" s="1"/>
-      <c r="DM1" s="1"/>
-      <c r="DN1" s="1"/>
-      <c r="DO1" s="1"/>
-      <c r="DP1" s="1"/>
-      <c r="DQ1" s="1"/>
-      <c r="DR1" s="1"/>
-      <c r="DS1" s="1"/>
-      <c r="DT1" s="1"/>
-      <c r="DU1" s="1"/>
-      <c r="DV1" s="1"/>
-      <c r="DW1" s="1"/>
-      <c r="DX1" s="1"/>
-      <c r="DY1" s="1"/>
-      <c r="DZ1" s="1"/>
-      <c r="EA1" s="1"/>
-      <c r="EB1" s="1"/>
-      <c r="EC1" s="1"/>
-      <c r="ED1" s="1"/>
-      <c r="EE1" s="1"/>
-      <c r="EF1" s="1"/>
-      <c r="EG1" s="1"/>
-      <c r="EH1" s="1"/>
-      <c r="EI1" s="1"/>
-      <c r="EJ1" s="1"/>
-      <c r="EK1" s="1"/>
-      <c r="EL1" s="1"/>
-      <c r="EM1" s="1"/>
-      <c r="EN1" s="1"/>
-      <c r="EO1" s="1"/>
-      <c r="EP1" s="1"/>
-      <c r="EQ1" s="1"/>
-      <c r="ER1" s="1"/>
-      <c r="ES1" s="1"/>
-      <c r="ET1" s="1"/>
-      <c r="EU1" s="1"/>
-      <c r="EV1" s="1"/>
-      <c r="EW1" s="1"/>
-      <c r="EX1" s="1"/>
-      <c r="EY1" s="1"/>
-      <c r="EZ1" s="1"/>
-      <c r="FA1" s="1"/>
-      <c r="FB1" s="1"/>
-      <c r="FC1" s="1"/>
-      <c r="FD1" s="1"/>
-      <c r="FE1" s="1"/>
-      <c r="FF1" s="1"/>
-      <c r="FG1" s="1"/>
-      <c r="FH1" s="1"/>
-      <c r="FI1" s="1"/>
-      <c r="FJ1" s="1"/>
-      <c r="FK1" s="1"/>
-      <c r="FL1" s="1"/>
-      <c r="FM1" s="1"/>
-      <c r="FN1" s="1"/>
-      <c r="FO1" s="1"/>
-      <c r="FP1" s="1"/>
-      <c r="FQ1" s="1"/>
-      <c r="FR1" s="1"/>
-      <c r="FS1" s="1"/>
-      <c r="FT1" s="1"/>
-      <c r="FU1" s="1"/>
-      <c r="FV1" s="1"/>
-      <c r="FW1" s="1"/>
-      <c r="FX1" s="1"/>
-      <c r="FY1" s="1"/>
-      <c r="FZ1" s="1"/>
-      <c r="GA1" s="1"/>
-      <c r="GB1" s="1"/>
-      <c r="GC1" s="1"/>
-      <c r="GD1" s="1"/>
-      <c r="GE1" s="1"/>
-      <c r="GF1" s="1"/>
-      <c r="GG1" s="1"/>
-      <c r="GH1" s="1"/>
-      <c r="GI1" s="1"/>
-      <c r="GJ1" s="1"/>
-      <c r="GK1" s="1"/>
-      <c r="GL1" s="1"/>
-      <c r="GM1" s="1"/>
-      <c r="GN1" s="1"/>
-      <c r="GO1" s="1"/>
-      <c r="GP1" s="1"/>
-      <c r="GQ1" s="1"/>
-      <c r="GR1" s="1"/>
-      <c r="GS1" s="1"/>
-      <c r="GT1" s="1"/>
-      <c r="GU1" s="1"/>
-      <c r="GV1" s="1"/>
-      <c r="GW1" s="1"/>
-      <c r="GX1" s="1"/>
-      <c r="GY1" s="1"/>
-      <c r="GZ1" s="1"/>
-      <c r="HA1" s="1"/>
-      <c r="HB1" s="1"/>
-      <c r="HC1" s="1"/>
-      <c r="HD1" s="1"/>
-      <c r="HE1" s="1"/>
-      <c r="HF1" s="1"/>
-      <c r="HG1" s="1"/>
-      <c r="HH1" s="1"/>
-      <c r="HI1" s="1"/>
-      <c r="HJ1" s="1"/>
-      <c r="HK1" s="1"/>
-      <c r="HL1" s="1"/>
-      <c r="HM1" s="1"/>
-      <c r="HN1" s="1"/>
-      <c r="HO1" s="1"/>
-      <c r="HP1" s="1"/>
-      <c r="HQ1" s="1"/>
-      <c r="HR1" s="1"/>
-      <c r="HS1" s="1"/>
-      <c r="HT1" s="1"/>
-      <c r="HU1" s="1"/>
-      <c r="HV1" s="1"/>
-      <c r="HW1" s="1"/>
-      <c r="HX1" s="1"/>
-      <c r="HY1" s="1"/>
-      <c r="HZ1" s="1"/>
-      <c r="IA1" s="1"/>
-      <c r="IB1" s="1"/>
-      <c r="IC1" s="1"/>
-      <c r="ID1" s="1"/>
-      <c r="IE1" s="1"/>
-      <c r="IF1" s="1"/>
-      <c r="IG1" s="1"/>
-      <c r="IH1" s="1"/>
-      <c r="II1" s="1"/>
-      <c r="IJ1" s="1"/>
-      <c r="IK1" s="1"/>
-      <c r="IL1" s="1"/>
-      <c r="IM1" s="1"/>
-      <c r="IN1" s="1"/>
-      <c r="IO1" s="1"/>
-      <c r="IP1" s="1"/>
-      <c r="IQ1" s="1"/>
-      <c r="IR1" s="1"/>
-      <c r="IS1" s="1"/>
-      <c r="IT1" s="1"/>
-      <c r="IU1" s="1"/>
-      <c r="IV1" s="1"/>
-      <c r="IW1" s="1"/>
-      <c r="IX1" s="1"/>
-      <c r="IY1" s="1"/>
-      <c r="IZ1" s="1"/>
-      <c r="JA1" s="1"/>
-      <c r="JB1" s="1"/>
-      <c r="JC1" s="1"/>
-      <c r="JD1" s="1"/>
-      <c r="JE1" s="1"/>
-      <c r="JF1" s="1"/>
-      <c r="JG1" s="1"/>
-      <c r="JH1" s="1"/>
-      <c r="JI1" s="1"/>
-      <c r="JJ1" s="1"/>
-      <c r="JK1" s="1"/>
-      <c r="JL1" s="1"/>
-      <c r="JM1" s="1"/>
-      <c r="JN1" s="1"/>
-      <c r="JO1" s="1"/>
-      <c r="JP1" s="1"/>
-      <c r="JQ1" s="1"/>
-      <c r="JR1" s="1"/>
-      <c r="JS1" s="1"/>
-      <c r="JT1" s="1"/>
-      <c r="JU1" s="1"/>
-      <c r="JV1" s="1"/>
-      <c r="JW1" s="1"/>
-      <c r="JX1" s="1"/>
-      <c r="JY1" s="1"/>
-      <c r="JZ1" s="1"/>
-      <c r="KA1" s="1"/>
-      <c r="KB1" s="1"/>
-      <c r="KC1" s="1"/>
-      <c r="KD1" s="1"/>
-      <c r="KE1" s="1"/>
-      <c r="KF1" s="1"/>
-      <c r="KG1" s="1"/>
-      <c r="KH1" s="1"/>
-      <c r="KI1" s="1"/>
-      <c r="KJ1" s="1"/>
-      <c r="KK1" s="1"/>
-      <c r="KL1" s="1"/>
-      <c r="KM1" s="1"/>
-      <c r="KN1" s="1"/>
-      <c r="KO1" s="1"/>
-      <c r="KP1" s="1"/>
-      <c r="KQ1" s="1"/>
-      <c r="KR1" s="1"/>
-      <c r="KS1" s="1"/>
-      <c r="KT1" s="1"/>
-      <c r="KU1" s="1" t="s">
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
+      <c r="T1" s="9"/>
+      <c r="U1" s="9"/>
+      <c r="V1" s="9"/>
+      <c r="W1" s="9"/>
+      <c r="X1" s="9"/>
+      <c r="Y1" s="9"/>
+      <c r="Z1" s="9"/>
+      <c r="AA1" s="9"/>
+      <c r="AB1" s="9"/>
+      <c r="AC1" s="9"/>
+      <c r="AD1" s="9"/>
+      <c r="AE1" s="9"/>
+      <c r="AF1" s="9"/>
+      <c r="AG1" s="9"/>
+      <c r="AH1" s="9"/>
+      <c r="AI1" s="9"/>
+      <c r="AJ1" s="9"/>
+      <c r="AK1" s="9"/>
+      <c r="AL1" s="9"/>
+      <c r="AM1" s="9"/>
+      <c r="AN1" s="9"/>
+      <c r="AO1" s="9"/>
+      <c r="AP1" s="9"/>
+      <c r="AQ1" s="9"/>
+      <c r="AR1" s="9"/>
+      <c r="AS1" s="9"/>
+      <c r="AT1" s="9"/>
+      <c r="AU1" s="9"/>
+      <c r="AV1" s="9"/>
+      <c r="AW1" s="9"/>
+      <c r="AX1" s="9"/>
+      <c r="AY1" s="9"/>
+      <c r="AZ1" s="9"/>
+      <c r="BA1" s="9"/>
+      <c r="BB1" s="9"/>
+      <c r="BC1" s="9"/>
+      <c r="BD1" s="9"/>
+      <c r="BE1" s="9"/>
+      <c r="BF1" s="9"/>
+      <c r="BG1" s="9"/>
+      <c r="BH1" s="9"/>
+      <c r="BI1" s="9"/>
+      <c r="BJ1" s="9"/>
+      <c r="BK1" s="9"/>
+      <c r="BL1" s="9"/>
+      <c r="BM1" s="9"/>
+      <c r="BN1" s="9"/>
+      <c r="BO1" s="9"/>
+      <c r="BP1" s="9"/>
+      <c r="BQ1" s="9"/>
+      <c r="BR1" s="9"/>
+      <c r="BS1" s="9"/>
+      <c r="BT1" s="9"/>
+      <c r="BU1" s="9"/>
+      <c r="BV1" s="9"/>
+      <c r="BW1" s="9"/>
+      <c r="BX1" s="9"/>
+      <c r="BY1" s="9"/>
+      <c r="BZ1" s="9"/>
+      <c r="CA1" s="9"/>
+      <c r="CB1" s="9"/>
+      <c r="CC1" s="9"/>
+      <c r="CD1" s="9"/>
+      <c r="CE1" s="9"/>
+      <c r="CF1" s="9"/>
+      <c r="CG1" s="9"/>
+      <c r="CH1" s="9"/>
+      <c r="CI1" s="9"/>
+      <c r="CJ1" s="9"/>
+      <c r="CK1" s="9"/>
+      <c r="CL1" s="9"/>
+      <c r="CM1" s="9"/>
+      <c r="CN1" s="9"/>
+      <c r="CO1" s="9"/>
+      <c r="CP1" s="9"/>
+      <c r="CQ1" s="9"/>
+      <c r="CR1" s="9"/>
+      <c r="CS1" s="9"/>
+      <c r="CT1" s="9"/>
+      <c r="CU1" s="9"/>
+      <c r="CV1" s="9"/>
+      <c r="CW1" s="9"/>
+      <c r="CX1" s="9"/>
+      <c r="CY1" s="9"/>
+      <c r="CZ1" s="9"/>
+      <c r="DA1" s="9"/>
+      <c r="DB1" s="9"/>
+      <c r="DC1" s="9"/>
+      <c r="DD1" s="9"/>
+      <c r="DE1" s="9"/>
+      <c r="DF1" s="9"/>
+      <c r="DG1" s="9"/>
+      <c r="DH1" s="9"/>
+      <c r="DI1" s="9"/>
+      <c r="DJ1" s="9"/>
+      <c r="DK1" s="9"/>
+      <c r="DL1" s="9"/>
+      <c r="DM1" s="9"/>
+      <c r="DN1" s="9"/>
+      <c r="DO1" s="9"/>
+      <c r="DP1" s="9"/>
+      <c r="DQ1" s="9"/>
+      <c r="DR1" s="9"/>
+      <c r="DS1" s="9"/>
+      <c r="DT1" s="9"/>
+      <c r="DU1" s="9"/>
+      <c r="DV1" s="9"/>
+      <c r="DW1" s="9"/>
+      <c r="DX1" s="9"/>
+      <c r="DY1" s="9"/>
+      <c r="DZ1" s="9"/>
+      <c r="EA1" s="9"/>
+      <c r="EB1" s="9"/>
+      <c r="EC1" s="9"/>
+      <c r="ED1" s="9"/>
+      <c r="EE1" s="9"/>
+      <c r="EF1" s="9"/>
+      <c r="EG1" s="9"/>
+      <c r="EH1" s="9"/>
+      <c r="EI1" s="9"/>
+      <c r="EJ1" s="9"/>
+      <c r="EK1" s="9"/>
+      <c r="EL1" s="9"/>
+      <c r="EM1" s="9"/>
+      <c r="EN1" s="9"/>
+      <c r="EO1" s="9"/>
+      <c r="EP1" s="9"/>
+      <c r="EQ1" s="9"/>
+      <c r="ER1" s="9"/>
+      <c r="ES1" s="9"/>
+      <c r="ET1" s="9"/>
+      <c r="EU1" s="9"/>
+      <c r="EV1" s="9"/>
+      <c r="EW1" s="9"/>
+      <c r="EX1" s="9"/>
+      <c r="EY1" s="9"/>
+      <c r="EZ1" s="9"/>
+      <c r="FA1" s="9"/>
+      <c r="FB1" s="9"/>
+      <c r="FC1" s="9"/>
+      <c r="FD1" s="9"/>
+      <c r="FE1" s="9"/>
+      <c r="FF1" s="9"/>
+      <c r="FG1" s="9"/>
+      <c r="FH1" s="9"/>
+      <c r="FI1" s="9"/>
+      <c r="FJ1" s="9"/>
+      <c r="FK1" s="9"/>
+      <c r="FL1" s="9"/>
+      <c r="FM1" s="9"/>
+      <c r="FN1" s="9"/>
+      <c r="FO1" s="9"/>
+      <c r="FP1" s="9"/>
+      <c r="FQ1" s="9"/>
+      <c r="FR1" s="9"/>
+      <c r="FS1" s="9"/>
+      <c r="FT1" s="9"/>
+      <c r="FU1" s="9"/>
+      <c r="FV1" s="9"/>
+      <c r="FW1" s="9"/>
+      <c r="FX1" s="9"/>
+      <c r="FY1" s="9"/>
+      <c r="FZ1" s="9"/>
+      <c r="GA1" s="9"/>
+      <c r="GB1" s="9"/>
+      <c r="GC1" s="9"/>
+      <c r="GD1" s="9"/>
+      <c r="GE1" s="9"/>
+      <c r="GF1" s="9"/>
+      <c r="GG1" s="9"/>
+      <c r="GH1" s="9"/>
+      <c r="GI1" s="9"/>
+      <c r="GJ1" s="9"/>
+      <c r="GK1" s="9"/>
+      <c r="GL1" s="9"/>
+      <c r="GM1" s="9"/>
+      <c r="GN1" s="9"/>
+      <c r="GO1" s="9"/>
+      <c r="GP1" s="9"/>
+      <c r="GQ1" s="9"/>
+      <c r="GR1" s="9"/>
+      <c r="GS1" s="9"/>
+      <c r="GT1" s="9"/>
+      <c r="GU1" s="9"/>
+      <c r="GV1" s="9"/>
+      <c r="GW1" s="9"/>
+      <c r="GX1" s="9"/>
+      <c r="GY1" s="9"/>
+      <c r="GZ1" s="9"/>
+      <c r="HA1" s="9"/>
+      <c r="HB1" s="9"/>
+      <c r="HC1" s="9"/>
+      <c r="HD1" s="9"/>
+      <c r="HE1" s="9"/>
+      <c r="HF1" s="9"/>
+      <c r="HG1" s="9"/>
+      <c r="HH1" s="9"/>
+      <c r="HI1" s="9"/>
+      <c r="HJ1" s="9"/>
+      <c r="HK1" s="9"/>
+      <c r="HL1" s="9"/>
+      <c r="HM1" s="9"/>
+      <c r="HN1" s="9"/>
+      <c r="HO1" s="9"/>
+      <c r="HP1" s="9"/>
+      <c r="HQ1" s="9"/>
+      <c r="HR1" s="9"/>
+      <c r="HS1" s="9"/>
+      <c r="HT1" s="9"/>
+      <c r="HU1" s="9"/>
+      <c r="HV1" s="9"/>
+      <c r="HW1" s="9"/>
+      <c r="HX1" s="9"/>
+      <c r="HY1" s="9"/>
+      <c r="HZ1" s="9"/>
+      <c r="IA1" s="9"/>
+      <c r="IB1" s="9"/>
+      <c r="IC1" s="9"/>
+      <c r="ID1" s="9"/>
+      <c r="IE1" s="9"/>
+      <c r="IF1" s="9"/>
+      <c r="IG1" s="9"/>
+      <c r="IH1" s="9"/>
+      <c r="II1" s="9"/>
+      <c r="IJ1" s="9"/>
+      <c r="IK1" s="9"/>
+      <c r="IL1" s="9"/>
+      <c r="IM1" s="9"/>
+      <c r="IN1" s="9"/>
+      <c r="IO1" s="9"/>
+      <c r="IP1" s="9"/>
+      <c r="IQ1" s="9"/>
+      <c r="IR1" s="9"/>
+      <c r="IS1" s="9"/>
+      <c r="IT1" s="9"/>
+      <c r="IU1" s="9"/>
+      <c r="IV1" s="9"/>
+      <c r="IW1" s="9"/>
+      <c r="IX1" s="9"/>
+      <c r="IY1" s="9"/>
+      <c r="IZ1" s="9"/>
+      <c r="JA1" s="9"/>
+      <c r="JB1" s="9"/>
+      <c r="JC1" s="9"/>
+      <c r="JD1" s="9"/>
+      <c r="JE1" s="9"/>
+      <c r="JF1" s="9"/>
+      <c r="JG1" s="9"/>
+      <c r="JH1" s="9"/>
+      <c r="JI1" s="9"/>
+      <c r="JJ1" s="9"/>
+      <c r="JK1" s="9"/>
+      <c r="JL1" s="9"/>
+      <c r="JM1" s="9"/>
+      <c r="JN1" s="9"/>
+      <c r="JO1" s="9"/>
+      <c r="JP1" s="9"/>
+      <c r="JQ1" s="9"/>
+      <c r="JR1" s="9"/>
+      <c r="JS1" s="9"/>
+      <c r="JT1" s="9"/>
+      <c r="JU1" s="9"/>
+      <c r="JV1" s="9"/>
+      <c r="JW1" s="9"/>
+      <c r="JX1" s="9"/>
+      <c r="JY1" s="9"/>
+      <c r="JZ1" s="9"/>
+      <c r="KA1" s="9"/>
+      <c r="KB1" s="9"/>
+      <c r="KC1" s="9"/>
+      <c r="KD1" s="9"/>
+      <c r="KE1" s="9"/>
+      <c r="KF1" s="9"/>
+      <c r="KG1" s="9"/>
+      <c r="KH1" s="9"/>
+      <c r="KI1" s="9"/>
+      <c r="KJ1" s="9"/>
+      <c r="KK1" s="9"/>
+      <c r="KL1" s="9"/>
+      <c r="KM1" s="9"/>
+      <c r="KN1" s="9"/>
+      <c r="KO1" s="9"/>
+      <c r="KP1" s="9"/>
+      <c r="KQ1" s="9"/>
+      <c r="KR1" s="9"/>
+      <c r="KS1" s="9"/>
+      <c r="KT1" s="9"/>
+      <c r="KU1" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="KV1" s="1"/>
-    </row>
-    <row r="2" spans="1:308" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="KV1" s="9"/>
+    </row>
+    <row r="2" spans="1:308" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
-      <c r="U2" s="1"/>
-      <c r="V2" s="1"/>
-      <c r="W2" s="1"/>
-      <c r="X2" s="1"/>
-      <c r="Y2" s="1"/>
-      <c r="Z2" s="1"/>
-      <c r="AA2" s="1"/>
-      <c r="AB2" s="1"/>
-      <c r="AC2" s="1"/>
-      <c r="AD2" s="1"/>
-      <c r="AE2" s="1"/>
-      <c r="AF2" s="1"/>
-      <c r="AG2" s="1"/>
-      <c r="AH2" s="1"/>
-      <c r="AI2" s="1"/>
-      <c r="AJ2" s="1"/>
-      <c r="AK2" s="1"/>
-      <c r="AL2" s="1"/>
-      <c r="AM2" s="1"/>
-      <c r="AN2" s="1"/>
-      <c r="AO2" s="1"/>
-      <c r="AP2" s="1"/>
-      <c r="AQ2" s="1"/>
-      <c r="AR2" s="1"/>
-      <c r="AS2" s="1"/>
-      <c r="AT2" s="1"/>
-      <c r="AU2" s="1"/>
-      <c r="AV2" s="1"/>
-      <c r="AW2" s="1"/>
-      <c r="AX2" s="1"/>
-      <c r="AY2" s="1"/>
-      <c r="AZ2" s="1"/>
-      <c r="BA2" s="1"/>
-      <c r="BB2" s="1"/>
-      <c r="BC2" s="1"/>
-      <c r="BD2" s="1"/>
-      <c r="BE2" s="1"/>
-      <c r="BF2" s="1"/>
-      <c r="BG2" s="1"/>
-      <c r="BH2" s="1"/>
-      <c r="BI2" s="1"/>
-      <c r="BJ2" s="1"/>
-      <c r="BK2" s="1"/>
-      <c r="BL2" s="1"/>
-      <c r="BM2" s="1"/>
-      <c r="BN2" s="1"/>
-      <c r="BO2" s="1"/>
-      <c r="BP2" s="1"/>
-      <c r="BQ2" s="1"/>
-      <c r="BR2" s="1"/>
-      <c r="BS2" s="1"/>
-      <c r="BT2" s="1"/>
-      <c r="BU2" s="1"/>
-      <c r="BV2" s="1"/>
-      <c r="BW2" s="1"/>
-      <c r="BX2" s="1"/>
-      <c r="BY2" s="1"/>
-      <c r="BZ2" s="1"/>
-      <c r="CA2" s="1"/>
-      <c r="CB2" s="1"/>
-      <c r="CC2" s="1"/>
-      <c r="CD2" s="1"/>
-      <c r="CE2" s="1"/>
-      <c r="CF2" s="1"/>
-      <c r="CG2" s="1"/>
-      <c r="CH2" s="1"/>
-      <c r="CI2" s="1"/>
-      <c r="CJ2" s="1"/>
-      <c r="CK2" s="1"/>
-      <c r="CL2" s="1"/>
-      <c r="CM2" s="1"/>
-      <c r="CN2" s="1"/>
-      <c r="CO2" s="1"/>
-      <c r="CP2" s="1"/>
-      <c r="CQ2" s="1"/>
-      <c r="CR2" s="1"/>
-      <c r="CS2" s="1"/>
-      <c r="CT2" s="1"/>
-      <c r="CU2" s="1"/>
-      <c r="CV2" s="1"/>
-      <c r="CW2" s="1"/>
-      <c r="CX2" s="1"/>
-      <c r="CY2" s="1"/>
-      <c r="CZ2" s="1"/>
-      <c r="DA2" s="1"/>
-      <c r="DB2" s="1"/>
-      <c r="DC2" s="1"/>
-      <c r="DD2" s="1"/>
-      <c r="DE2" s="1"/>
-      <c r="DF2" s="1"/>
-      <c r="DG2" s="1"/>
-      <c r="DH2" s="1"/>
-      <c r="DI2" s="1"/>
-      <c r="DJ2" s="1"/>
-      <c r="DK2" s="1"/>
-      <c r="DL2" s="1"/>
-      <c r="DM2" s="1"/>
-      <c r="DN2" s="1"/>
-      <c r="DO2" s="1"/>
-      <c r="DP2" s="1"/>
-      <c r="DQ2" s="1"/>
-      <c r="DR2" s="1"/>
-      <c r="DS2" s="1"/>
-      <c r="DT2" s="1"/>
-      <c r="DU2" s="1"/>
-      <c r="DV2" s="1"/>
-      <c r="DW2" s="1"/>
-      <c r="DX2" s="1"/>
-      <c r="DY2" s="1"/>
-      <c r="DZ2" s="1"/>
-      <c r="EA2" s="1"/>
-      <c r="EB2" s="1"/>
-      <c r="EC2" s="1"/>
-      <c r="ED2" s="1"/>
-      <c r="EE2" s="1"/>
-      <c r="EF2" s="1"/>
-      <c r="EG2" s="1"/>
-      <c r="EH2" s="1"/>
-      <c r="EI2" s="1"/>
-      <c r="EJ2" s="1"/>
-      <c r="EK2" s="1"/>
-      <c r="EL2" s="1"/>
-      <c r="EM2" s="1"/>
-      <c r="EN2" s="1"/>
-      <c r="EO2" s="1"/>
-      <c r="EP2" s="1"/>
-      <c r="EQ2" s="1"/>
-      <c r="ER2" s="1"/>
-      <c r="ES2" s="1"/>
-      <c r="ET2" s="1"/>
-      <c r="EU2" s="1"/>
-      <c r="EV2" s="1"/>
-      <c r="EW2" s="1"/>
-      <c r="EX2" s="1"/>
-      <c r="EY2" s="1"/>
-      <c r="EZ2" s="1"/>
-      <c r="FA2" s="1"/>
-      <c r="FB2" s="1"/>
-      <c r="FC2" s="1"/>
-      <c r="FD2" s="1"/>
-      <c r="FE2" s="1"/>
-      <c r="FF2" s="1"/>
-      <c r="FG2" s="1"/>
-      <c r="FH2" s="1"/>
-      <c r="FI2" s="1"/>
-      <c r="FJ2" s="1"/>
-      <c r="FK2" s="1"/>
-      <c r="FL2" s="1"/>
-      <c r="FM2" s="1"/>
-      <c r="FN2" s="1"/>
-      <c r="FO2" s="1"/>
-      <c r="FP2" s="1"/>
-      <c r="FQ2" s="1"/>
-      <c r="FR2" s="1"/>
-      <c r="FS2" s="1"/>
-      <c r="FT2" s="1"/>
-      <c r="FU2" s="1"/>
-      <c r="FV2" s="1"/>
-      <c r="FW2" s="1"/>
-      <c r="FX2" s="1"/>
-      <c r="FY2" s="1"/>
-      <c r="FZ2" s="1"/>
-      <c r="GA2" s="1"/>
-      <c r="GB2" s="1"/>
-      <c r="GC2" s="1"/>
-      <c r="GD2" s="1"/>
-      <c r="GE2" s="1"/>
-      <c r="GF2" s="1"/>
-      <c r="GG2" s="1"/>
-      <c r="GH2" s="1"/>
-      <c r="GI2" s="1"/>
-      <c r="GJ2" s="1"/>
-      <c r="GK2" s="1"/>
-      <c r="GL2" s="1"/>
-      <c r="GM2" s="1"/>
-      <c r="GN2" s="1"/>
-      <c r="GO2" s="1"/>
-      <c r="GP2" s="1"/>
-      <c r="GQ2" s="1"/>
-      <c r="GR2" s="1"/>
-      <c r="GS2" s="1"/>
-      <c r="GT2" s="1"/>
-      <c r="GU2" s="1"/>
-      <c r="GV2" s="1"/>
-      <c r="GW2" s="1"/>
-      <c r="GX2" s="1"/>
-      <c r="GY2" s="1"/>
-      <c r="GZ2" s="1"/>
-      <c r="HA2" s="1"/>
-      <c r="HB2" s="1"/>
-      <c r="HC2" s="1"/>
-      <c r="HD2" s="1"/>
-      <c r="HE2" s="1"/>
-      <c r="HF2" s="1"/>
-      <c r="HG2" s="1"/>
-      <c r="HH2" s="1"/>
-      <c r="HI2" s="1"/>
-      <c r="HJ2" s="1"/>
-      <c r="HK2" s="1"/>
-      <c r="HL2" s="1"/>
-      <c r="HM2" s="1"/>
-      <c r="HN2" s="1"/>
-      <c r="HO2" s="1"/>
-      <c r="HP2" s="1"/>
-      <c r="HQ2" s="1"/>
-      <c r="HR2" s="1"/>
-      <c r="HS2" s="1"/>
-      <c r="HT2" s="1"/>
-      <c r="HU2" s="1"/>
-      <c r="HV2" s="1"/>
-      <c r="HW2" s="1"/>
-      <c r="HX2" s="1"/>
-      <c r="HY2" s="1"/>
-      <c r="HZ2" s="1"/>
-      <c r="IA2" s="1"/>
-      <c r="IB2" s="1"/>
-      <c r="IC2" s="1"/>
-      <c r="ID2" s="1"/>
-      <c r="IE2" s="1"/>
-      <c r="IF2" s="1"/>
-      <c r="IG2" s="1"/>
-      <c r="IH2" s="1"/>
-      <c r="II2" s="1"/>
-      <c r="IJ2" s="1"/>
-      <c r="IK2" s="1"/>
-      <c r="IL2" s="1"/>
-      <c r="IM2" s="1"/>
-      <c r="IN2" s="1"/>
-      <c r="IO2" s="1"/>
-      <c r="IP2" s="1"/>
-      <c r="IQ2" s="1"/>
-      <c r="IR2" s="1"/>
-      <c r="IS2" s="1"/>
-      <c r="IT2" s="1"/>
-      <c r="IU2" s="1"/>
-      <c r="IV2" s="1"/>
-      <c r="IW2" s="1"/>
-      <c r="IX2" s="1"/>
-      <c r="IY2" s="1"/>
-      <c r="IZ2" s="1"/>
-      <c r="JA2" s="1"/>
-      <c r="JB2" s="1"/>
-      <c r="JC2" s="1"/>
-      <c r="JD2" s="1"/>
-      <c r="JE2" s="1"/>
-      <c r="JF2" s="1"/>
-      <c r="JG2" s="1"/>
-      <c r="JH2" s="1"/>
-      <c r="JI2" s="1"/>
-      <c r="JJ2" s="1"/>
-      <c r="JK2" s="1"/>
-      <c r="JL2" s="1"/>
-      <c r="JM2" s="1"/>
-      <c r="JN2" s="1"/>
-      <c r="JO2" s="1"/>
-      <c r="JP2" s="1"/>
-      <c r="JQ2" s="1"/>
-      <c r="JR2" s="1"/>
-      <c r="JS2" s="1"/>
-      <c r="JT2" s="1"/>
-      <c r="JU2" s="1"/>
-      <c r="JV2" s="1"/>
-      <c r="JW2" s="1"/>
-      <c r="JX2" s="1"/>
-      <c r="JY2" s="1"/>
-      <c r="JZ2" s="1"/>
-      <c r="KA2" s="1"/>
-      <c r="KB2" s="1"/>
-      <c r="KC2" s="1"/>
-      <c r="KD2" s="1"/>
-      <c r="KE2" s="1"/>
-      <c r="KF2" s="1"/>
-      <c r="KG2" s="1"/>
-      <c r="KH2" s="1"/>
-      <c r="KI2" s="1"/>
-      <c r="KJ2" s="1"/>
-      <c r="KK2" s="1"/>
-      <c r="KL2" s="1"/>
-      <c r="KM2" s="1"/>
-      <c r="KN2" s="1"/>
-      <c r="KO2" s="1"/>
-      <c r="KP2" s="1"/>
-      <c r="KQ2" s="1"/>
-      <c r="KR2" s="1"/>
-      <c r="KS2" s="1"/>
-      <c r="KT2" s="1"/>
-      <c r="KU2" s="1" t="s">
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="9"/>
+      <c r="S2" s="9"/>
+      <c r="T2" s="9"/>
+      <c r="U2" s="9"/>
+      <c r="V2" s="9"/>
+      <c r="W2" s="9"/>
+      <c r="X2" s="9"/>
+      <c r="Y2" s="9"/>
+      <c r="Z2" s="9"/>
+      <c r="AA2" s="9"/>
+      <c r="AB2" s="9"/>
+      <c r="AC2" s="9"/>
+      <c r="AD2" s="9"/>
+      <c r="AE2" s="9"/>
+      <c r="AF2" s="9"/>
+      <c r="AG2" s="9"/>
+      <c r="AH2" s="9"/>
+      <c r="AI2" s="9"/>
+      <c r="AJ2" s="9"/>
+      <c r="AK2" s="9"/>
+      <c r="AL2" s="9"/>
+      <c r="AM2" s="9"/>
+      <c r="AN2" s="9"/>
+      <c r="AO2" s="9"/>
+      <c r="AP2" s="9"/>
+      <c r="AQ2" s="9"/>
+      <c r="AR2" s="9"/>
+      <c r="AS2" s="9"/>
+      <c r="AT2" s="9"/>
+      <c r="AU2" s="9"/>
+      <c r="AV2" s="9"/>
+      <c r="AW2" s="9"/>
+      <c r="AX2" s="9"/>
+      <c r="AY2" s="9"/>
+      <c r="AZ2" s="9"/>
+      <c r="BA2" s="9"/>
+      <c r="BB2" s="9"/>
+      <c r="BC2" s="9"/>
+      <c r="BD2" s="9"/>
+      <c r="BE2" s="9"/>
+      <c r="BF2" s="9"/>
+      <c r="BG2" s="9"/>
+      <c r="BH2" s="9"/>
+      <c r="BI2" s="9"/>
+      <c r="BJ2" s="9"/>
+      <c r="BK2" s="9"/>
+      <c r="BL2" s="9"/>
+      <c r="BM2" s="9"/>
+      <c r="BN2" s="9"/>
+      <c r="BO2" s="9"/>
+      <c r="BP2" s="9"/>
+      <c r="BQ2" s="9"/>
+      <c r="BR2" s="9"/>
+      <c r="BS2" s="9"/>
+      <c r="BT2" s="9"/>
+      <c r="BU2" s="9"/>
+      <c r="BV2" s="9"/>
+      <c r="BW2" s="9"/>
+      <c r="BX2" s="9"/>
+      <c r="BY2" s="9"/>
+      <c r="BZ2" s="9"/>
+      <c r="CA2" s="9"/>
+      <c r="CB2" s="9"/>
+      <c r="CC2" s="9"/>
+      <c r="CD2" s="9"/>
+      <c r="CE2" s="9"/>
+      <c r="CF2" s="9"/>
+      <c r="CG2" s="9"/>
+      <c r="CH2" s="9"/>
+      <c r="CI2" s="9"/>
+      <c r="CJ2" s="9"/>
+      <c r="CK2" s="9"/>
+      <c r="CL2" s="9"/>
+      <c r="CM2" s="9"/>
+      <c r="CN2" s="9"/>
+      <c r="CO2" s="9"/>
+      <c r="CP2" s="9"/>
+      <c r="CQ2" s="9"/>
+      <c r="CR2" s="9"/>
+      <c r="CS2" s="9"/>
+      <c r="CT2" s="9"/>
+      <c r="CU2" s="9"/>
+      <c r="CV2" s="9"/>
+      <c r="CW2" s="9"/>
+      <c r="CX2" s="9"/>
+      <c r="CY2" s="9"/>
+      <c r="CZ2" s="9"/>
+      <c r="DA2" s="9"/>
+      <c r="DB2" s="9"/>
+      <c r="DC2" s="9"/>
+      <c r="DD2" s="9"/>
+      <c r="DE2" s="9"/>
+      <c r="DF2" s="9"/>
+      <c r="DG2" s="9"/>
+      <c r="DH2" s="9"/>
+      <c r="DI2" s="9"/>
+      <c r="DJ2" s="9"/>
+      <c r="DK2" s="9"/>
+      <c r="DL2" s="9"/>
+      <c r="DM2" s="9"/>
+      <c r="DN2" s="9"/>
+      <c r="DO2" s="9"/>
+      <c r="DP2" s="9"/>
+      <c r="DQ2" s="9"/>
+      <c r="DR2" s="9"/>
+      <c r="DS2" s="9"/>
+      <c r="DT2" s="9"/>
+      <c r="DU2" s="9"/>
+      <c r="DV2" s="9"/>
+      <c r="DW2" s="9"/>
+      <c r="DX2" s="9"/>
+      <c r="DY2" s="9"/>
+      <c r="DZ2" s="9"/>
+      <c r="EA2" s="9"/>
+      <c r="EB2" s="9"/>
+      <c r="EC2" s="9"/>
+      <c r="ED2" s="9"/>
+      <c r="EE2" s="9"/>
+      <c r="EF2" s="9"/>
+      <c r="EG2" s="9"/>
+      <c r="EH2" s="9"/>
+      <c r="EI2" s="9"/>
+      <c r="EJ2" s="9"/>
+      <c r="EK2" s="9"/>
+      <c r="EL2" s="9"/>
+      <c r="EM2" s="9"/>
+      <c r="EN2" s="9"/>
+      <c r="EO2" s="9"/>
+      <c r="EP2" s="9"/>
+      <c r="EQ2" s="9"/>
+      <c r="ER2" s="9"/>
+      <c r="ES2" s="9"/>
+      <c r="ET2" s="9"/>
+      <c r="EU2" s="9"/>
+      <c r="EV2" s="9"/>
+      <c r="EW2" s="9"/>
+      <c r="EX2" s="9"/>
+      <c r="EY2" s="9"/>
+      <c r="EZ2" s="9"/>
+      <c r="FA2" s="9"/>
+      <c r="FB2" s="9"/>
+      <c r="FC2" s="9"/>
+      <c r="FD2" s="9"/>
+      <c r="FE2" s="9"/>
+      <c r="FF2" s="9"/>
+      <c r="FG2" s="9"/>
+      <c r="FH2" s="9"/>
+      <c r="FI2" s="9"/>
+      <c r="FJ2" s="9"/>
+      <c r="FK2" s="9"/>
+      <c r="FL2" s="9"/>
+      <c r="FM2" s="9"/>
+      <c r="FN2" s="9"/>
+      <c r="FO2" s="9"/>
+      <c r="FP2" s="9"/>
+      <c r="FQ2" s="9"/>
+      <c r="FR2" s="9"/>
+      <c r="FS2" s="9"/>
+      <c r="FT2" s="9"/>
+      <c r="FU2" s="9"/>
+      <c r="FV2" s="9"/>
+      <c r="FW2" s="9"/>
+      <c r="FX2" s="9"/>
+      <c r="FY2" s="9"/>
+      <c r="FZ2" s="9"/>
+      <c r="GA2" s="9"/>
+      <c r="GB2" s="9"/>
+      <c r="GC2" s="9"/>
+      <c r="GD2" s="9"/>
+      <c r="GE2" s="9"/>
+      <c r="GF2" s="9"/>
+      <c r="GG2" s="9"/>
+      <c r="GH2" s="9"/>
+      <c r="GI2" s="9"/>
+      <c r="GJ2" s="9"/>
+      <c r="GK2" s="9"/>
+      <c r="GL2" s="9"/>
+      <c r="GM2" s="9"/>
+      <c r="GN2" s="9"/>
+      <c r="GO2" s="9"/>
+      <c r="GP2" s="9"/>
+      <c r="GQ2" s="9"/>
+      <c r="GR2" s="9"/>
+      <c r="GS2" s="9"/>
+      <c r="GT2" s="9"/>
+      <c r="GU2" s="9"/>
+      <c r="GV2" s="9"/>
+      <c r="GW2" s="9"/>
+      <c r="GX2" s="9"/>
+      <c r="GY2" s="9"/>
+      <c r="GZ2" s="9"/>
+      <c r="HA2" s="9"/>
+      <c r="HB2" s="9"/>
+      <c r="HC2" s="9"/>
+      <c r="HD2" s="9"/>
+      <c r="HE2" s="9"/>
+      <c r="HF2" s="9"/>
+      <c r="HG2" s="9"/>
+      <c r="HH2" s="9"/>
+      <c r="HI2" s="9"/>
+      <c r="HJ2" s="9"/>
+      <c r="HK2" s="9"/>
+      <c r="HL2" s="9"/>
+      <c r="HM2" s="9"/>
+      <c r="HN2" s="9"/>
+      <c r="HO2" s="9"/>
+      <c r="HP2" s="9"/>
+      <c r="HQ2" s="9"/>
+      <c r="HR2" s="9"/>
+      <c r="HS2" s="9"/>
+      <c r="HT2" s="9"/>
+      <c r="HU2" s="9"/>
+      <c r="HV2" s="9"/>
+      <c r="HW2" s="9"/>
+      <c r="HX2" s="9"/>
+      <c r="HY2" s="9"/>
+      <c r="HZ2" s="9"/>
+      <c r="IA2" s="9"/>
+      <c r="IB2" s="9"/>
+      <c r="IC2" s="9"/>
+      <c r="ID2" s="9"/>
+      <c r="IE2" s="9"/>
+      <c r="IF2" s="9"/>
+      <c r="IG2" s="9"/>
+      <c r="IH2" s="9"/>
+      <c r="II2" s="9"/>
+      <c r="IJ2" s="9"/>
+      <c r="IK2" s="9"/>
+      <c r="IL2" s="9"/>
+      <c r="IM2" s="9"/>
+      <c r="IN2" s="9"/>
+      <c r="IO2" s="9"/>
+      <c r="IP2" s="9"/>
+      <c r="IQ2" s="9"/>
+      <c r="IR2" s="9"/>
+      <c r="IS2" s="9"/>
+      <c r="IT2" s="9"/>
+      <c r="IU2" s="9"/>
+      <c r="IV2" s="9"/>
+      <c r="IW2" s="9"/>
+      <c r="IX2" s="9"/>
+      <c r="IY2" s="9"/>
+      <c r="IZ2" s="9"/>
+      <c r="JA2" s="9"/>
+      <c r="JB2" s="9"/>
+      <c r="JC2" s="9"/>
+      <c r="JD2" s="9"/>
+      <c r="JE2" s="9"/>
+      <c r="JF2" s="9"/>
+      <c r="JG2" s="9"/>
+      <c r="JH2" s="9"/>
+      <c r="JI2" s="9"/>
+      <c r="JJ2" s="9"/>
+      <c r="JK2" s="9"/>
+      <c r="JL2" s="9"/>
+      <c r="JM2" s="9"/>
+      <c r="JN2" s="9"/>
+      <c r="JO2" s="9"/>
+      <c r="JP2" s="9"/>
+      <c r="JQ2" s="9"/>
+      <c r="JR2" s="9"/>
+      <c r="JS2" s="9"/>
+      <c r="JT2" s="9"/>
+      <c r="JU2" s="9"/>
+      <c r="JV2" s="9"/>
+      <c r="JW2" s="9"/>
+      <c r="JX2" s="9"/>
+      <c r="JY2" s="9"/>
+      <c r="JZ2" s="9"/>
+      <c r="KA2" s="9"/>
+      <c r="KB2" s="9"/>
+      <c r="KC2" s="9"/>
+      <c r="KD2" s="9"/>
+      <c r="KE2" s="9"/>
+      <c r="KF2" s="9"/>
+      <c r="KG2" s="9"/>
+      <c r="KH2" s="9"/>
+      <c r="KI2" s="9"/>
+      <c r="KJ2" s="9"/>
+      <c r="KK2" s="9"/>
+      <c r="KL2" s="9"/>
+      <c r="KM2" s="9"/>
+      <c r="KN2" s="9"/>
+      <c r="KO2" s="9"/>
+      <c r="KP2" s="9"/>
+      <c r="KQ2" s="9"/>
+      <c r="KR2" s="9"/>
+      <c r="KS2" s="9"/>
+      <c r="KT2" s="9"/>
+      <c r="KU2" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="KV2" s="1" t="s">
+      <c r="KV2" s="9" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="3" spans="1:308" x14ac:dyDescent="0.2">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1" t="s">
+    <row r="3" spans="1:308" x14ac:dyDescent="0.25">
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1" t="s">
+      <c r="D3" s="9"/>
+      <c r="E3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1" t="s">
+      <c r="F3" s="9"/>
+      <c r="G3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1" t="s">
+      <c r="H3" s="9"/>
+      <c r="I3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1" t="s">
+      <c r="J3" s="9"/>
+      <c r="K3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1" t="s">
+      <c r="L3" s="9"/>
+      <c r="M3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1" t="s">
+      <c r="N3" s="9"/>
+      <c r="O3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1" t="s">
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1" t="s">
+      <c r="R3" s="9"/>
+      <c r="S3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="T3" s="1"/>
-      <c r="U3" s="1" t="s">
+      <c r="T3" s="9"/>
+      <c r="U3" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="V3" s="1"/>
-      <c r="W3" s="1" t="s">
+      <c r="V3" s="9"/>
+      <c r="W3" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="X3" s="1"/>
-      <c r="Y3" s="1" t="s">
+      <c r="X3" s="9"/>
+      <c r="Y3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="Z3" s="1"/>
-      <c r="AA3" s="1" t="s">
+      <c r="Z3" s="9"/>
+      <c r="AA3" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="AB3" s="1"/>
-      <c r="AC3" s="1" t="s">
+      <c r="AB3" s="9"/>
+      <c r="AC3" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="AD3" s="1"/>
-      <c r="AE3" s="1" t="s">
+      <c r="AD3" s="9"/>
+      <c r="AE3" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="AF3" s="1"/>
-      <c r="AG3" s="1" t="s">
+      <c r="AF3" s="9"/>
+      <c r="AG3" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="AH3" s="1"/>
-      <c r="AI3" s="1" t="s">
+      <c r="AH3" s="9"/>
+      <c r="AI3" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="AJ3" s="1"/>
-      <c r="AK3" s="1" t="s">
+      <c r="AJ3" s="9"/>
+      <c r="AK3" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="AL3" s="1"/>
-      <c r="AM3" s="1" t="s">
+      <c r="AL3" s="9"/>
+      <c r="AM3" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="AN3" s="1"/>
-      <c r="AO3" s="1" t="s">
+      <c r="AN3" s="9"/>
+      <c r="AO3" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="AP3" s="1"/>
-      <c r="AQ3" s="1" t="s">
+      <c r="AP3" s="9"/>
+      <c r="AQ3" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="AR3" s="1"/>
-      <c r="AS3" s="1" t="s">
+      <c r="AR3" s="9"/>
+      <c r="AS3" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="AT3" s="1"/>
-      <c r="AU3" s="1" t="s">
+      <c r="AT3" s="9"/>
+      <c r="AU3" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="AV3" s="1"/>
-      <c r="AW3" s="1" t="s">
+      <c r="AV3" s="9"/>
+      <c r="AW3" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="AX3" s="1"/>
-      <c r="AY3" s="1" t="s">
+      <c r="AX3" s="9"/>
+      <c r="AY3" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="AZ3" s="1"/>
-      <c r="BA3" s="1" t="s">
+      <c r="AZ3" s="9"/>
+      <c r="BA3" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="BB3" s="1"/>
-      <c r="BC3" s="1" t="s">
+      <c r="BB3" s="9"/>
+      <c r="BC3" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="BD3" s="1"/>
-      <c r="BE3" s="1" t="s">
+      <c r="BD3" s="9"/>
+      <c r="BE3" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="BF3" s="1"/>
-      <c r="BG3" s="1" t="s">
+      <c r="BF3" s="9"/>
+      <c r="BG3" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="BH3" s="1"/>
-      <c r="BI3" s="1" t="s">
+      <c r="BH3" s="9"/>
+      <c r="BI3" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="BJ3" s="1"/>
-      <c r="BK3" s="1" t="s">
+      <c r="BJ3" s="9"/>
+      <c r="BK3" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="BL3" s="1"/>
-      <c r="BM3" s="1" t="s">
+      <c r="BL3" s="9"/>
+      <c r="BM3" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="BN3" s="1"/>
-      <c r="BO3" s="1" t="s">
+      <c r="BN3" s="9"/>
+      <c r="BO3" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="BP3" s="1"/>
-      <c r="BQ3" s="1" t="s">
+      <c r="BP3" s="9"/>
+      <c r="BQ3" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="BR3" s="1"/>
-      <c r="BS3" s="1" t="s">
+      <c r="BR3" s="9"/>
+      <c r="BS3" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="BT3" s="1"/>
-      <c r="BU3" s="1" t="s">
+      <c r="BT3" s="9"/>
+      <c r="BU3" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="BV3" s="1"/>
-      <c r="BW3" s="1" t="s">
+      <c r="BV3" s="9"/>
+      <c r="BW3" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="BX3" s="1"/>
-      <c r="BY3" s="1" t="s">
+      <c r="BX3" s="9"/>
+      <c r="BY3" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="BZ3" s="1"/>
-      <c r="CA3" s="1" t="s">
+      <c r="BZ3" s="9"/>
+      <c r="CA3" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="CB3" s="1"/>
-      <c r="CC3" s="1" t="s">
+      <c r="CB3" s="9"/>
+      <c r="CC3" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="CD3" s="1"/>
-      <c r="CE3" s="1" t="s">
+      <c r="CD3" s="9"/>
+      <c r="CE3" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="CF3" s="1"/>
-      <c r="CG3" s="1" t="s">
+      <c r="CF3" s="9"/>
+      <c r="CG3" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="CH3" s="1"/>
-      <c r="CI3" s="1" t="s">
+      <c r="CH3" s="9"/>
+      <c r="CI3" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="CJ3" s="1"/>
-      <c r="CK3" s="1" t="s">
+      <c r="CJ3" s="9"/>
+      <c r="CK3" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="CL3" s="1"/>
-      <c r="CM3" s="1" t="s">
+      <c r="CL3" s="9"/>
+      <c r="CM3" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="CN3" s="1"/>
-      <c r="CO3" s="1" t="s">
+      <c r="CN3" s="9"/>
+      <c r="CO3" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="CP3" s="1"/>
-      <c r="CQ3" s="1" t="s">
+      <c r="CP3" s="9"/>
+      <c r="CQ3" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="CR3" s="1"/>
-      <c r="CS3" s="1" t="s">
+      <c r="CR3" s="9"/>
+      <c r="CS3" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="CT3" s="1"/>
-      <c r="CU3" s="1" t="s">
+      <c r="CT3" s="9"/>
+      <c r="CU3" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="CV3" s="1"/>
-      <c r="CW3" s="1" t="s">
+      <c r="CV3" s="9"/>
+      <c r="CW3" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="CX3" s="1"/>
-      <c r="CY3" s="1" t="s">
+      <c r="CX3" s="9"/>
+      <c r="CY3" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="CZ3" s="1"/>
-      <c r="DA3" s="1" t="s">
+      <c r="CZ3" s="9"/>
+      <c r="DA3" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="DB3" s="1"/>
-      <c r="DC3" s="1" t="s">
+      <c r="DB3" s="9"/>
+      <c r="DC3" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="DD3" s="1"/>
-      <c r="DE3" s="1" t="s">
+      <c r="DD3" s="9"/>
+      <c r="DE3" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="DF3" s="1"/>
-      <c r="DG3" s="1" t="s">
+      <c r="DF3" s="9"/>
+      <c r="DG3" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="DH3" s="1"/>
-      <c r="DI3" s="1" t="s">
+      <c r="DH3" s="9"/>
+      <c r="DI3" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="DJ3" s="1"/>
-      <c r="DK3" s="1" t="s">
+      <c r="DJ3" s="9"/>
+      <c r="DK3" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="DL3" s="1"/>
-      <c r="DM3" s="1" t="s">
+      <c r="DL3" s="9"/>
+      <c r="DM3" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="DN3" s="1"/>
-      <c r="DO3" s="1" t="s">
+      <c r="DN3" s="9"/>
+      <c r="DO3" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="DP3" s="1"/>
-      <c r="DQ3" s="1" t="s">
+      <c r="DP3" s="9"/>
+      <c r="DQ3" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="DR3" s="1"/>
-      <c r="DS3" s="1" t="s">
+      <c r="DR3" s="9"/>
+      <c r="DS3" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="DT3" s="1"/>
-      <c r="DU3" s="1" t="s">
+      <c r="DT3" s="9"/>
+      <c r="DU3" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="DV3" s="1"/>
-      <c r="DW3" s="1" t="s">
+      <c r="DV3" s="9"/>
+      <c r="DW3" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="DX3" s="1"/>
-      <c r="DY3" s="1" t="s">
+      <c r="DX3" s="9"/>
+      <c r="DY3" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="DZ3" s="1"/>
-      <c r="EA3" s="1" t="s">
+      <c r="DZ3" s="9"/>
+      <c r="EA3" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="EB3" s="1"/>
-      <c r="EC3" s="1" t="s">
+      <c r="EB3" s="9"/>
+      <c r="EC3" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="ED3" s="1"/>
-      <c r="EE3" s="1" t="s">
+      <c r="ED3" s="9"/>
+      <c r="EE3" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="EF3" s="1"/>
-      <c r="EG3" s="1" t="s">
+      <c r="EF3" s="9"/>
+      <c r="EG3" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="EH3" s="1"/>
-      <c r="EI3" s="1" t="s">
+      <c r="EH3" s="9"/>
+      <c r="EI3" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="EJ3" s="1"/>
-      <c r="EK3" s="1" t="s">
+      <c r="EJ3" s="9"/>
+      <c r="EK3" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="EL3" s="1"/>
-      <c r="EM3" s="1" t="s">
+      <c r="EL3" s="9"/>
+      <c r="EM3" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="EN3" s="1"/>
-      <c r="EO3" s="1" t="s">
+      <c r="EN3" s="9"/>
+      <c r="EO3" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="EP3" s="1"/>
-      <c r="EQ3" s="1" t="s">
+      <c r="EP3" s="9"/>
+      <c r="EQ3" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="ER3" s="1"/>
-      <c r="ES3" s="1" t="s">
+      <c r="ER3" s="9"/>
+      <c r="ES3" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="ET3" s="1"/>
-      <c r="EU3" s="1" t="s">
+      <c r="ET3" s="9"/>
+      <c r="EU3" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="EV3" s="1"/>
-      <c r="EW3" s="1" t="s">
+      <c r="EV3" s="9"/>
+      <c r="EW3" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="EX3" s="1"/>
-      <c r="EY3" s="1" t="s">
+      <c r="EX3" s="9"/>
+      <c r="EY3" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="EZ3" s="1"/>
-      <c r="FA3" s="1" t="s">
+      <c r="EZ3" s="9"/>
+      <c r="FA3" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="FB3" s="1"/>
-      <c r="FC3" s="1" t="s">
+      <c r="FB3" s="9"/>
+      <c r="FC3" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="FD3" s="1"/>
-      <c r="FE3" s="1" t="s">
+      <c r="FD3" s="9"/>
+      <c r="FE3" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="FF3" s="1"/>
-      <c r="FG3" s="1" t="s">
+      <c r="FF3" s="9"/>
+      <c r="FG3" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="FH3" s="1"/>
-      <c r="FI3" s="1" t="s">
+      <c r="FH3" s="9"/>
+      <c r="FI3" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="FJ3" s="1"/>
-      <c r="FK3" s="1" t="s">
+      <c r="FJ3" s="9"/>
+      <c r="FK3" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="FL3" s="1"/>
-      <c r="FM3" s="1" t="s">
+      <c r="FL3" s="9"/>
+      <c r="FM3" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="FN3" s="1"/>
-      <c r="FO3" s="1" t="s">
+      <c r="FN3" s="9"/>
+      <c r="FO3" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="FP3" s="1"/>
-      <c r="FQ3" s="1" t="s">
+      <c r="FP3" s="9"/>
+      <c r="FQ3" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="FR3" s="1"/>
-      <c r="FS3" s="1" t="s">
+      <c r="FR3" s="9"/>
+      <c r="FS3" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="FT3" s="1"/>
-      <c r="FU3" s="1" t="s">
+      <c r="FT3" s="9"/>
+      <c r="FU3" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="FV3" s="1"/>
-      <c r="FW3" s="1" t="s">
+      <c r="FV3" s="9"/>
+      <c r="FW3" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="FX3" s="1"/>
-      <c r="FY3" s="1" t="s">
+      <c r="FX3" s="9"/>
+      <c r="FY3" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="FZ3" s="1"/>
-      <c r="GA3" s="1" t="s">
+      <c r="FZ3" s="9"/>
+      <c r="GA3" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="GB3" s="1"/>
-      <c r="GC3" s="1" t="s">
+      <c r="GB3" s="9"/>
+      <c r="GC3" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="GD3" s="1"/>
-      <c r="GE3" s="1" t="s">
+      <c r="GD3" s="9"/>
+      <c r="GE3" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="GF3" s="1"/>
-      <c r="GG3" s="1" t="s">
+      <c r="GF3" s="9"/>
+      <c r="GG3" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="GH3" s="1"/>
-      <c r="GI3" s="1" t="s">
+      <c r="GH3" s="9"/>
+      <c r="GI3" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="GJ3" s="1"/>
-      <c r="GK3" s="1" t="s">
+      <c r="GJ3" s="9"/>
+      <c r="GK3" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="GL3" s="1"/>
-      <c r="GM3" s="1" t="s">
+      <c r="GL3" s="9"/>
+      <c r="GM3" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="GN3" s="1"/>
-      <c r="GO3" s="1" t="s">
+      <c r="GN3" s="9"/>
+      <c r="GO3" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="GP3" s="1"/>
-      <c r="GQ3" s="1" t="s">
+      <c r="GP3" s="9"/>
+      <c r="GQ3" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="GR3" s="1"/>
-      <c r="GS3" s="1" t="s">
+      <c r="GR3" s="9"/>
+      <c r="GS3" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="GT3" s="1"/>
-      <c r="GU3" s="1" t="s">
+      <c r="GT3" s="9"/>
+      <c r="GU3" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="GV3" s="1"/>
-      <c r="GW3" s="1" t="s">
+      <c r="GV3" s="9"/>
+      <c r="GW3" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="GX3" s="1"/>
-      <c r="GY3" s="1" t="s">
+      <c r="GX3" s="9"/>
+      <c r="GY3" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="GZ3" s="1"/>
-      <c r="HA3" s="1" t="s">
+      <c r="GZ3" s="9"/>
+      <c r="HA3" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="HB3" s="1"/>
-      <c r="HC3" s="1" t="s">
+      <c r="HB3" s="9"/>
+      <c r="HC3" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="HD3" s="1"/>
-      <c r="HE3" s="1" t="s">
+      <c r="HD3" s="9"/>
+      <c r="HE3" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="HF3" s="1"/>
-      <c r="HG3" s="1" t="s">
+      <c r="HF3" s="9"/>
+      <c r="HG3" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="HH3" s="1"/>
-      <c r="HI3" s="1" t="s">
+      <c r="HH3" s="9"/>
+      <c r="HI3" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="HJ3" s="1"/>
-      <c r="HK3" s="1" t="s">
+      <c r="HJ3" s="9"/>
+      <c r="HK3" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="HL3" s="1"/>
-      <c r="HM3" s="1" t="s">
+      <c r="HL3" s="9"/>
+      <c r="HM3" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="HN3" s="1"/>
-      <c r="HO3" s="1" t="s">
+      <c r="HN3" s="9"/>
+      <c r="HO3" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="HP3" s="1"/>
-      <c r="HQ3" s="1" t="s">
+      <c r="HP3" s="9"/>
+      <c r="HQ3" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="HR3" s="1"/>
-      <c r="HS3" s="1" t="s">
+      <c r="HR3" s="9"/>
+      <c r="HS3" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="HT3" s="1"/>
-      <c r="HU3" s="1" t="s">
+      <c r="HT3" s="9"/>
+      <c r="HU3" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="HV3" s="1"/>
-      <c r="HW3" s="1" t="s">
+      <c r="HV3" s="9"/>
+      <c r="HW3" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="HX3" s="1"/>
-      <c r="HY3" s="1" t="s">
+      <c r="HX3" s="9"/>
+      <c r="HY3" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="HZ3" s="1"/>
-      <c r="IA3" s="1" t="s">
+      <c r="HZ3" s="9"/>
+      <c r="IA3" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="IB3" s="1"/>
-      <c r="IC3" s="1" t="s">
+      <c r="IB3" s="9"/>
+      <c r="IC3" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="ID3" s="1"/>
-      <c r="IE3" s="1" t="s">
+      <c r="ID3" s="9"/>
+      <c r="IE3" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="IF3" s="1"/>
-      <c r="IG3" s="1" t="s">
+      <c r="IF3" s="9"/>
+      <c r="IG3" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="IH3" s="1"/>
-      <c r="II3" s="1" t="s">
+      <c r="IH3" s="9"/>
+      <c r="II3" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="IJ3" s="1"/>
-      <c r="IK3" s="1" t="s">
+      <c r="IJ3" s="9"/>
+      <c r="IK3" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="IL3" s="1"/>
-      <c r="IM3" s="1" t="s">
+      <c r="IL3" s="9"/>
+      <c r="IM3" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="IN3" s="1"/>
-      <c r="IO3" s="1" t="s">
+      <c r="IN3" s="9"/>
+      <c r="IO3" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="IP3" s="1"/>
-      <c r="IQ3" s="1" t="s">
+      <c r="IP3" s="9"/>
+      <c r="IQ3" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="IR3" s="1"/>
-      <c r="IS3" s="1" t="s">
+      <c r="IR3" s="9"/>
+      <c r="IS3" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="IT3" s="1"/>
-      <c r="IU3" s="1" t="s">
+      <c r="IT3" s="9"/>
+      <c r="IU3" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="IV3" s="1"/>
-      <c r="IW3" s="1" t="s">
+      <c r="IV3" s="9"/>
+      <c r="IW3" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="IX3" s="1"/>
-      <c r="IY3" s="1" t="s">
+      <c r="IX3" s="9"/>
+      <c r="IY3" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="IZ3" s="1"/>
-      <c r="JA3" s="1" t="s">
+      <c r="IZ3" s="9"/>
+      <c r="JA3" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="JB3" s="1"/>
-      <c r="JC3" s="1" t="s">
+      <c r="JB3" s="9"/>
+      <c r="JC3" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="JD3" s="1"/>
-      <c r="JE3" s="1" t="s">
+      <c r="JD3" s="9"/>
+      <c r="JE3" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="JF3" s="1"/>
-      <c r="JG3" s="1" t="s">
+      <c r="JF3" s="9"/>
+      <c r="JG3" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="JH3" s="1"/>
-      <c r="JI3" s="1" t="s">
+      <c r="JH3" s="9"/>
+      <c r="JI3" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="JJ3" s="1"/>
-      <c r="JK3" s="1" t="s">
+      <c r="JJ3" s="9"/>
+      <c r="JK3" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="JL3" s="1"/>
-      <c r="JM3" s="1" t="s">
+      <c r="JL3" s="9"/>
+      <c r="JM3" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="JN3" s="1"/>
-      <c r="JO3" s="1" t="s">
+      <c r="JN3" s="9"/>
+      <c r="JO3" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="JP3" s="1"/>
-      <c r="JQ3" s="1" t="s">
+      <c r="JP3" s="9"/>
+      <c r="JQ3" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="JR3" s="1"/>
-      <c r="JS3" s="1" t="s">
+      <c r="JR3" s="9"/>
+      <c r="JS3" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="JT3" s="1"/>
-      <c r="JU3" s="1" t="s">
+      <c r="JT3" s="9"/>
+      <c r="JU3" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="JV3" s="1"/>
-      <c r="JW3" s="1" t="s">
+      <c r="JV3" s="9"/>
+      <c r="JW3" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="JX3" s="1"/>
-      <c r="JY3" s="1" t="s">
+      <c r="JX3" s="9"/>
+      <c r="JY3" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="JZ3" s="1"/>
-      <c r="KA3" s="1" t="s">
+      <c r="JZ3" s="9"/>
+      <c r="KA3" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="KB3" s="1"/>
-      <c r="KC3" s="1" t="s">
+      <c r="KB3" s="9"/>
+      <c r="KC3" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="KD3" s="1"/>
-      <c r="KE3" s="1" t="s">
+      <c r="KD3" s="9"/>
+      <c r="KE3" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="KF3" s="1"/>
-      <c r="KG3" s="1" t="s">
+      <c r="KF3" s="9"/>
+      <c r="KG3" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="KH3" s="1"/>
-      <c r="KI3" s="1" t="s">
+      <c r="KH3" s="9"/>
+      <c r="KI3" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="KJ3" s="1"/>
-      <c r="KK3" s="1" t="s">
+      <c r="KJ3" s="9"/>
+      <c r="KK3" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="KL3" s="1"/>
-      <c r="KM3" s="1" t="s">
+      <c r="KL3" s="9"/>
+      <c r="KM3" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="KN3" s="1"/>
-      <c r="KO3" s="1" t="s">
+      <c r="KN3" s="9"/>
+      <c r="KO3" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="KP3" s="1"/>
-      <c r="KQ3" s="1" t="s">
+      <c r="KP3" s="9"/>
+      <c r="KQ3" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="KR3" s="1"/>
-      <c r="KS3" s="1" t="s">
+      <c r="KR3" s="9"/>
+      <c r="KS3" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="KT3" s="1"/>
-      <c r="KU3" s="1"/>
-      <c r="KV3" s="1"/>
-    </row>
-    <row r="4" spans="1:308" x14ac:dyDescent="0.2">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
+      <c r="KT3" s="9"/>
+      <c r="KU3" s="9"/>
+      <c r="KV3" s="9"/>
+    </row>
+    <row r="4" spans="1:308" x14ac:dyDescent="0.25">
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -7545,10 +7561,10 @@
       <c r="KT4" t="s">
         <v>1</v>
       </c>
-      <c r="KU4" s="1"/>
-      <c r="KV4" s="1"/>
-    </row>
-    <row r="5" spans="1:308" x14ac:dyDescent="0.2">
+      <c r="KU4" s="9"/>
+      <c r="KV4" s="9"/>
+    </row>
+    <row r="5" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>159</v>
       </c>
@@ -7568,7 +7584,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="6" spans="1:308" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>163</v>
       </c>
@@ -7588,7 +7604,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="7" spans="1:308" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>166</v>
       </c>
@@ -7626,7 +7642,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="8" spans="1:308" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>178</v>
       </c>
@@ -7646,7 +7662,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="9" spans="1:308" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>182</v>
       </c>
@@ -7666,7 +7682,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="10" spans="1:308" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>186</v>
       </c>
@@ -7686,7 +7702,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="11" spans="1:308" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>192</v>
       </c>
@@ -7706,7 +7722,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="12" spans="1:308" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>198</v>
       </c>
@@ -7726,7 +7742,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="13" spans="1:308" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>201</v>
       </c>
@@ -7746,7 +7762,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="14" spans="1:308" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>205</v>
       </c>
@@ -7766,7 +7782,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="15" spans="1:308" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>211</v>
       </c>
@@ -7786,7 +7802,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="16" spans="1:308" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>217</v>
       </c>
@@ -7806,7 +7822,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="17" spans="1:308" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>223</v>
       </c>
@@ -7826,7 +7842,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="18" spans="1:308" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>229</v>
       </c>
@@ -7846,7 +7862,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="19" spans="1:308" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>232</v>
       </c>
@@ -7866,7 +7882,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="20" spans="1:308" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>238</v>
       </c>
@@ -7886,7 +7902,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="21" spans="1:308" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>242</v>
       </c>
@@ -7906,7 +7922,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="22" spans="1:308" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>248</v>
       </c>
@@ -7926,7 +7942,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="23" spans="1:308" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>253</v>
       </c>
@@ -7952,7 +7968,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="24" spans="1:308" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>257</v>
       </c>
@@ -7972,7 +7988,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="25" spans="1:308" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>262</v>
       </c>
@@ -7998,7 +8014,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="26" spans="1:308" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>269</v>
       </c>
@@ -8078,7 +8094,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="27" spans="1:308" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>291</v>
       </c>
@@ -8098,7 +8114,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="28" spans="1:308" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>296</v>
       </c>
@@ -8118,7 +8134,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="29" spans="1:308" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>302</v>
       </c>
@@ -8138,7 +8154,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="30" spans="1:308" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>308</v>
       </c>
@@ -8158,7 +8174,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="31" spans="1:308" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>313</v>
       </c>
@@ -8190,7 +8206,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="32" spans="1:308" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>319</v>
       </c>
@@ -8210,7 +8226,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="33" spans="1:308" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>325</v>
       </c>
@@ -8230,7 +8246,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="34" spans="1:308" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>331</v>
       </c>
@@ -8250,7 +8266,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="35" spans="1:308" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>337</v>
       </c>
@@ -8270,7 +8286,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="36" spans="1:308" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>343</v>
       </c>
@@ -8302,7 +8318,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="37" spans="1:308" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>350</v>
       </c>
@@ -8322,7 +8338,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="38" spans="1:308" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>353</v>
       </c>
@@ -8342,7 +8358,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="39" spans="1:308" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>357</v>
       </c>
@@ -8368,7 +8384,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="40" spans="1:308" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>362</v>
       </c>
@@ -8394,7 +8410,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="41" spans="1:308" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>370</v>
       </c>
@@ -8414,7 +8430,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="42" spans="1:308" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>376</v>
       </c>
@@ -8434,7 +8450,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="43" spans="1:308" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>382</v>
       </c>
@@ -8460,7 +8476,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="44" spans="1:308" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>390</v>
       </c>
@@ -8480,7 +8496,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="45" spans="1:308" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>396</v>
       </c>
@@ -8500,7 +8516,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="46" spans="1:308" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>402</v>
       </c>
@@ -8532,7 +8548,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="47" spans="1:308" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>411</v>
       </c>
@@ -8570,7 +8586,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="48" spans="1:308" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>421</v>
       </c>
@@ -8590,7 +8606,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="49" spans="1:308" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>427</v>
       </c>
@@ -8622,7 +8638,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="50" spans="1:308" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>436</v>
       </c>
@@ -8642,7 +8658,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="51" spans="1:308" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>439</v>
       </c>
@@ -8668,7 +8684,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="52" spans="1:308" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>443</v>
       </c>
@@ -8688,7 +8704,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="53" spans="1:308" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>447</v>
       </c>
@@ -8708,7 +8724,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="54" spans="1:308" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>451</v>
       </c>
@@ -8734,7 +8750,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="55" spans="1:308" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>458</v>
       </c>
@@ -8754,7 +8770,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="56" spans="1:308" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>463</v>
       </c>
@@ -8774,7 +8790,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="57" spans="1:308" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>467</v>
       </c>
@@ -8806,7 +8822,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="58" spans="1:308" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>470</v>
       </c>
@@ -8832,7 +8848,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="59" spans="1:308" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>476</v>
       </c>
@@ -8852,7 +8868,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="60" spans="1:308" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>482</v>
       </c>
@@ -8872,7 +8888,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="61" spans="1:308" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>488</v>
       </c>
@@ -8898,7 +8914,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="62" spans="1:308" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>495</v>
       </c>
@@ -8918,7 +8934,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="63" spans="1:308" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>501</v>
       </c>
@@ -8950,7 +8966,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="64" spans="1:308" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>509</v>
       </c>
@@ -8970,7 +8986,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="65" spans="1:308" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>512</v>
       </c>
@@ -8990,7 +9006,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="66" spans="1:308" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>516</v>
       </c>
@@ -9010,7 +9026,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="67" spans="1:308" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>521</v>
       </c>
@@ -9030,7 +9046,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="68" spans="1:308" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>527</v>
       </c>
@@ -9050,7 +9066,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="69" spans="1:308" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>533</v>
       </c>
@@ -9076,7 +9092,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="70" spans="1:308" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>541</v>
       </c>
@@ -9096,7 +9112,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="71" spans="1:308" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>547</v>
       </c>
@@ -9110,7 +9126,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="72" spans="1:308" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>550</v>
       </c>
@@ -9124,7 +9140,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="73" spans="1:308" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>554</v>
       </c>
@@ -9150,7 +9166,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="74" spans="1:308" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>560</v>
       </c>
@@ -9182,7 +9198,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="75" spans="1:308" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>568</v>
       </c>
@@ -9202,7 +9218,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="76" spans="1:308" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>573</v>
       </c>
@@ -9222,7 +9238,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="77" spans="1:308" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>579</v>
       </c>
@@ -9248,7 +9264,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="78" spans="1:308" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>584</v>
       </c>
@@ -9268,7 +9284,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="79" spans="1:308" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>588</v>
       </c>
@@ -9294,7 +9310,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="80" spans="1:308" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>594</v>
       </c>
@@ -9314,7 +9330,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="81" spans="1:308" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>599</v>
       </c>
@@ -9340,7 +9356,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="82" spans="1:308" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>604</v>
       </c>
@@ -9366,7 +9382,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="83" spans="1:308" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>612</v>
       </c>
@@ -9398,7 +9414,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="84" spans="1:308" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>618</v>
       </c>
@@ -9418,7 +9434,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="85" spans="1:308" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>623</v>
       </c>
@@ -9438,7 +9454,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="86" spans="1:308" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>627</v>
       </c>
@@ -9464,7 +9480,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="87" spans="1:308" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>633</v>
       </c>
@@ -9484,7 +9500,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="88" spans="1:308" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>637</v>
       </c>
@@ -9504,7 +9520,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="89" spans="1:308" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>643</v>
       </c>
@@ -9530,7 +9546,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="90" spans="1:308" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>650</v>
       </c>
@@ -9562,7 +9578,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="91" spans="1:308" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>658</v>
       </c>
@@ -9582,7 +9598,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="92" spans="1:308" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>664</v>
       </c>
@@ -9602,7 +9618,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="93" spans="1:308" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>668</v>
       </c>
@@ -9628,7 +9644,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="94" spans="1:308" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>674</v>
       </c>
@@ -9654,7 +9670,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="95" spans="1:308" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>681</v>
       </c>
@@ -9674,7 +9690,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="96" spans="1:308" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>686</v>
       </c>
@@ -9694,7 +9710,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="97" spans="1:308" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>690</v>
       </c>
@@ -9720,7 +9736,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="98" spans="1:308" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>695</v>
       </c>
@@ -9788,7 +9804,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="99" spans="1:308" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>703</v>
       </c>
@@ -9808,7 +9824,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="100" spans="1:308" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>708</v>
       </c>
@@ -9828,7 +9844,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="101" spans="1:308" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>714</v>
       </c>
@@ -9848,7 +9864,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="102" spans="1:308" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>718</v>
       </c>
@@ -9868,7 +9884,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="103" spans="1:308" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>724</v>
       </c>
@@ -9888,7 +9904,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="104" spans="1:308" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>730</v>
       </c>
@@ -9920,7 +9936,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="105" spans="1:308" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>740</v>
       </c>
@@ -9940,7 +9956,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="106" spans="1:308" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>746</v>
       </c>
@@ -9960,7 +9976,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="107" spans="1:308" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>752</v>
       </c>
@@ -9980,7 +9996,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="108" spans="1:308" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>757</v>
       </c>
@@ -10006,7 +10022,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="109" spans="1:308" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>765</v>
       </c>
@@ -10026,7 +10042,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="110" spans="1:308" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>771</v>
       </c>
@@ -10052,7 +10068,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="111" spans="1:308" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>775</v>
       </c>
@@ -10072,7 +10088,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="112" spans="1:308" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>781</v>
       </c>
@@ -10098,7 +10114,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="113" spans="1:308" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>789</v>
       </c>
@@ -10124,7 +10140,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="114" spans="1:308" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>792</v>
       </c>
@@ -10150,7 +10166,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="115" spans="1:308" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>798</v>
       </c>
@@ -10170,7 +10186,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="116" spans="1:308" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>804</v>
       </c>
@@ -10202,7 +10218,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="117" spans="1:308" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>809</v>
       </c>
@@ -10222,7 +10238,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="118" spans="1:308" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>815</v>
       </c>
@@ -10242,7 +10258,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="119" spans="1:308" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>821</v>
       </c>
@@ -10262,7 +10278,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="120" spans="1:308" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>827</v>
       </c>
@@ -10282,7 +10298,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="121" spans="1:308" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>833</v>
       </c>
@@ -10302,7 +10318,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="122" spans="1:308" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>838</v>
       </c>
@@ -10328,7 +10344,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="123" spans="1:308" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>845</v>
       </c>
@@ -10348,7 +10364,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="124" spans="1:308" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>850</v>
       </c>
@@ -10374,7 +10390,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="125" spans="1:308" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>854</v>
       </c>
@@ -10400,7 +10416,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="126" spans="1:308" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>859</v>
       </c>
@@ -10426,7 +10442,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="127" spans="1:308" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>863</v>
       </c>
@@ -10446,7 +10462,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="128" spans="1:308" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>867</v>
       </c>
@@ -10478,7 +10494,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="129" spans="1:308" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>876</v>
       </c>
@@ -10504,7 +10520,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="130" spans="1:308" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>881</v>
       </c>
@@ -10524,7 +10540,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="131" spans="1:308" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>884</v>
       </c>
@@ -10550,7 +10566,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="132" spans="1:308" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>888</v>
       </c>
@@ -10570,7 +10586,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="133" spans="1:308" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>892</v>
       </c>
@@ -10602,7 +10618,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="134" spans="1:308" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>900</v>
       </c>
@@ -10622,7 +10638,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="135" spans="1:308" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>904</v>
       </c>
@@ -10642,7 +10658,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="136" spans="1:308" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>909</v>
       </c>
@@ -10662,7 +10678,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="137" spans="1:308" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>913</v>
       </c>
@@ -10682,7 +10698,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="138" spans="1:308" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>919</v>
       </c>
@@ -10708,7 +10724,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="139" spans="1:308" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>927</v>
       </c>
@@ -10734,7 +10750,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="140" spans="1:308" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>930</v>
       </c>
@@ -10754,7 +10770,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="141" spans="1:308" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>935</v>
       </c>
@@ -10786,7 +10802,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="142" spans="1:308" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>945</v>
       </c>
@@ -10806,7 +10822,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="143" spans="1:308" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>948</v>
       </c>
@@ -10826,7 +10842,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="144" spans="1:308" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>952</v>
       </c>
@@ -10852,7 +10868,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="145" spans="1:308" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>960</v>
       </c>
@@ -10872,7 +10888,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="146" spans="1:308" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>966</v>
       </c>
@@ -10898,7 +10914,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="147" spans="1:308" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>972</v>
       </c>
@@ -10918,7 +10934,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="148" spans="1:308" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>975</v>
       </c>
@@ -10944,7 +10960,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="149" spans="1:308" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>980</v>
       </c>
@@ -10964,7 +10980,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="150" spans="1:308" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>983</v>
       </c>
@@ -10984,7 +11000,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="151" spans="1:308" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>989</v>
       </c>
@@ -11010,7 +11026,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="152" spans="1:308" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>995</v>
       </c>
@@ -11030,7 +11046,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="153" spans="1:308" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>1001</v>
       </c>
@@ -11050,7 +11066,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="154" spans="1:308" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>1007</v>
       </c>
@@ -11064,7 +11080,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="155" spans="1:308" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>1011</v>
       </c>
@@ -11108,7 +11124,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="156" spans="1:308" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>1021</v>
       </c>
@@ -11134,7 +11150,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="157" spans="1:308" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>1029</v>
       </c>
@@ -11160,7 +11176,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="158" spans="1:308" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>1035</v>
       </c>
@@ -11180,7 +11196,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="159" spans="1:308" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>1039</v>
       </c>
@@ -11212,7 +11228,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="160" spans="1:308" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>1045</v>
       </c>
@@ -11232,7 +11248,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="161" spans="1:308" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>1048</v>
       </c>
@@ -11252,7 +11268,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="162" spans="1:308" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>1053</v>
       </c>
@@ -11272,7 +11288,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="163" spans="1:308" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>1057</v>
       </c>
@@ -11298,7 +11314,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="164" spans="1:308" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>1061</v>
       </c>
@@ -11324,7 +11340,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="165" spans="1:308" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>1065</v>
       </c>
@@ -11344,7 +11360,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="166" spans="1:308" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>1068</v>
       </c>
@@ -11376,7 +11392,7 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="167" spans="1:308" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>1074</v>
       </c>
@@ -11396,7 +11412,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="168" spans="1:308" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>1080</v>
       </c>
@@ -11416,7 +11432,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="169" spans="1:308" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>1084</v>
       </c>
@@ -11436,7 +11452,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="170" spans="1:308" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>1088</v>
       </c>
@@ -11456,7 +11472,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="171" spans="1:308" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>1092</v>
       </c>
@@ -11482,7 +11498,7 @@
         <v>1098</v>
       </c>
     </row>
-    <row r="172" spans="1:308" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>1099</v>
       </c>
@@ -11502,7 +11518,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="173" spans="1:308" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>1105</v>
       </c>
@@ -11522,7 +11538,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="174" spans="1:308" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>1110</v>
       </c>
@@ -11548,7 +11564,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="175" spans="1:308" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>1118</v>
       </c>
@@ -11574,7 +11590,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="176" spans="1:308" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>1124</v>
       </c>
@@ -11594,7 +11610,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="177" spans="1:308" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>1130</v>
       </c>
@@ -11614,7 +11630,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="178" spans="1:308" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>1133</v>
       </c>
@@ -11640,7 +11656,7 @@
         <v>1138</v>
       </c>
     </row>
-    <row r="179" spans="1:308" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>1139</v>
       </c>
@@ -11660,7 +11676,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="180" spans="1:308" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>1145</v>
       </c>
@@ -11680,7 +11696,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="181" spans="1:308" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>1151</v>
       </c>
@@ -11700,7 +11716,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="182" spans="1:308" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>1155</v>
       </c>
@@ -11726,7 +11742,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="183" spans="1:308" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>1161</v>
       </c>
@@ -11752,7 +11768,7 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="184" spans="1:308" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>1166</v>
       </c>
@@ -11772,7 +11788,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="185" spans="1:308" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>1172</v>
       </c>
@@ -11804,7 +11820,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="186" spans="1:308" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>1182</v>
       </c>
@@ -11824,7 +11840,7 @@
         <v>1186</v>
       </c>
     </row>
-    <row r="187" spans="1:308" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>1187</v>
       </c>
@@ -11850,7 +11866,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="188" spans="1:308" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>1193</v>
       </c>
@@ -11870,7 +11886,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="189" spans="1:308" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>1197</v>
       </c>
@@ -11902,7 +11918,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="190" spans="1:308" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>1205</v>
       </c>
@@ -11928,7 +11944,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="191" spans="1:308" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>1210</v>
       </c>
@@ -11948,7 +11964,7 @@
         <v>1215</v>
       </c>
     </row>
-    <row r="192" spans="1:308" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>1216</v>
       </c>
@@ -11968,7 +11984,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="193" spans="1:308" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>1222</v>
       </c>
@@ -11988,7 +12004,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="194" spans="1:308" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>1228</v>
       </c>
@@ -12008,7 +12024,7 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="195" spans="1:308" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>1234</v>
       </c>
@@ -12028,7 +12044,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="196" spans="1:308" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>1237</v>
       </c>
@@ -12048,7 +12064,7 @@
         <v>1242</v>
       </c>
     </row>
-    <row r="197" spans="1:308" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>1243</v>
       </c>
@@ -12068,7 +12084,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="198" spans="1:308" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>1248</v>
       </c>
@@ -12094,7 +12110,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="199" spans="1:308" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>1256</v>
       </c>
@@ -12114,7 +12130,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="200" spans="1:308" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>1261</v>
       </c>
@@ -12134,7 +12150,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="201" spans="1:308" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>1266</v>
       </c>
@@ -12154,7 +12170,7 @@
         <v>1268</v>
       </c>
     </row>
-    <row r="202" spans="1:308" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>1269</v>
       </c>
@@ -12174,7 +12190,7 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="203" spans="1:308" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>1275</v>
       </c>
@@ -12200,7 +12216,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="204" spans="1:308" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>1281</v>
       </c>
@@ -12232,7 +12248,7 @@
         <v>1287</v>
       </c>
     </row>
-    <row r="205" spans="1:308" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>1288</v>
       </c>
@@ -12252,7 +12268,7 @@
         <v>1291</v>
       </c>
     </row>
-    <row r="206" spans="1:308" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>1292</v>
       </c>
@@ -12290,7 +12306,7 @@
         <v>1302</v>
       </c>
     </row>
-    <row r="207" spans="1:308" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>1303</v>
       </c>
@@ -12310,7 +12326,7 @@
         <v>1307</v>
       </c>
     </row>
-    <row r="208" spans="1:308" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>1308</v>
       </c>
@@ -12330,7 +12346,7 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="209" spans="1:308" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>1312</v>
       </c>
@@ -12350,7 +12366,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="210" spans="1:308" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>1315</v>
       </c>
@@ -12370,7 +12386,7 @@
         <v>1317</v>
       </c>
     </row>
-    <row r="211" spans="1:308" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>1318</v>
       </c>
@@ -12402,7 +12418,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="212" spans="1:308" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>1325</v>
       </c>
@@ -12422,7 +12438,7 @@
         <v>1327</v>
       </c>
     </row>
-    <row r="213" spans="1:308" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>1328</v>
       </c>
@@ -12442,7 +12458,7 @@
         <v>1332</v>
       </c>
     </row>
-    <row r="214" spans="1:308" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>1333</v>
       </c>
@@ -12462,7 +12478,7 @@
         <v>1337</v>
       </c>
     </row>
-    <row r="215" spans="1:308" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>1338</v>
       </c>
@@ -12482,7 +12498,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="216" spans="1:308" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>1341</v>
       </c>
@@ -12508,7 +12524,7 @@
         <v>1348</v>
       </c>
     </row>
-    <row r="217" spans="1:308" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>1349</v>
       </c>
@@ -12534,7 +12550,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="218" spans="1:308" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>1354</v>
       </c>
@@ -12554,7 +12570,7 @@
         <v>1357</v>
       </c>
     </row>
-    <row r="219" spans="1:308" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>1358</v>
       </c>
@@ -12574,7 +12590,7 @@
         <v>1361</v>
       </c>
     </row>
-    <row r="220" spans="1:308" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>1362</v>
       </c>
@@ -12594,7 +12610,7 @@
         <v>1365</v>
       </c>
     </row>
-    <row r="221" spans="1:308" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>1366</v>
       </c>
@@ -12620,7 +12636,7 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="222" spans="1:308" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>1374</v>
       </c>
@@ -12640,7 +12656,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="223" spans="1:308" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>1380</v>
       </c>
@@ -12660,7 +12676,7 @@
         <v>1385</v>
       </c>
     </row>
-    <row r="224" spans="1:308" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>1386</v>
       </c>
@@ -12680,7 +12696,7 @@
         <v>1389</v>
       </c>
     </row>
-    <row r="225" spans="1:308" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>1390</v>
       </c>
@@ -12700,7 +12716,7 @@
         <v>1395</v>
       </c>
     </row>
-    <row r="226" spans="1:308" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>1396</v>
       </c>
@@ -12720,7 +12736,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="227" spans="1:308" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>1402</v>
       </c>
@@ -12740,7 +12756,7 @@
         <v>1407</v>
       </c>
     </row>
-    <row r="228" spans="1:308" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>1408</v>
       </c>
@@ -12760,7 +12776,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="229" spans="1:308" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>1414</v>
       </c>
@@ -12792,7 +12808,7 @@
         <v>1417</v>
       </c>
     </row>
-    <row r="230" spans="1:308" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>1418</v>
       </c>
@@ -12812,7 +12828,7 @@
         <v>1423</v>
       </c>
     </row>
-    <row r="231" spans="1:308" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>1424</v>
       </c>
@@ -12832,7 +12848,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="232" spans="1:308" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>1430</v>
       </c>
@@ -12852,7 +12868,7 @@
         <v>1434</v>
       </c>
     </row>
-    <row r="233" spans="1:308" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>1435</v>
       </c>
@@ -12872,7 +12888,7 @@
         <v>1438</v>
       </c>
     </row>
-    <row r="234" spans="1:308" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>1439</v>
       </c>
@@ -12898,7 +12914,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="235" spans="1:308" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>1442</v>
       </c>
@@ -12918,7 +12934,7 @@
         <v>1447</v>
       </c>
     </row>
-    <row r="236" spans="1:308" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>1448</v>
       </c>
@@ -12938,7 +12954,7 @@
         <v>1450</v>
       </c>
     </row>
-    <row r="237" spans="1:308" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>1451</v>
       </c>
@@ -12958,7 +12974,7 @@
         <v>1456</v>
       </c>
     </row>
-    <row r="238" spans="1:308" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>1457</v>
       </c>
@@ -12990,7 +13006,7 @@
         <v>1466</v>
       </c>
     </row>
-    <row r="239" spans="1:308" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>1467</v>
       </c>
@@ -13022,7 +13038,7 @@
         <v>1470</v>
       </c>
     </row>
-    <row r="240" spans="1:308" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>1471</v>
       </c>
@@ -13048,7 +13064,7 @@
         <v>1474</v>
       </c>
     </row>
-    <row r="241" spans="1:308" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>1475</v>
       </c>
@@ -13074,7 +13090,7 @@
         <v>1479</v>
       </c>
     </row>
-    <row r="242" spans="1:308" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>1480</v>
       </c>
@@ -13094,7 +13110,7 @@
         <v>1483</v>
       </c>
     </row>
-    <row r="243" spans="1:308" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>1484</v>
       </c>
@@ -13120,7 +13136,7 @@
         <v>1491</v>
       </c>
     </row>
-    <row r="244" spans="1:308" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>1492</v>
       </c>
@@ -13224,7 +13240,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="245" spans="1:308" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>1496</v>
       </c>
@@ -13244,7 +13260,7 @@
         <v>1498</v>
       </c>
     </row>
-    <row r="246" spans="1:308" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>1499</v>
       </c>
@@ -13264,7 +13280,7 @@
         <v>1502</v>
       </c>
     </row>
-    <row r="247" spans="1:308" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>1503</v>
       </c>
@@ -13284,7 +13300,7 @@
         <v>1507</v>
       </c>
     </row>
-    <row r="248" spans="1:308" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>1508</v>
       </c>
@@ -13310,7 +13326,7 @@
         <v>1511</v>
       </c>
     </row>
-    <row r="249" spans="1:308" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>1512</v>
       </c>
@@ -13342,7 +13358,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="250" spans="1:308" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>1518</v>
       </c>
@@ -13368,7 +13384,7 @@
         <v>1525</v>
       </c>
     </row>
-    <row r="251" spans="1:308" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>1526</v>
       </c>
@@ -13394,7 +13410,7 @@
         <v>1533</v>
       </c>
     </row>
-    <row r="252" spans="1:308" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>1534</v>
       </c>
@@ -13426,7 +13442,7 @@
         <v>1537</v>
       </c>
     </row>
-    <row r="253" spans="1:308" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>1538</v>
       </c>
@@ -13446,7 +13462,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="254" spans="1:308" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:308" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>1543</v>
       </c>
@@ -13468,6 +13484,141 @@
     </row>
   </sheetData>
   <mergeCells count="159">
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="W3:X3"/>
+    <mergeCell ref="Y3:Z3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AD3"/>
+    <mergeCell ref="AE3:AF3"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="AG3:AH3"/>
+    <mergeCell ref="AI3:AJ3"/>
+    <mergeCell ref="AK3:AL3"/>
+    <mergeCell ref="AM3:AN3"/>
+    <mergeCell ref="AO3:AP3"/>
+    <mergeCell ref="AQ3:AR3"/>
+    <mergeCell ref="AS3:AT3"/>
+    <mergeCell ref="AU3:AV3"/>
+    <mergeCell ref="AW3:AX3"/>
+    <mergeCell ref="AY3:AZ3"/>
+    <mergeCell ref="BA3:BB3"/>
+    <mergeCell ref="BC3:BD3"/>
+    <mergeCell ref="BE3:BF3"/>
+    <mergeCell ref="BG3:BH3"/>
+    <mergeCell ref="BI3:BJ3"/>
+    <mergeCell ref="BK3:BL3"/>
+    <mergeCell ref="BM3:BN3"/>
+    <mergeCell ref="BO3:BP3"/>
+    <mergeCell ref="BQ3:BR3"/>
+    <mergeCell ref="BS3:BT3"/>
+    <mergeCell ref="BU3:BV3"/>
+    <mergeCell ref="BW3:BX3"/>
+    <mergeCell ref="BY3:BZ3"/>
+    <mergeCell ref="CA3:CB3"/>
+    <mergeCell ref="CC3:CD3"/>
+    <mergeCell ref="CE3:CF3"/>
+    <mergeCell ref="CG3:CH3"/>
+    <mergeCell ref="CI3:CJ3"/>
+    <mergeCell ref="CK3:CL3"/>
+    <mergeCell ref="CM3:CN3"/>
+    <mergeCell ref="CO3:CP3"/>
+    <mergeCell ref="CQ3:CR3"/>
+    <mergeCell ref="CS3:CT3"/>
+    <mergeCell ref="CU3:CV3"/>
+    <mergeCell ref="CW3:CX3"/>
+    <mergeCell ref="CY3:CZ3"/>
+    <mergeCell ref="DA3:DB3"/>
+    <mergeCell ref="DC3:DD3"/>
+    <mergeCell ref="DE3:DF3"/>
+    <mergeCell ref="DG3:DH3"/>
+    <mergeCell ref="DI3:DJ3"/>
+    <mergeCell ref="DK3:DL3"/>
+    <mergeCell ref="DM3:DN3"/>
+    <mergeCell ref="DO3:DP3"/>
+    <mergeCell ref="DQ3:DR3"/>
+    <mergeCell ref="DS3:DT3"/>
+    <mergeCell ref="DU3:DV3"/>
+    <mergeCell ref="DW3:DX3"/>
+    <mergeCell ref="DY3:DZ3"/>
+    <mergeCell ref="EA3:EB3"/>
+    <mergeCell ref="EC3:ED3"/>
+    <mergeCell ref="EE3:EF3"/>
+    <mergeCell ref="EG3:EH3"/>
+    <mergeCell ref="EI3:EJ3"/>
+    <mergeCell ref="EK3:EL3"/>
+    <mergeCell ref="EM3:EN3"/>
+    <mergeCell ref="EO3:EP3"/>
+    <mergeCell ref="EQ3:ER3"/>
+    <mergeCell ref="ES3:ET3"/>
+    <mergeCell ref="EU3:EV3"/>
+    <mergeCell ref="EW3:EX3"/>
+    <mergeCell ref="EY3:EZ3"/>
+    <mergeCell ref="FA3:FB3"/>
+    <mergeCell ref="FC3:FD3"/>
+    <mergeCell ref="FE3:FF3"/>
+    <mergeCell ref="FG3:FH3"/>
+    <mergeCell ref="FI3:FJ3"/>
+    <mergeCell ref="FK3:FL3"/>
+    <mergeCell ref="FM3:FN3"/>
+    <mergeCell ref="FO3:FP3"/>
+    <mergeCell ref="FQ3:FR3"/>
+    <mergeCell ref="FS3:FT3"/>
+    <mergeCell ref="FU3:FV3"/>
+    <mergeCell ref="FW3:FX3"/>
+    <mergeCell ref="FY3:FZ3"/>
+    <mergeCell ref="GA3:GB3"/>
+    <mergeCell ref="GC3:GD3"/>
+    <mergeCell ref="GE3:GF3"/>
+    <mergeCell ref="GG3:GH3"/>
+    <mergeCell ref="GI3:GJ3"/>
+    <mergeCell ref="GK3:GL3"/>
+    <mergeCell ref="GM3:GN3"/>
+    <mergeCell ref="GO3:GP3"/>
+    <mergeCell ref="GQ3:GR3"/>
+    <mergeCell ref="GS3:GT3"/>
+    <mergeCell ref="GU3:GV3"/>
+    <mergeCell ref="GW3:GX3"/>
+    <mergeCell ref="GY3:GZ3"/>
+    <mergeCell ref="HA3:HB3"/>
+    <mergeCell ref="HC3:HD3"/>
+    <mergeCell ref="HE3:HF3"/>
+    <mergeCell ref="HG3:HH3"/>
+    <mergeCell ref="HI3:HJ3"/>
+    <mergeCell ref="HK3:HL3"/>
+    <mergeCell ref="HM3:HN3"/>
+    <mergeCell ref="HO3:HP3"/>
+    <mergeCell ref="HQ3:HR3"/>
+    <mergeCell ref="HS3:HT3"/>
+    <mergeCell ref="HU3:HV3"/>
+    <mergeCell ref="HW3:HX3"/>
+    <mergeCell ref="HY3:HZ3"/>
+    <mergeCell ref="IA3:IB3"/>
+    <mergeCell ref="IC3:ID3"/>
+    <mergeCell ref="IE3:IF3"/>
+    <mergeCell ref="IG3:IH3"/>
+    <mergeCell ref="II3:IJ3"/>
+    <mergeCell ref="IK3:IL3"/>
+    <mergeCell ref="IM3:IN3"/>
+    <mergeCell ref="JW3:JX3"/>
+    <mergeCell ref="IO3:IP3"/>
+    <mergeCell ref="IQ3:IR3"/>
+    <mergeCell ref="IS3:IT3"/>
+    <mergeCell ref="IU3:IV3"/>
+    <mergeCell ref="IW3:IX3"/>
+    <mergeCell ref="IY3:IZ3"/>
+    <mergeCell ref="JA3:JB3"/>
+    <mergeCell ref="JC3:JD3"/>
+    <mergeCell ref="JE3:JF3"/>
     <mergeCell ref="KQ3:KR3"/>
     <mergeCell ref="KS3:KT3"/>
     <mergeCell ref="C2:KT2"/>
@@ -13492,141 +13643,6 @@
     <mergeCell ref="JQ3:JR3"/>
     <mergeCell ref="JS3:JT3"/>
     <mergeCell ref="JU3:JV3"/>
-    <mergeCell ref="JW3:JX3"/>
-    <mergeCell ref="IO3:IP3"/>
-    <mergeCell ref="IQ3:IR3"/>
-    <mergeCell ref="IS3:IT3"/>
-    <mergeCell ref="IU3:IV3"/>
-    <mergeCell ref="IW3:IX3"/>
-    <mergeCell ref="IY3:IZ3"/>
-    <mergeCell ref="JA3:JB3"/>
-    <mergeCell ref="JC3:JD3"/>
-    <mergeCell ref="JE3:JF3"/>
-    <mergeCell ref="HW3:HX3"/>
-    <mergeCell ref="HY3:HZ3"/>
-    <mergeCell ref="IA3:IB3"/>
-    <mergeCell ref="IC3:ID3"/>
-    <mergeCell ref="IE3:IF3"/>
-    <mergeCell ref="IG3:IH3"/>
-    <mergeCell ref="II3:IJ3"/>
-    <mergeCell ref="IK3:IL3"/>
-    <mergeCell ref="IM3:IN3"/>
-    <mergeCell ref="HE3:HF3"/>
-    <mergeCell ref="HG3:HH3"/>
-    <mergeCell ref="HI3:HJ3"/>
-    <mergeCell ref="HK3:HL3"/>
-    <mergeCell ref="HM3:HN3"/>
-    <mergeCell ref="HO3:HP3"/>
-    <mergeCell ref="HQ3:HR3"/>
-    <mergeCell ref="HS3:HT3"/>
-    <mergeCell ref="HU3:HV3"/>
-    <mergeCell ref="GM3:GN3"/>
-    <mergeCell ref="GO3:GP3"/>
-    <mergeCell ref="GQ3:GR3"/>
-    <mergeCell ref="GS3:GT3"/>
-    <mergeCell ref="GU3:GV3"/>
-    <mergeCell ref="GW3:GX3"/>
-    <mergeCell ref="GY3:GZ3"/>
-    <mergeCell ref="HA3:HB3"/>
-    <mergeCell ref="HC3:HD3"/>
-    <mergeCell ref="FU3:FV3"/>
-    <mergeCell ref="FW3:FX3"/>
-    <mergeCell ref="FY3:FZ3"/>
-    <mergeCell ref="GA3:GB3"/>
-    <mergeCell ref="GC3:GD3"/>
-    <mergeCell ref="GE3:GF3"/>
-    <mergeCell ref="GG3:GH3"/>
-    <mergeCell ref="GI3:GJ3"/>
-    <mergeCell ref="GK3:GL3"/>
-    <mergeCell ref="FC3:FD3"/>
-    <mergeCell ref="FE3:FF3"/>
-    <mergeCell ref="FG3:FH3"/>
-    <mergeCell ref="FI3:FJ3"/>
-    <mergeCell ref="FK3:FL3"/>
-    <mergeCell ref="FM3:FN3"/>
-    <mergeCell ref="FO3:FP3"/>
-    <mergeCell ref="FQ3:FR3"/>
-    <mergeCell ref="FS3:FT3"/>
-    <mergeCell ref="EK3:EL3"/>
-    <mergeCell ref="EM3:EN3"/>
-    <mergeCell ref="EO3:EP3"/>
-    <mergeCell ref="EQ3:ER3"/>
-    <mergeCell ref="ES3:ET3"/>
-    <mergeCell ref="EU3:EV3"/>
-    <mergeCell ref="EW3:EX3"/>
-    <mergeCell ref="EY3:EZ3"/>
-    <mergeCell ref="FA3:FB3"/>
-    <mergeCell ref="DS3:DT3"/>
-    <mergeCell ref="DU3:DV3"/>
-    <mergeCell ref="DW3:DX3"/>
-    <mergeCell ref="DY3:DZ3"/>
-    <mergeCell ref="EA3:EB3"/>
-    <mergeCell ref="EC3:ED3"/>
-    <mergeCell ref="EE3:EF3"/>
-    <mergeCell ref="EG3:EH3"/>
-    <mergeCell ref="EI3:EJ3"/>
-    <mergeCell ref="DA3:DB3"/>
-    <mergeCell ref="DC3:DD3"/>
-    <mergeCell ref="DE3:DF3"/>
-    <mergeCell ref="DG3:DH3"/>
-    <mergeCell ref="DI3:DJ3"/>
-    <mergeCell ref="DK3:DL3"/>
-    <mergeCell ref="DM3:DN3"/>
-    <mergeCell ref="DO3:DP3"/>
-    <mergeCell ref="DQ3:DR3"/>
-    <mergeCell ref="CI3:CJ3"/>
-    <mergeCell ref="CK3:CL3"/>
-    <mergeCell ref="CM3:CN3"/>
-    <mergeCell ref="CO3:CP3"/>
-    <mergeCell ref="CQ3:CR3"/>
-    <mergeCell ref="CS3:CT3"/>
-    <mergeCell ref="CU3:CV3"/>
-    <mergeCell ref="CW3:CX3"/>
-    <mergeCell ref="CY3:CZ3"/>
-    <mergeCell ref="BQ3:BR3"/>
-    <mergeCell ref="BS3:BT3"/>
-    <mergeCell ref="BU3:BV3"/>
-    <mergeCell ref="BW3:BX3"/>
-    <mergeCell ref="BY3:BZ3"/>
-    <mergeCell ref="CA3:CB3"/>
-    <mergeCell ref="CC3:CD3"/>
-    <mergeCell ref="CE3:CF3"/>
-    <mergeCell ref="CG3:CH3"/>
-    <mergeCell ref="AY3:AZ3"/>
-    <mergeCell ref="BA3:BB3"/>
-    <mergeCell ref="BC3:BD3"/>
-    <mergeCell ref="BE3:BF3"/>
-    <mergeCell ref="BG3:BH3"/>
-    <mergeCell ref="BI3:BJ3"/>
-    <mergeCell ref="BK3:BL3"/>
-    <mergeCell ref="BM3:BN3"/>
-    <mergeCell ref="BO3:BP3"/>
-    <mergeCell ref="AG3:AH3"/>
-    <mergeCell ref="AI3:AJ3"/>
-    <mergeCell ref="AK3:AL3"/>
-    <mergeCell ref="AM3:AN3"/>
-    <mergeCell ref="AO3:AP3"/>
-    <mergeCell ref="AQ3:AR3"/>
-    <mergeCell ref="AS3:AT3"/>
-    <mergeCell ref="AU3:AV3"/>
-    <mergeCell ref="AW3:AX3"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="U3:V3"/>
-    <mergeCell ref="W3:X3"/>
-    <mergeCell ref="Y3:Z3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AD3"/>
-    <mergeCell ref="AE3:AF3"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="O3:P3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -13636,2296 +13652,2313 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C251"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="A129" workbookViewId="0">
+      <selection activeCell="C141" sqref="C141"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.28515625" customWidth="1"/>
-    <col min="2" max="2" width="54.5703125" customWidth="1"/>
-    <col min="3" max="3" width="91.85546875" customWidth="1"/>
+    <col min="1" max="1" width="23.33203125" customWidth="1"/>
+    <col min="2" max="2" width="54.5546875" customWidth="1"/>
+    <col min="3" max="3" width="91.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>1546</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1548</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>1547</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>1549</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>1550</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>1551</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>1552</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="C6" s="8"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
+      <c r="C6" s="4" t="s">
+        <v>1553</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>186</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="C7" s="8"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
+      <c r="C7" s="4" t="s">
+        <v>1554</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="C8" s="8"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
+      <c r="C8" s="4"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="C9" s="8"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
+      <c r="C9" s="7"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="C10" s="8"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
+      <c r="C10" s="7"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="C11" s="8"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
+      <c r="C11" s="7"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="C12" s="8"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
+      <c r="C12" s="7"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="C13" s="8"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
+      <c r="C13" s="7"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="C14" s="8"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
+      <c r="C14" s="7"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="C15" s="8"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
+      <c r="C15" s="7"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="C16" s="8"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
+      <c r="C16" s="7"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="C17" s="8"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
+      <c r="C17" s="7"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="C18" s="8"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="6" t="s">
+      <c r="C18" s="7"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="C19" s="9"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="6" t="s">
+      <c r="C19" s="8"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="C20" s="9"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="6" t="s">
+      <c r="C20" s="8"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="C21" s="9"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="6" t="s">
+      <c r="C21" s="8"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="C22" s="9"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="6" t="s">
+      <c r="C22" s="8"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="C23" s="9"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="6" t="s">
+      <c r="C23" s="8"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
         <v>291</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="C24" s="9"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="6" t="s">
+      <c r="C24" s="8"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="5" t="s">
         <v>300</v>
       </c>
-      <c r="C25" s="9"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="6" t="s">
+      <c r="C25" s="8"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="5" t="s">
         <v>306</v>
       </c>
-      <c r="C26" s="9"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="6" t="s">
+      <c r="C26" s="8"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="C27" s="9"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="6" t="s">
+      <c r="C27" s="8"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="5" t="s">
         <v>317</v>
       </c>
-      <c r="C28" s="6"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="6" t="s">
+      <c r="C28" s="5"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
         <v>319</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="5" t="s">
         <v>323</v>
       </c>
-      <c r="C29" s="6"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="6" t="s">
+      <c r="C29" s="5"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
         <v>325</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="5" t="s">
         <v>329</v>
       </c>
-      <c r="C30" s="6"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="6" t="s">
+      <c r="C30" s="5"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
         <v>331</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B31" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="C31" s="6"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="6" t="s">
+      <c r="C31" s="5"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
         <v>337</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="B32" s="5" t="s">
         <v>341</v>
       </c>
-      <c r="C32" s="6"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="6" t="s">
+      <c r="C32" s="5"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B33" s="5" t="s">
         <v>348</v>
       </c>
-      <c r="C33" s="6"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="6" t="s">
+      <c r="C33" s="5"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
         <v>350</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="B34" s="5" t="s">
         <v>351</v>
       </c>
-      <c r="C34" s="6"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="6" t="s">
+      <c r="C34" s="5"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
         <v>353</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="B35" s="5" t="s">
         <v>355</v>
       </c>
-      <c r="C35" s="6"/>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="6" t="s">
+      <c r="C35" s="5"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
         <v>357</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="B36" s="5" t="s">
         <v>360</v>
       </c>
-      <c r="C36" s="6"/>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="6" t="s">
+      <c r="C36" s="5"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="B37" s="5" t="s">
         <v>368</v>
       </c>
-      <c r="C37" s="6"/>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="6" t="s">
+      <c r="C37" s="5"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
         <v>370</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="B38" s="5" t="s">
         <v>374</v>
       </c>
-      <c r="C38" s="6"/>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" s="6" t="s">
+      <c r="C38" s="5"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="5" t="s">
         <v>376</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="B39" s="5" t="s">
         <v>380</v>
       </c>
-      <c r="C39" s="6"/>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" s="6" t="s">
+      <c r="C39" s="5"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="5" t="s">
         <v>382</v>
       </c>
-      <c r="B40" s="6" t="s">
+      <c r="B40" s="5" t="s">
         <v>388</v>
       </c>
-      <c r="C40" s="6"/>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" s="6" t="s">
+      <c r="C40" s="5"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="5" t="s">
         <v>390</v>
       </c>
-      <c r="B41" s="6" t="s">
+      <c r="B41" s="5" t="s">
         <v>394</v>
       </c>
-      <c r="C41" s="6"/>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" s="6" t="s">
+      <c r="C41" s="5"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="5" t="s">
         <v>396</v>
       </c>
-      <c r="B42" s="6" t="s">
+      <c r="B42" s="5" t="s">
         <v>400</v>
       </c>
-      <c r="C42" s="6"/>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43" s="6" t="s">
+      <c r="C42" s="5"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="5" t="s">
         <v>402</v>
       </c>
-      <c r="B43" s="6" t="s">
+      <c r="B43" s="5" t="s">
         <v>409</v>
       </c>
-      <c r="C43" s="6"/>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44" s="6" t="s">
+      <c r="C43" s="5"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="5" t="s">
         <v>411</v>
       </c>
-      <c r="B44" s="6" t="s">
+      <c r="B44" s="5" t="s">
         <v>419</v>
       </c>
-      <c r="C44" s="6"/>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45" s="6" t="s">
+      <c r="C44" s="5"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="5" t="s">
         <v>421</v>
       </c>
-      <c r="B45" s="6" t="s">
+      <c r="B45" s="5" t="s">
         <v>425</v>
       </c>
-      <c r="C45" s="6"/>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A46" s="6" t="s">
+      <c r="C45" s="5"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="5" t="s">
         <v>427</v>
       </c>
-      <c r="B46" s="6" t="s">
+      <c r="B46" s="5" t="s">
         <v>434</v>
       </c>
-      <c r="C46" s="6"/>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A47" s="6" t="s">
+      <c r="C46" s="5"/>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="5" t="s">
         <v>436</v>
       </c>
-      <c r="B47" s="6" t="s">
+      <c r="B47" s="5" t="s">
         <v>437</v>
       </c>
-      <c r="C47" s="6"/>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A48" s="6" t="s">
+      <c r="C47" s="5"/>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="5" t="s">
         <v>439</v>
       </c>
-      <c r="B48" s="6" t="s">
+      <c r="B48" s="5" t="s">
         <v>441</v>
       </c>
-      <c r="C48" s="6"/>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A49" s="6" t="s">
+      <c r="C48" s="5"/>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="5" t="s">
         <v>443</v>
       </c>
-      <c r="B49" s="6" t="s">
+      <c r="B49" s="5" t="s">
         <v>445</v>
       </c>
-      <c r="C49" s="6"/>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A50" s="6" t="s">
+      <c r="C49" s="5"/>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="5" t="s">
         <v>447</v>
       </c>
-      <c r="B50" s="6" t="s">
+      <c r="B50" s="5" t="s">
         <v>449</v>
       </c>
-      <c r="C50" s="6"/>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A51" s="6" t="s">
+      <c r="C50" s="5"/>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="5" t="s">
         <v>451</v>
       </c>
-      <c r="B51" s="6" t="s">
+      <c r="B51" s="5" t="s">
         <v>456</v>
       </c>
-      <c r="C51" s="6"/>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A52" s="6" t="s">
+      <c r="C51" s="5"/>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="5" t="s">
         <v>458</v>
       </c>
-      <c r="B52" s="6" t="s">
+      <c r="B52" s="5" t="s">
         <v>461</v>
       </c>
-      <c r="C52" s="6"/>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A53" s="6" t="s">
+      <c r="C52" s="5"/>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="5" t="s">
         <v>463</v>
       </c>
-      <c r="B53" s="6" t="s">
+      <c r="B53" s="5" t="s">
         <v>465</v>
       </c>
-      <c r="C53" s="6"/>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A54" s="6" t="s">
+      <c r="C53" s="5"/>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="5" t="s">
         <v>467</v>
       </c>
-      <c r="B54" s="6" t="s">
+      <c r="B54" s="5" t="s">
         <v>468</v>
       </c>
-      <c r="C54" s="6"/>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A55" s="6" t="s">
+      <c r="C54" s="5"/>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="5" t="s">
         <v>470</v>
       </c>
-      <c r="B55" s="6" t="s">
+      <c r="B55" s="5" t="s">
         <v>474</v>
       </c>
-      <c r="C55" s="6"/>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A56" s="6" t="s">
+      <c r="C55" s="5"/>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="5" t="s">
         <v>476</v>
       </c>
-      <c r="B56" s="6" t="s">
+      <c r="B56" s="5" t="s">
         <v>480</v>
       </c>
-      <c r="C56" s="6"/>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A57" s="6" t="s">
+      <c r="C56" s="5"/>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="5" t="s">
         <v>482</v>
       </c>
-      <c r="B57" s="6" t="s">
+      <c r="B57" s="5" t="s">
         <v>486</v>
       </c>
-      <c r="C57" s="6"/>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A58" s="6" t="s">
+      <c r="C57" s="5"/>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="5" t="s">
         <v>488</v>
       </c>
-      <c r="B58" s="6" t="s">
+      <c r="B58" s="5" t="s">
         <v>493</v>
       </c>
-      <c r="C58" s="6"/>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A59" s="6" t="s">
+      <c r="C58" s="5"/>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="5" t="s">
         <v>495</v>
       </c>
-      <c r="B59" s="6" t="s">
+      <c r="B59" s="5" t="s">
         <v>499</v>
       </c>
-      <c r="C59" s="6"/>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A60" s="6" t="s">
+      <c r="C59" s="5"/>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="5" t="s">
         <v>501</v>
       </c>
-      <c r="B60" s="6" t="s">
+      <c r="B60" s="5" t="s">
         <v>507</v>
       </c>
-      <c r="C60" s="6"/>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A61" s="6" t="s">
+      <c r="C60" s="5"/>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="5" t="s">
         <v>509</v>
       </c>
-      <c r="B61" s="6" t="s">
+      <c r="B61" s="5" t="s">
         <v>510</v>
       </c>
-      <c r="C61" s="6"/>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A62" s="6" t="s">
+      <c r="C61" s="5"/>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="5" t="s">
         <v>512</v>
       </c>
-      <c r="B62" s="6" t="s">
+      <c r="B62" s="5" t="s">
         <v>514</v>
       </c>
-      <c r="C62" s="6"/>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A63" s="6" t="s">
+      <c r="C62" s="5"/>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="5" t="s">
         <v>516</v>
       </c>
-      <c r="B63" s="6" t="s">
+      <c r="B63" s="5" t="s">
         <v>519</v>
       </c>
-      <c r="C63" s="6"/>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A64" s="6" t="s">
+      <c r="C63" s="5"/>
+    </row>
+    <row r="64" spans="1:3" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="5" t="s">
         <v>521</v>
       </c>
-      <c r="B64" s="6" t="s">
+      <c r="B64" s="10" t="s">
         <v>525</v>
       </c>
-      <c r="C64" s="6"/>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A65" s="6" t="s">
+      <c r="C64" s="10" t="s">
+        <v>1556</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="5" t="s">
         <v>527</v>
       </c>
-      <c r="B65" s="6" t="s">
+      <c r="B65" s="5" t="s">
         <v>531</v>
       </c>
-      <c r="C65" s="6"/>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A66" s="6" t="s">
+      <c r="C65" s="5"/>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="5" t="s">
         <v>533</v>
       </c>
-      <c r="B66" s="6" t="s">
+      <c r="B66" s="5" t="s">
         <v>539</v>
       </c>
-      <c r="C66" s="6"/>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A67" s="6" t="s">
+      <c r="C66" s="5"/>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="5" t="s">
         <v>541</v>
       </c>
-      <c r="B67" s="6" t="s">
+      <c r="B67" s="5" t="s">
         <v>545</v>
       </c>
-      <c r="C67" s="6"/>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A68" s="6" t="s">
+      <c r="C67" s="5"/>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="5" t="s">
         <v>547</v>
       </c>
-      <c r="B68" s="6" t="s">
+      <c r="B68" s="5" t="s">
         <v>548</v>
       </c>
-      <c r="C68" s="6"/>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A69" s="6" t="s">
+      <c r="C68" s="5"/>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="5" t="s">
         <v>550</v>
       </c>
-      <c r="B69" s="6" t="s">
+      <c r="B69" s="5" t="s">
         <v>552</v>
       </c>
-      <c r="C69" s="6"/>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A70" s="6" t="s">
+      <c r="C69" s="5"/>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="5" t="s">
         <v>554</v>
       </c>
-      <c r="B70" s="6" t="s">
+      <c r="B70" s="5" t="s">
         <v>558</v>
       </c>
-      <c r="C70" s="6"/>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A71" s="6" t="s">
+      <c r="C70" s="5"/>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="5" t="s">
         <v>560</v>
       </c>
-      <c r="B71" s="6" t="s">
+      <c r="B71" s="5" t="s">
         <v>566</v>
       </c>
-      <c r="C71" s="6"/>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A72" s="6" t="s">
+      <c r="C71" s="5"/>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="5" t="s">
         <v>568</v>
       </c>
-      <c r="B72" s="6" t="s">
+      <c r="B72" s="5" t="s">
         <v>571</v>
       </c>
-      <c r="C72" s="6"/>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A73" s="6" t="s">
+      <c r="C72" s="5"/>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="5" t="s">
         <v>573</v>
       </c>
-      <c r="B73" s="6" t="s">
+      <c r="B73" s="5" t="s">
         <v>577</v>
       </c>
-      <c r="C73" s="6"/>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A74" s="6" t="s">
+      <c r="C73" s="5"/>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="5" t="s">
         <v>579</v>
       </c>
-      <c r="B74" s="6" t="s">
+      <c r="B74" s="5" t="s">
         <v>582</v>
       </c>
-      <c r="C74" s="6"/>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A75" s="6" t="s">
+      <c r="C74" s="5"/>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="5" t="s">
         <v>584</v>
       </c>
-      <c r="B75" s="6" t="s">
+      <c r="B75" s="5" t="s">
         <v>586</v>
       </c>
-      <c r="C75" s="6"/>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A76" s="6" t="s">
+      <c r="C75" s="5"/>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="5" t="s">
         <v>588</v>
       </c>
-      <c r="B76" s="6" t="s">
+      <c r="B76" s="5" t="s">
         <v>592</v>
       </c>
-      <c r="C76" s="6"/>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A77" s="6" t="s">
+      <c r="C76" s="5"/>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="5" t="s">
         <v>594</v>
       </c>
-      <c r="B77" s="6" t="s">
+      <c r="B77" s="5" t="s">
         <v>597</v>
       </c>
-      <c r="C77" s="6"/>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A78" s="6" t="s">
+      <c r="C77" s="5"/>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="5" t="s">
         <v>599</v>
       </c>
-      <c r="B78" s="6" t="s">
+      <c r="B78" s="5" t="s">
         <v>602</v>
       </c>
-      <c r="C78" s="6"/>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A79" s="6" t="s">
+      <c r="C78" s="5"/>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="5" t="s">
         <v>604</v>
       </c>
-      <c r="B79" s="6" t="s">
+      <c r="B79" s="5" t="s">
         <v>610</v>
       </c>
-      <c r="C79" s="6"/>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A80" s="6" t="s">
+      <c r="C79" s="5"/>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="5" t="s">
         <v>612</v>
       </c>
-      <c r="B80" s="6" t="s">
+      <c r="B80" s="5" t="s">
         <v>617</v>
       </c>
-      <c r="C80" s="6"/>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A81" s="6" t="s">
+      <c r="C80" s="5"/>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="5" t="s">
         <v>618</v>
       </c>
-      <c r="B81" s="6" t="s">
+      <c r="B81" s="5" t="s">
         <v>621</v>
       </c>
-      <c r="C81" s="6"/>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A82" s="6" t="s">
+      <c r="C81" s="5"/>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="5" t="s">
         <v>623</v>
       </c>
-      <c r="B82" s="6" t="s">
+      <c r="B82" s="5" t="s">
         <v>625</v>
       </c>
-      <c r="C82" s="6"/>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A83" s="6" t="s">
+      <c r="C82" s="5"/>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="5" t="s">
         <v>627</v>
       </c>
-      <c r="B83" s="6" t="s">
+      <c r="B83" s="5" t="s">
         <v>631</v>
       </c>
-      <c r="C83" s="6"/>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A84" s="6" t="s">
+      <c r="C83" s="5"/>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="5" t="s">
         <v>633</v>
       </c>
-      <c r="B84" s="6" t="s">
+      <c r="B84" s="5" t="s">
         <v>635</v>
       </c>
-      <c r="C84" s="6"/>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A85" s="6" t="s">
+      <c r="C84" s="5"/>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="5" t="s">
         <v>637</v>
       </c>
-      <c r="B85" s="6" t="s">
+      <c r="B85" s="5" t="s">
         <v>641</v>
       </c>
-      <c r="C85" s="6"/>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A86" s="6" t="s">
+      <c r="C85" s="5"/>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="5" t="s">
         <v>643</v>
       </c>
-      <c r="B86" s="6" t="s">
+      <c r="B86" s="5" t="s">
         <v>648</v>
       </c>
-      <c r="C86" s="6"/>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A87" s="6" t="s">
+      <c r="C86" s="5"/>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="5" t="s">
         <v>650</v>
       </c>
-      <c r="B87" s="6" t="s">
+      <c r="B87" s="5" t="s">
         <v>656</v>
       </c>
-      <c r="C87" s="6"/>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A88" s="6" t="s">
+      <c r="C87" s="5"/>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="5" t="s">
         <v>658</v>
       </c>
-      <c r="B88" s="6" t="s">
+      <c r="B88" s="5" t="s">
         <v>662</v>
       </c>
-      <c r="C88" s="6"/>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A89" s="6" t="s">
+      <c r="C88" s="5"/>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="5" t="s">
         <v>664</v>
       </c>
-      <c r="B89" s="6" t="s">
+      <c r="B89" s="5" t="s">
         <v>666</v>
       </c>
-      <c r="C89" s="6"/>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A90" s="6" t="s">
+      <c r="C89" s="5"/>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="5" t="s">
         <v>668</v>
       </c>
-      <c r="B90" s="6" t="s">
+      <c r="B90" s="5" t="s">
         <v>672</v>
       </c>
-      <c r="C90" s="6"/>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A91" s="6" t="s">
+      <c r="C90" s="5"/>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="5" t="s">
         <v>674</v>
       </c>
-      <c r="B91" s="6" t="s">
+      <c r="B91" s="5" t="s">
         <v>679</v>
       </c>
-      <c r="C91" s="6"/>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A92" s="6" t="s">
+      <c r="C91" s="5"/>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="5" t="s">
         <v>681</v>
       </c>
-      <c r="B92" s="6" t="s">
+      <c r="B92" s="5" t="s">
         <v>684</v>
       </c>
-      <c r="C92" s="6"/>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A93" s="6" t="s">
+      <c r="C92" s="5"/>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="5" t="s">
         <v>686</v>
       </c>
-      <c r="B93" s="6" t="s">
+      <c r="B93" s="5" t="s">
         <v>688</v>
       </c>
-      <c r="C93" s="6"/>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A94" s="6" t="s">
+      <c r="C93" s="5"/>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="5" t="s">
         <v>690</v>
       </c>
-      <c r="B94" s="6" t="s">
+      <c r="B94" s="5" t="s">
         <v>693</v>
       </c>
-      <c r="C94" s="6"/>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A95" s="6" t="s">
+      <c r="C94" s="5"/>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="5" t="s">
         <v>695</v>
       </c>
-      <c r="B95" s="6" t="s">
+      <c r="B95" s="5" t="s">
         <v>701</v>
       </c>
-      <c r="C95" s="6"/>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A96" s="6" t="s">
+      <c r="C95" s="5"/>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="5" t="s">
         <v>703</v>
       </c>
-      <c r="B96" s="6" t="s">
+      <c r="B96" s="5" t="s">
         <v>706</v>
       </c>
-      <c r="C96" s="6"/>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A97" s="6" t="s">
+      <c r="C96" s="5"/>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="5" t="s">
         <v>708</v>
       </c>
-      <c r="B97" s="6" t="s">
+      <c r="B97" s="5" t="s">
         <v>712</v>
       </c>
-      <c r="C97" s="6"/>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A98" s="6" t="s">
+      <c r="C97" s="5"/>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="5" t="s">
         <v>714</v>
       </c>
-      <c r="B98" s="6" t="s">
+      <c r="B98" s="5" t="s">
         <v>716</v>
       </c>
-      <c r="C98" s="6"/>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A99" s="6" t="s">
+      <c r="C98" s="5"/>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="5" t="s">
         <v>718</v>
       </c>
-      <c r="B99" s="6" t="s">
+      <c r="B99" s="5" t="s">
         <v>722</v>
       </c>
-      <c r="C99" s="6"/>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A100" s="6" t="s">
+      <c r="C99" s="5"/>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="5" t="s">
         <v>724</v>
       </c>
-      <c r="B100" s="6" t="s">
+      <c r="B100" s="5" t="s">
         <v>728</v>
       </c>
-      <c r="C100" s="6"/>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A101" s="6" t="s">
+      <c r="C100" s="5"/>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="5" t="s">
         <v>730</v>
       </c>
-      <c r="B101" s="6" t="s">
+      <c r="B101" s="5" t="s">
         <v>738</v>
       </c>
-      <c r="C101" s="6"/>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A102" s="6" t="s">
+      <c r="C101" s="5"/>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="5" t="s">
         <v>740</v>
       </c>
-      <c r="B102" s="6" t="s">
+      <c r="B102" s="5" t="s">
         <v>744</v>
       </c>
-      <c r="C102" s="6"/>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A103" s="6" t="s">
+      <c r="C102" s="5"/>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="5" t="s">
         <v>746</v>
       </c>
-      <c r="B103" s="6" t="s">
+      <c r="B103" s="5" t="s">
         <v>750</v>
       </c>
-      <c r="C103" s="6"/>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A104" s="6" t="s">
+      <c r="C103" s="5"/>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" s="5" t="s">
         <v>752</v>
       </c>
-      <c r="B104" s="6" t="s">
+      <c r="B104" s="5" t="s">
         <v>755</v>
       </c>
-      <c r="C104" s="6"/>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A105" s="6" t="s">
+      <c r="C104" s="5"/>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" s="5" t="s">
         <v>757</v>
       </c>
-      <c r="B105" s="6" t="s">
+      <c r="B105" s="5" t="s">
         <v>763</v>
       </c>
-      <c r="C105" s="6"/>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A106" s="6" t="s">
+      <c r="C105" s="5"/>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" s="5" t="s">
         <v>765</v>
       </c>
-      <c r="B106" s="6" t="s">
+      <c r="B106" s="5" t="s">
         <v>769</v>
       </c>
-      <c r="C106" s="6"/>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A107" s="6" t="s">
+      <c r="C106" s="5"/>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" s="5" t="s">
         <v>771</v>
       </c>
-      <c r="B107" s="6" t="s">
+      <c r="B107" s="5" t="s">
         <v>773</v>
       </c>
-      <c r="C107" s="6"/>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A108" s="6" t="s">
+      <c r="C107" s="5"/>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" s="5" t="s">
         <v>775</v>
       </c>
-      <c r="B108" s="6" t="s">
+      <c r="B108" s="5" t="s">
         <v>779</v>
       </c>
-      <c r="C108" s="6"/>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A109" s="6" t="s">
+      <c r="C108" s="5"/>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" s="5" t="s">
         <v>781</v>
       </c>
-      <c r="B109" s="6" t="s">
+      <c r="B109" s="5" t="s">
         <v>787</v>
       </c>
-      <c r="C109" s="6"/>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A110" s="6" t="s">
+      <c r="C109" s="5"/>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" s="5" t="s">
         <v>789</v>
       </c>
-      <c r="B110" s="6" t="s">
+      <c r="B110" s="5" t="s">
         <v>790</v>
       </c>
-      <c r="C110" s="6"/>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A111" s="6" t="s">
+      <c r="C110" s="5"/>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" s="5" t="s">
         <v>792</v>
       </c>
-      <c r="B111" s="6" t="s">
+      <c r="B111" s="5" t="s">
         <v>796</v>
       </c>
-      <c r="C111" s="6"/>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A112" s="6" t="s">
+      <c r="C111" s="5"/>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" s="5" t="s">
         <v>798</v>
       </c>
-      <c r="B112" s="6" t="s">
+      <c r="B112" s="5" t="s">
         <v>802</v>
       </c>
-      <c r="C112" s="6"/>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A113" s="6" t="s">
+      <c r="C112" s="5"/>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" s="5" t="s">
         <v>804</v>
       </c>
-      <c r="B113" s="6" t="s">
+      <c r="B113" s="5" t="s">
         <v>807</v>
       </c>
-      <c r="C113" s="6"/>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A114" s="6" t="s">
+      <c r="C113" s="5"/>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" s="5" t="s">
         <v>809</v>
       </c>
-      <c r="B114" s="6" t="s">
+      <c r="B114" s="5" t="s">
         <v>813</v>
       </c>
-      <c r="C114" s="6"/>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A115" s="6" t="s">
+      <c r="C114" s="5"/>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" s="5" t="s">
         <v>815</v>
       </c>
-      <c r="B115" s="6" t="s">
+      <c r="B115" s="5" t="s">
         <v>819</v>
       </c>
-      <c r="C115" s="6"/>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A116" s="6" t="s">
+      <c r="C115" s="5"/>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" s="5" t="s">
         <v>821</v>
       </c>
-      <c r="B116" s="6" t="s">
+      <c r="B116" s="5" t="s">
         <v>825</v>
       </c>
-      <c r="C116" s="6"/>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A117" s="6" t="s">
+      <c r="C116" s="5"/>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" s="5" t="s">
         <v>827</v>
       </c>
-      <c r="B117" s="6" t="s">
+      <c r="B117" s="5" t="s">
         <v>831</v>
       </c>
-      <c r="C117" s="6"/>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A118" s="6" t="s">
+      <c r="C117" s="5"/>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" s="5" t="s">
         <v>833</v>
       </c>
-      <c r="B118" s="6" t="s">
+      <c r="B118" s="5" t="s">
         <v>836</v>
       </c>
-      <c r="C118" s="6"/>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A119" s="6" t="s">
+      <c r="C118" s="5"/>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" s="5" t="s">
         <v>838</v>
       </c>
-      <c r="B119" s="6" t="s">
+      <c r="B119" s="5" t="s">
         <v>843</v>
       </c>
-      <c r="C119" s="6"/>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A120" s="6" t="s">
+      <c r="C119" s="5"/>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" s="5" t="s">
         <v>845</v>
       </c>
-      <c r="B120" s="6" t="s">
+      <c r="B120" s="5" t="s">
         <v>848</v>
       </c>
-      <c r="C120" s="6"/>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A121" s="6" t="s">
+      <c r="C120" s="5"/>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" s="5" t="s">
         <v>850</v>
       </c>
-      <c r="B121" s="6" t="s">
+      <c r="B121" s="5" t="s">
         <v>852</v>
       </c>
-      <c r="C121" s="6"/>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A122" s="6" t="s">
+      <c r="C121" s="5"/>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" s="5" t="s">
         <v>854</v>
       </c>
-      <c r="B122" s="6" t="s">
+      <c r="B122" s="5" t="s">
         <v>857</v>
       </c>
-      <c r="C122" s="6"/>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A123" s="6" t="s">
+      <c r="C122" s="5"/>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" s="5" t="s">
         <v>859</v>
       </c>
-      <c r="B123" s="6" t="s">
+      <c r="B123" s="5" t="s">
         <v>861</v>
       </c>
-      <c r="C123" s="6"/>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A124" s="6" t="s">
+      <c r="C123" s="5"/>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" s="5" t="s">
         <v>863</v>
       </c>
-      <c r="B124" s="6" t="s">
+      <c r="B124" s="5" t="s">
         <v>865</v>
       </c>
-      <c r="C124" s="6"/>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A125" s="6" t="s">
+      <c r="C124" s="5"/>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" s="5" t="s">
         <v>867</v>
       </c>
-      <c r="B125" s="6" t="s">
+      <c r="B125" s="5" t="s">
         <v>874</v>
       </c>
-      <c r="C125" s="6"/>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A126" s="6" t="s">
+      <c r="C125" s="5"/>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" s="5" t="s">
         <v>876</v>
       </c>
-      <c r="B126" s="6" t="s">
+      <c r="B126" s="5" t="s">
         <v>879</v>
       </c>
-      <c r="C126" s="6"/>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A127" s="6" t="s">
+      <c r="C126" s="5"/>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" s="5" t="s">
         <v>881</v>
       </c>
-      <c r="B127" s="6" t="s">
+      <c r="B127" s="5" t="s">
         <v>882</v>
       </c>
-      <c r="C127" s="6"/>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A128" s="6" t="s">
+      <c r="C127" s="5"/>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" s="5" t="s">
         <v>884</v>
       </c>
-      <c r="B128" s="6" t="s">
+      <c r="B128" s="5" t="s">
         <v>886</v>
       </c>
-      <c r="C128" s="6"/>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A129" s="6" t="s">
+      <c r="C128" s="5"/>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" s="5" t="s">
         <v>888</v>
       </c>
-      <c r="B129" s="6" t="s">
+      <c r="B129" s="5" t="s">
         <v>890</v>
       </c>
-      <c r="C129" s="6"/>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A130" s="6" t="s">
+      <c r="C129" s="5"/>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" s="5" t="s">
         <v>892</v>
       </c>
-      <c r="B130" s="6" t="s">
+      <c r="B130" s="5" t="s">
         <v>898</v>
       </c>
-      <c r="C130" s="6"/>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A131" s="6" t="s">
+      <c r="C130" s="5"/>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" s="5" t="s">
         <v>900</v>
       </c>
-      <c r="B131" s="6" t="s">
+      <c r="B131" s="5" t="s">
         <v>902</v>
       </c>
-      <c r="C131" s="6"/>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A132" s="6" t="s">
+      <c r="C131" s="5"/>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" s="5" t="s">
         <v>904</v>
       </c>
-      <c r="B132" s="6" t="s">
+      <c r="B132" s="5" t="s">
         <v>907</v>
       </c>
-      <c r="C132" s="6"/>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A133" s="6" t="s">
+      <c r="C132" s="5"/>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" s="5" t="s">
         <v>909</v>
       </c>
-      <c r="B133" s="6" t="s">
+      <c r="B133" s="5" t="s">
         <v>911</v>
       </c>
-      <c r="C133" s="6"/>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A134" s="6" t="s">
+      <c r="C133" s="5"/>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" s="5" t="s">
         <v>913</v>
       </c>
-      <c r="B134" s="6" t="s">
+      <c r="B134" s="5" t="s">
         <v>917</v>
       </c>
-      <c r="C134" s="6"/>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A135" s="6" t="s">
+      <c r="C134" s="5"/>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" s="5" t="s">
         <v>919</v>
       </c>
-      <c r="B135" s="6" t="s">
+      <c r="B135" s="5" t="s">
         <v>925</v>
       </c>
-      <c r="C135" s="6"/>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A136" s="6" t="s">
+      <c r="C135" s="5"/>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" s="5" t="s">
         <v>927</v>
       </c>
-      <c r="B136" s="6" t="s">
+      <c r="B136" s="5" t="s">
         <v>928</v>
       </c>
-      <c r="C136" s="6"/>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A137" s="6" t="s">
+      <c r="C136" s="5"/>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" s="5" t="s">
         <v>930</v>
       </c>
-      <c r="B137" s="6" t="s">
+      <c r="B137" s="5" t="s">
         <v>933</v>
       </c>
-      <c r="C137" s="6"/>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A138" s="6" t="s">
+      <c r="C137" s="5"/>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" s="5" t="s">
         <v>935</v>
       </c>
-      <c r="B138" s="6" t="s">
+      <c r="B138" s="5" t="s">
         <v>943</v>
       </c>
-      <c r="C138" s="6"/>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A139" s="6" t="s">
+      <c r="C138" s="5"/>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" s="5" t="s">
         <v>945</v>
       </c>
-      <c r="B139" s="6" t="s">
+      <c r="B139" s="5" t="s">
         <v>946</v>
       </c>
-      <c r="C139" s="6"/>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A140" s="6" t="s">
+      <c r="C139" s="5"/>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" s="5" t="s">
         <v>948</v>
       </c>
-      <c r="B140" s="6" t="s">
+      <c r="B140" s="5" t="s">
         <v>950</v>
       </c>
-      <c r="C140" s="6"/>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A141" s="6" t="s">
+      <c r="C140" s="5"/>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" s="5" t="s">
         <v>952</v>
       </c>
-      <c r="B141" s="6" t="s">
+      <c r="B141" s="5" t="s">
         <v>958</v>
       </c>
-      <c r="C141" s="6"/>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A142" s="6" t="s">
+      <c r="C141" s="10" t="s">
+        <v>1557</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" s="5" t="s">
         <v>960</v>
       </c>
-      <c r="B142" s="6" t="s">
+      <c r="B142" s="5" t="s">
         <v>964</v>
       </c>
-      <c r="C142" s="6"/>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A143" s="6" t="s">
+      <c r="C142" s="5"/>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" s="5" t="s">
         <v>966</v>
       </c>
-      <c r="B143" s="6" t="s">
+      <c r="B143" s="5" t="s">
         <v>970</v>
       </c>
-      <c r="C143" s="6"/>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A144" s="6" t="s">
+      <c r="C143" s="5"/>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" s="5" t="s">
         <v>972</v>
       </c>
-      <c r="B144" s="6" t="s">
+      <c r="B144" s="5" t="s">
         <v>973</v>
       </c>
-      <c r="C144" s="6"/>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A145" s="6" t="s">
+      <c r="C144" s="5"/>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" s="5" t="s">
         <v>975</v>
       </c>
-      <c r="B145" s="6" t="s">
+      <c r="B145" s="5" t="s">
         <v>978</v>
       </c>
-      <c r="C145" s="6"/>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A146" s="6" t="s">
+      <c r="C145" s="5"/>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" s="5" t="s">
         <v>980</v>
       </c>
-      <c r="B146" s="6" t="s">
+      <c r="B146" s="5" t="s">
         <v>981</v>
       </c>
-      <c r="C146" s="6"/>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A147" s="6" t="s">
+      <c r="C146" s="5"/>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" s="5" t="s">
         <v>983</v>
       </c>
-      <c r="B147" s="6" t="s">
+      <c r="B147" s="5" t="s">
         <v>987</v>
       </c>
-      <c r="C147" s="6"/>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A148" s="6" t="s">
+      <c r="C147" s="5"/>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" s="5" t="s">
         <v>989</v>
       </c>
-      <c r="B148" s="6" t="s">
+      <c r="B148" s="5" t="s">
         <v>993</v>
       </c>
-      <c r="C148" s="6"/>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A149" s="6" t="s">
+      <c r="C148" s="5"/>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" s="5" t="s">
         <v>995</v>
       </c>
-      <c r="B149" s="6" t="s">
+      <c r="B149" s="5" t="s">
         <v>999</v>
       </c>
-      <c r="C149" s="6"/>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A150" s="6" t="s">
+      <c r="C149" s="5"/>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" s="5" t="s">
         <v>1001</v>
       </c>
-      <c r="B150" s="6" t="s">
+      <c r="B150" s="5" t="s">
         <v>1005</v>
       </c>
-      <c r="C150" s="6"/>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A151" s="6" t="s">
+      <c r="C150" s="5"/>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" s="5" t="s">
         <v>1007</v>
       </c>
-      <c r="B151" s="6" t="s">
+      <c r="B151" s="5" t="s">
         <v>1009</v>
       </c>
-      <c r="C151" s="6"/>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A152" s="6" t="s">
+      <c r="C151" s="5"/>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" s="5" t="s">
         <v>1011</v>
       </c>
-      <c r="B152" s="6" t="s">
+      <c r="B152" s="5" t="s">
         <v>1019</v>
       </c>
-      <c r="C152" s="6"/>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A153" s="6" t="s">
+      <c r="C152" s="5"/>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" s="5" t="s">
         <v>1021</v>
       </c>
-      <c r="B153" s="6" t="s">
+      <c r="B153" s="5" t="s">
         <v>1027</v>
       </c>
-      <c r="C153" s="6"/>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A154" s="6" t="s">
+      <c r="C153" s="5"/>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" s="5" t="s">
         <v>1029</v>
       </c>
-      <c r="B154" s="6" t="s">
+      <c r="B154" s="5" t="s">
         <v>1033</v>
       </c>
-      <c r="C154" s="6"/>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A155" s="6" t="s">
+      <c r="C154" s="5"/>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155" s="5" t="s">
         <v>1035</v>
       </c>
-      <c r="B155" s="6" t="s">
+      <c r="B155" s="5" t="s">
         <v>1037</v>
       </c>
-      <c r="C155" s="6"/>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A156" s="6" t="s">
+      <c r="C155" s="5"/>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156" s="5" t="s">
         <v>1039</v>
       </c>
-      <c r="B156" s="6" t="s">
+      <c r="B156" s="5" t="s">
         <v>1043</v>
       </c>
-      <c r="C156" s="6"/>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A157" s="6" t="s">
+      <c r="C156" s="5"/>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157" s="5" t="s">
         <v>1045</v>
       </c>
-      <c r="B157" s="6" t="s">
+      <c r="B157" s="5" t="s">
         <v>1046</v>
       </c>
-      <c r="C157" s="6"/>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A158" s="6" t="s">
+      <c r="C157" s="5"/>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158" s="5" t="s">
         <v>1048</v>
       </c>
-      <c r="B158" s="6" t="s">
+      <c r="B158" s="5" t="s">
         <v>1051</v>
       </c>
-      <c r="C158" s="6"/>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A159" s="6" t="s">
+      <c r="C158" s="5"/>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159" s="5" t="s">
         <v>1053</v>
       </c>
-      <c r="B159" s="6" t="s">
+      <c r="B159" s="5" t="s">
         <v>1055</v>
       </c>
-      <c r="C159" s="6"/>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A160" s="6" t="s">
+      <c r="C159" s="5"/>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160" s="5" t="s">
         <v>1057</v>
       </c>
-      <c r="B160" s="6" t="s">
+      <c r="B160" s="5" t="s">
         <v>1059</v>
       </c>
-      <c r="C160" s="6"/>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A161" s="6" t="s">
+      <c r="C160" s="5"/>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161" s="5" t="s">
         <v>1061</v>
       </c>
-      <c r="B161" s="6" t="s">
+      <c r="B161" s="5" t="s">
         <v>1063</v>
       </c>
-      <c r="C161" s="6"/>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A162" s="6" t="s">
+      <c r="C161" s="5"/>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162" s="5" t="s">
         <v>1065</v>
       </c>
-      <c r="B162" s="6" t="s">
+      <c r="B162" s="5" t="s">
         <v>1066</v>
       </c>
-      <c r="C162" s="6"/>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A163" s="6" t="s">
+      <c r="C162" s="5"/>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163" s="5" t="s">
         <v>1068</v>
       </c>
-      <c r="B163" s="6" t="s">
+      <c r="B163" s="5" t="s">
         <v>1072</v>
       </c>
-      <c r="C163" s="6"/>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A164" s="6" t="s">
+      <c r="C163" s="5"/>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164" s="5" t="s">
         <v>1074</v>
       </c>
-      <c r="B164" s="6" t="s">
+      <c r="B164" s="5" t="s">
         <v>1078</v>
       </c>
-      <c r="C164" s="6"/>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A165" s="6" t="s">
+      <c r="C164" s="5"/>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165" s="5" t="s">
         <v>1080</v>
       </c>
-      <c r="B165" s="6" t="s">
+      <c r="B165" s="5" t="s">
         <v>1082</v>
       </c>
-      <c r="C165" s="6"/>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A166" s="6" t="s">
+      <c r="C165" s="5"/>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166" s="5" t="s">
         <v>1084</v>
       </c>
-      <c r="B166" s="6" t="s">
+      <c r="B166" s="5" t="s">
         <v>1086</v>
       </c>
-      <c r="C166" s="6"/>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A167" s="6" t="s">
+      <c r="C166" s="5"/>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167" s="5" t="s">
         <v>1088</v>
       </c>
-      <c r="B167" s="6" t="s">
+      <c r="B167" s="5" t="s">
         <v>1090</v>
       </c>
-      <c r="C167" s="6"/>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A168" s="6" t="s">
+      <c r="C167" s="5"/>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168" s="5" t="s">
         <v>1092</v>
       </c>
-      <c r="B168" s="6" t="s">
+      <c r="B168" s="5" t="s">
         <v>1097</v>
       </c>
-      <c r="C168" s="6"/>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A169" s="6" t="s">
+      <c r="C168" s="5"/>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169" s="5" t="s">
         <v>1099</v>
       </c>
-      <c r="B169" s="6" t="s">
+      <c r="B169" s="5" t="s">
         <v>1103</v>
       </c>
-      <c r="C169" s="6"/>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A170" s="6" t="s">
+      <c r="C169" s="5"/>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170" s="5" t="s">
         <v>1105</v>
       </c>
-      <c r="B170" s="6" t="s">
+      <c r="B170" s="5" t="s">
         <v>1108</v>
       </c>
-      <c r="C170" s="6"/>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A171" s="6" t="s">
+      <c r="C170" s="5"/>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171" s="5" t="s">
         <v>1110</v>
       </c>
-      <c r="B171" s="6" t="s">
+      <c r="B171" s="5" t="s">
         <v>1116</v>
       </c>
-      <c r="C171" s="6"/>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A172" s="6" t="s">
+      <c r="C171" s="5"/>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172" s="5" t="s">
         <v>1118</v>
       </c>
-      <c r="B172" s="6" t="s">
+      <c r="B172" s="5" t="s">
         <v>1122</v>
       </c>
-      <c r="C172" s="6"/>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A173" s="6" t="s">
+      <c r="C172" s="5"/>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173" s="5" t="s">
         <v>1124</v>
       </c>
-      <c r="B173" s="6" t="s">
+      <c r="B173" s="5" t="s">
         <v>1128</v>
       </c>
-      <c r="C173" s="6"/>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A174" s="6" t="s">
+      <c r="C173" s="5"/>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174" s="5" t="s">
         <v>1130</v>
       </c>
-      <c r="B174" s="6" t="s">
+      <c r="B174" s="5" t="s">
         <v>1131</v>
       </c>
-      <c r="C174" s="6"/>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A175" s="6" t="s">
+      <c r="C174" s="5"/>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175" s="5" t="s">
         <v>1133</v>
       </c>
-      <c r="B175" s="6" t="s">
+      <c r="B175" s="5" t="s">
         <v>1137</v>
       </c>
-      <c r="C175" s="6"/>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A176" s="6" t="s">
+      <c r="C175" s="5"/>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176" s="5" t="s">
         <v>1139</v>
       </c>
-      <c r="B176" s="6" t="s">
+      <c r="B176" s="5" t="s">
         <v>1143</v>
       </c>
-      <c r="C176" s="6"/>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A177" s="6" t="s">
+      <c r="C176" s="5"/>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177" s="5" t="s">
         <v>1145</v>
       </c>
-      <c r="B177" s="6" t="s">
+      <c r="B177" s="5" t="s">
         <v>1149</v>
       </c>
-      <c r="C177" s="6"/>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A178" s="6" t="s">
+      <c r="C177" s="5"/>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178" s="5" t="s">
         <v>1151</v>
       </c>
-      <c r="B178" s="6" t="s">
+      <c r="B178" s="5" t="s">
         <v>1153</v>
       </c>
-      <c r="C178" s="6"/>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A179" s="6" t="s">
+      <c r="C178" s="5"/>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179" s="5" t="s">
         <v>1155</v>
       </c>
-      <c r="B179" s="6" t="s">
+      <c r="B179" s="5" t="s">
         <v>1159</v>
       </c>
-      <c r="C179" s="6"/>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A180" s="6" t="s">
+      <c r="C179" s="5"/>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180" s="5" t="s">
         <v>1161</v>
       </c>
-      <c r="B180" s="6" t="s">
+      <c r="B180" s="5" t="s">
         <v>1164</v>
       </c>
-      <c r="C180" s="6"/>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A181" s="6" t="s">
+      <c r="C180" s="5"/>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181" s="5" t="s">
         <v>1166</v>
       </c>
-      <c r="B181" s="6" t="s">
+      <c r="B181" s="5" t="s">
         <v>1170</v>
       </c>
-      <c r="C181" s="6"/>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A182" s="6" t="s">
+      <c r="C181" s="5"/>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A182" s="5" t="s">
         <v>1172</v>
       </c>
-      <c r="B182" s="6" t="s">
+      <c r="B182" s="5" t="s">
         <v>1180</v>
       </c>
-      <c r="C182" s="6"/>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A183" s="6" t="s">
+      <c r="C182" s="5"/>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A183" s="5" t="s">
         <v>1182</v>
       </c>
-      <c r="B183" s="6" t="s">
+      <c r="B183" s="5" t="s">
         <v>1185</v>
       </c>
-      <c r="C183" s="6"/>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A184" s="6" t="s">
+      <c r="C183" s="5"/>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A184" s="5" t="s">
         <v>1187</v>
       </c>
-      <c r="B184" s="6" t="s">
+      <c r="B184" s="5" t="s">
         <v>1191</v>
       </c>
-      <c r="C184" s="6"/>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A185" s="6" t="s">
+      <c r="C184" s="5"/>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A185" s="5" t="s">
         <v>1193</v>
       </c>
-      <c r="B185" s="6" t="s">
+      <c r="B185" s="5" t="s">
         <v>1195</v>
       </c>
-      <c r="C185" s="6"/>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A186" s="6" t="s">
+      <c r="C185" s="5"/>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A186" s="5" t="s">
         <v>1197</v>
       </c>
-      <c r="B186" s="6" t="s">
+      <c r="B186" s="5" t="s">
         <v>1203</v>
       </c>
-      <c r="C186" s="6"/>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A187" s="6" t="s">
+      <c r="C186" s="5"/>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A187" s="5" t="s">
         <v>1205</v>
       </c>
-      <c r="B187" s="6" t="s">
+      <c r="B187" s="5" t="s">
         <v>1208</v>
       </c>
-      <c r="C187" s="6"/>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A188" s="6" t="s">
+      <c r="C187" s="5"/>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A188" s="5" t="s">
         <v>1210</v>
       </c>
-      <c r="B188" s="6" t="s">
+      <c r="B188" s="5" t="s">
         <v>1214</v>
       </c>
-      <c r="C188" s="6"/>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A189" s="6" t="s">
+      <c r="C188" s="5"/>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A189" s="5" t="s">
         <v>1216</v>
       </c>
-      <c r="B189" s="6" t="s">
+      <c r="B189" s="5" t="s">
         <v>1220</v>
       </c>
-      <c r="C189" s="6"/>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A190" s="6" t="s">
+      <c r="C189" s="5"/>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A190" s="5" t="s">
         <v>1222</v>
       </c>
-      <c r="B190" s="6" t="s">
+      <c r="B190" s="5" t="s">
         <v>1226</v>
       </c>
-      <c r="C190" s="6"/>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A191" s="6" t="s">
+      <c r="C190" s="5"/>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A191" s="5" t="s">
         <v>1228</v>
       </c>
-      <c r="B191" s="6" t="s">
+      <c r="B191" s="5" t="s">
         <v>1232</v>
       </c>
-      <c r="C191" s="6"/>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A192" s="6" t="s">
+      <c r="C191" s="5"/>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A192" s="5" t="s">
         <v>1234</v>
       </c>
-      <c r="B192" s="6" t="s">
+      <c r="B192" s="5" t="s">
         <v>1235</v>
       </c>
-      <c r="C192" s="6"/>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A193" s="6" t="s">
+      <c r="C192" s="5"/>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A193" s="5" t="s">
         <v>1237</v>
       </c>
-      <c r="B193" s="6" t="s">
+      <c r="B193" s="5" t="s">
         <v>1241</v>
       </c>
-      <c r="C193" s="6"/>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A194" s="6" t="s">
+      <c r="C193" s="5"/>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A194" s="5" t="s">
         <v>1243</v>
       </c>
-      <c r="B194" s="6" t="s">
+      <c r="B194" s="5" t="s">
         <v>1246</v>
       </c>
-      <c r="C194" s="6"/>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A195" s="6" t="s">
+      <c r="C194" s="5"/>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A195" s="5" t="s">
         <v>1248</v>
       </c>
-      <c r="B195" s="6" t="s">
+      <c r="B195" s="5" t="s">
         <v>1254</v>
       </c>
-      <c r="C195" s="6"/>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A196" s="6" t="s">
+      <c r="C195" s="5"/>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A196" s="5" t="s">
         <v>1256</v>
       </c>
-      <c r="B196" s="6" t="s">
+      <c r="B196" s="5" t="s">
         <v>1259</v>
       </c>
-      <c r="C196" s="6"/>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A197" s="6" t="s">
+      <c r="C196" s="5"/>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A197" s="5" t="s">
         <v>1261</v>
       </c>
-      <c r="B197" s="6" t="s">
+      <c r="B197" s="5" t="s">
         <v>1264</v>
       </c>
-      <c r="C197" s="6"/>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A198" s="6" t="s">
+      <c r="C197" s="5"/>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A198" s="5" t="s">
         <v>1266</v>
       </c>
-      <c r="B198" s="6" t="s">
+      <c r="B198" s="5" t="s">
         <v>1267</v>
       </c>
-      <c r="C198" s="6"/>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A199" s="6" t="s">
+      <c r="C198" s="5"/>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A199" s="5" t="s">
         <v>1269</v>
       </c>
-      <c r="B199" s="6" t="s">
+      <c r="B199" s="5" t="s">
         <v>1273</v>
       </c>
-      <c r="C199" s="6"/>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A200" s="6" t="s">
+      <c r="C199" s="5"/>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A200" s="5" t="s">
         <v>1275</v>
       </c>
-      <c r="B200" s="6" t="s">
+      <c r="B200" s="5" t="s">
         <v>1279</v>
       </c>
-      <c r="C200" s="6"/>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A201" s="6" t="s">
+      <c r="C200" s="5"/>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A201" s="5" t="s">
         <v>1281</v>
       </c>
-      <c r="B201" s="6" t="s">
+      <c r="B201" s="5" t="s">
         <v>1286</v>
       </c>
-      <c r="C201" s="6"/>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A202" s="6" t="s">
+      <c r="C201" s="5"/>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A202" s="5" t="s">
         <v>1288</v>
       </c>
-      <c r="B202" s="6" t="s">
+      <c r="B202" s="5" t="s">
         <v>1290</v>
       </c>
-      <c r="C202" s="6"/>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A203" s="6" t="s">
+      <c r="C202" s="5"/>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A203" s="5" t="s">
         <v>1292</v>
       </c>
-      <c r="B203" s="6" t="s">
+      <c r="B203" s="5" t="s">
         <v>1301</v>
       </c>
-      <c r="C203" s="6"/>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A204" s="6" t="s">
+      <c r="C203" s="5"/>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A204" s="5" t="s">
         <v>1303</v>
       </c>
-      <c r="B204" s="6" t="s">
+      <c r="B204" s="5" t="s">
         <v>1306</v>
       </c>
-      <c r="C204" s="6"/>
-    </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A205" s="6" t="s">
+      <c r="C204" s="5"/>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A205" s="5" t="s">
         <v>1308</v>
       </c>
-      <c r="B205" s="6" t="s">
+      <c r="B205" s="5" t="s">
         <v>1310</v>
       </c>
-      <c r="C205" s="6"/>
-    </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A206" s="6" t="s">
+      <c r="C205" s="5"/>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A206" s="5" t="s">
         <v>1312</v>
       </c>
-      <c r="B206" s="6" t="s">
+      <c r="B206" s="5" t="s">
         <v>1313</v>
       </c>
-      <c r="C206" s="6"/>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A207" s="6" t="s">
+      <c r="C206" s="5"/>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A207" s="5" t="s">
         <v>1315</v>
       </c>
-      <c r="B207" s="6" t="s">
+      <c r="B207" s="5" t="s">
         <v>1316</v>
       </c>
-      <c r="C207" s="6"/>
-    </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A208" s="6" t="s">
+      <c r="C207" s="5"/>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A208" s="5" t="s">
         <v>1318</v>
       </c>
-      <c r="B208" s="6" t="s">
+      <c r="B208" s="5" t="s">
         <v>1323</v>
       </c>
-      <c r="C208" s="6"/>
-    </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A209" s="6" t="s">
+      <c r="C208" s="5"/>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A209" s="5" t="s">
         <v>1325</v>
       </c>
-      <c r="B209" s="6" t="s">
+      <c r="B209" s="5" t="s">
         <v>1326</v>
       </c>
-      <c r="C209" s="6"/>
-    </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A210" s="6" t="s">
+      <c r="C209" s="5"/>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A210" s="5" t="s">
         <v>1328</v>
       </c>
-      <c r="B210" s="6" t="s">
+      <c r="B210" s="5" t="s">
         <v>1331</v>
       </c>
-      <c r="C210" s="6"/>
-    </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A211" s="6" t="s">
+      <c r="C210" s="5"/>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A211" s="5" t="s">
         <v>1333</v>
       </c>
-      <c r="B211" s="6" t="s">
+      <c r="B211" s="5" t="s">
         <v>1336</v>
       </c>
-      <c r="C211" s="6"/>
-    </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A212" s="6" t="s">
+      <c r="C211" s="5"/>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A212" s="5" t="s">
         <v>1338</v>
       </c>
-      <c r="B212" s="6" t="s">
+      <c r="B212" s="5" t="s">
         <v>1339</v>
       </c>
-      <c r="C212" s="6"/>
-    </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A213" s="6" t="s">
+      <c r="C212" s="5"/>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A213" s="5" t="s">
         <v>1341</v>
       </c>
-      <c r="B213" s="6" t="s">
+      <c r="B213" s="5" t="s">
         <v>1347</v>
       </c>
-      <c r="C213" s="6"/>
-    </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A214" s="6" t="s">
+      <c r="C213" s="5"/>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A214" s="5" t="s">
         <v>1349</v>
       </c>
-      <c r="B214" s="6" t="s">
+      <c r="B214" s="5" t="s">
         <v>1352</v>
       </c>
-      <c r="C214" s="6"/>
-    </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A215" s="6" t="s">
+      <c r="C214" s="5"/>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A215" s="5" t="s">
         <v>1354</v>
       </c>
-      <c r="B215" s="6" t="s">
+      <c r="B215" s="5" t="s">
         <v>1356</v>
       </c>
-      <c r="C215" s="6"/>
-    </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A216" s="6" t="s">
+      <c r="C215" s="5"/>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A216" s="5" t="s">
         <v>1358</v>
       </c>
-      <c r="B216" s="6" t="s">
+      <c r="B216" s="5" t="s">
         <v>1360</v>
       </c>
-      <c r="C216" s="6"/>
-    </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A217" s="6" t="s">
+      <c r="C216" s="5"/>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A217" s="5" t="s">
         <v>1362</v>
       </c>
-      <c r="B217" s="6" t="s">
+      <c r="B217" s="5" t="s">
         <v>1364</v>
       </c>
-      <c r="C217" s="6"/>
-    </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A218" s="6" t="s">
+      <c r="C217" s="5"/>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A218" s="5" t="s">
         <v>1366</v>
       </c>
-      <c r="B218" s="6" t="s">
+      <c r="B218" s="5" t="s">
         <v>1372</v>
       </c>
-      <c r="C218" s="6"/>
-    </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A219" s="6" t="s">
+      <c r="C218" s="5"/>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A219" s="5" t="s">
         <v>1374</v>
       </c>
-      <c r="B219" s="6" t="s">
+      <c r="B219" s="5" t="s">
         <v>1378</v>
       </c>
-      <c r="C219" s="6"/>
-    </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A220" s="6" t="s">
+      <c r="C219" s="5"/>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A220" s="5" t="s">
         <v>1380</v>
       </c>
-      <c r="B220" s="6" t="s">
+      <c r="B220" s="5" t="s">
         <v>1384</v>
       </c>
-      <c r="C220" s="6"/>
-    </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A221" s="6" t="s">
+      <c r="C220" s="5"/>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A221" s="5" t="s">
         <v>1386</v>
       </c>
-      <c r="B221" s="6" t="s">
+      <c r="B221" s="5" t="s">
         <v>1388</v>
       </c>
-      <c r="C221" s="6"/>
-    </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A222" s="6" t="s">
+      <c r="C221" s="5"/>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A222" s="5" t="s">
         <v>1390</v>
       </c>
-      <c r="B222" s="6" t="s">
+      <c r="B222" s="5" t="s">
         <v>1394</v>
       </c>
-      <c r="C222" s="6"/>
-    </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A223" s="6" t="s">
+      <c r="C222" s="5"/>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A223" s="5" t="s">
         <v>1396</v>
       </c>
-      <c r="B223" s="6" t="s">
+      <c r="B223" s="5" t="s">
         <v>1400</v>
       </c>
-      <c r="C223" s="6"/>
-    </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A224" s="6" t="s">
+      <c r="C223" s="5"/>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A224" s="5" t="s">
         <v>1402</v>
       </c>
-      <c r="B224" s="6" t="s">
+      <c r="B224" s="5" t="s">
         <v>1406</v>
       </c>
-      <c r="C224" s="6"/>
-    </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A225" s="6" t="s">
+      <c r="C224" s="5"/>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A225" s="5" t="s">
         <v>1408</v>
       </c>
-      <c r="B225" s="6" t="s">
+      <c r="B225" s="5" t="s">
         <v>1412</v>
       </c>
-      <c r="C225" s="6"/>
-    </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A226" s="6" t="s">
+      <c r="C225" s="5"/>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A226" s="5" t="s">
         <v>1414</v>
       </c>
-      <c r="B226" s="6" t="s">
+      <c r="B226" s="5" t="s">
         <v>1416</v>
       </c>
-      <c r="C226" s="6"/>
-    </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A227" s="6" t="s">
+      <c r="C226" s="5"/>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A227" s="5" t="s">
         <v>1418</v>
       </c>
-      <c r="B227" s="6" t="s">
+      <c r="B227" s="5" t="s">
         <v>1422</v>
       </c>
-      <c r="C227" s="6"/>
-    </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A228" s="6" t="s">
+      <c r="C227" s="5"/>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A228" s="5" t="s">
         <v>1424</v>
       </c>
-      <c r="B228" s="6" t="s">
+      <c r="B228" s="5" t="s">
         <v>1428</v>
       </c>
-      <c r="C228" s="6"/>
-    </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A229" s="6" t="s">
+      <c r="C228" s="5"/>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A229" s="5" t="s">
         <v>1430</v>
       </c>
-      <c r="B229" s="6" t="s">
+      <c r="B229" s="5" t="s">
         <v>1433</v>
       </c>
-      <c r="C229" s="6"/>
-    </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A230" s="6" t="s">
+      <c r="C229" s="5"/>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A230" s="5" t="s">
         <v>1435</v>
       </c>
-      <c r="B230" s="6" t="s">
+      <c r="B230" s="5" t="s">
         <v>1437</v>
       </c>
-      <c r="C230" s="6"/>
-    </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A231" s="6" t="s">
+      <c r="C230" s="5"/>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A231" s="5" t="s">
         <v>1439</v>
       </c>
-      <c r="B231" s="6" t="s">
+      <c r="B231" s="5" t="s">
         <v>1440</v>
       </c>
-      <c r="C231" s="6"/>
-    </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A232" s="6" t="s">
+      <c r="C231" s="5"/>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A232" s="5" t="s">
         <v>1442</v>
       </c>
-      <c r="B232" s="6" t="s">
+      <c r="B232" s="5" t="s">
         <v>1446</v>
       </c>
-      <c r="C232" s="6"/>
-    </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A233" s="6" t="s">
+      <c r="C232" s="5"/>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A233" s="5" t="s">
         <v>1448</v>
       </c>
-      <c r="B233" s="6" t="s">
+      <c r="B233" s="5" t="s">
         <v>1449</v>
       </c>
-      <c r="C233" s="6"/>
-    </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A234" s="6" t="s">
+      <c r="C233" s="5"/>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A234" s="5" t="s">
         <v>1451</v>
       </c>
-      <c r="B234" s="6" t="s">
+      <c r="B234" s="5" t="s">
         <v>1455</v>
       </c>
-      <c r="C234" s="6"/>
-    </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A235" s="6" t="s">
+      <c r="C234" s="5"/>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A235" s="5" t="s">
         <v>1457</v>
       </c>
-      <c r="B235" s="6" t="s">
+      <c r="B235" s="5" t="s">
         <v>1465</v>
       </c>
-      <c r="C235" s="6"/>
-    </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A236" s="6" t="s">
+      <c r="C235" s="5"/>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A236" s="5" t="s">
         <v>1467</v>
       </c>
-      <c r="B236" s="6" t="s">
+      <c r="B236" s="5" t="s">
         <v>1469</v>
       </c>
-      <c r="C236" s="6"/>
-    </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A237" s="6" t="s">
+      <c r="C236" s="5"/>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A237" s="5" t="s">
         <v>1471</v>
       </c>
-      <c r="B237" s="6" t="s">
+      <c r="B237" s="5" t="s">
         <v>1473</v>
       </c>
-      <c r="C237" s="6"/>
-    </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A238" s="6" t="s">
+      <c r="C237" s="10" t="s">
+        <v>1555</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A238" s="5" t="s">
         <v>1475</v>
       </c>
-      <c r="B238" s="6" t="s">
+      <c r="B238" s="5" t="s">
         <v>1478</v>
       </c>
-      <c r="C238" s="6"/>
-    </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A239" s="6" t="s">
+      <c r="C238" s="5"/>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A239" s="5" t="s">
         <v>1480</v>
       </c>
-      <c r="B239" s="6" t="s">
+      <c r="B239" s="5" t="s">
         <v>1482</v>
       </c>
-      <c r="C239" s="6"/>
-    </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A240" s="6" t="s">
+      <c r="C239" s="5"/>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A240" s="5" t="s">
         <v>1484</v>
       </c>
-      <c r="B240" s="6" t="s">
+      <c r="B240" s="5" t="s">
         <v>1490</v>
       </c>
-      <c r="C240" s="6"/>
-    </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A241" s="6" t="s">
+      <c r="C240" s="5"/>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A241" s="5" t="s">
         <v>1492</v>
       </c>
-      <c r="B241" s="6" t="s">
+      <c r="B241" s="5" t="s">
         <v>1494</v>
       </c>
-      <c r="C241" s="6"/>
-    </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A242" s="6" t="s">
+      <c r="C241" s="5"/>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A242" s="5" t="s">
         <v>1496</v>
       </c>
-      <c r="B242" s="6" t="s">
+      <c r="B242" s="5" t="s">
         <v>1497</v>
       </c>
-      <c r="C242" s="6"/>
-    </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A243" s="6" t="s">
+      <c r="C242" s="5"/>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A243" s="5" t="s">
         <v>1499</v>
       </c>
-      <c r="B243" s="6" t="s">
+      <c r="B243" s="5" t="s">
         <v>1501</v>
       </c>
-      <c r="C243" s="6"/>
-    </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A244" s="6" t="s">
+      <c r="C243" s="5"/>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A244" s="5" t="s">
         <v>1503</v>
       </c>
-      <c r="B244" s="6" t="s">
+      <c r="B244" s="5" t="s">
         <v>1506</v>
       </c>
-      <c r="C244" s="6"/>
-    </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A245" s="6" t="s">
+      <c r="C244" s="5"/>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A245" s="5" t="s">
         <v>1508</v>
       </c>
-      <c r="B245" s="6" t="s">
+      <c r="B245" s="5" t="s">
         <v>1510</v>
       </c>
-      <c r="C245" s="6"/>
-    </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A246" s="6" t="s">
+      <c r="C245" s="5"/>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A246" s="5" t="s">
         <v>1512</v>
       </c>
-      <c r="B246" s="6" t="s">
+      <c r="B246" s="5" t="s">
         <v>1516</v>
       </c>
-      <c r="C246" s="6"/>
-    </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A247" s="6" t="s">
+      <c r="C246" s="5"/>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A247" s="5" t="s">
         <v>1518</v>
       </c>
-      <c r="B247" s="6" t="s">
+      <c r="B247" s="5" t="s">
         <v>1524</v>
       </c>
-      <c r="C247" s="6"/>
-    </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A248" s="6" t="s">
+      <c r="C247" s="5"/>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A248" s="5" t="s">
         <v>1526</v>
       </c>
-      <c r="B248" s="6" t="s">
+      <c r="B248" s="5" t="s">
         <v>1532</v>
       </c>
-      <c r="C248" s="6"/>
-    </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A249" s="6" t="s">
+      <c r="C248" s="5"/>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A249" s="5" t="s">
         <v>1534</v>
       </c>
-      <c r="B249" s="6" t="s">
+      <c r="B249" s="5" t="s">
         <v>1536</v>
       </c>
-      <c r="C249" s="6"/>
-    </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A250" s="6" t="s">
+      <c r="C249" s="5"/>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A250" s="5" t="s">
         <v>1538</v>
       </c>
-      <c r="B250" s="6" t="s">
+      <c r="B250" s="5" t="s">
         <v>1541</v>
       </c>
-      <c r="C250" s="6"/>
-    </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A251" s="6" t="s">
+      <c r="C250" s="5"/>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A251" s="5" t="s">
         <v>1543</v>
       </c>
-      <c r="B251" s="6" t="s">
+      <c r="B251" s="5" t="s">
         <v>1544</v>
       </c>
-      <c r="C251" s="6"/>
+      <c r="C251" s="5"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="C2"/>
+    <hyperlink ref="C2" display="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d593982.0245516009!2d-36.9023897!3d-54.44101!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0xbecb0d04d60d1019%3A0xde9df3c446380561!2sGeorgia%20del%20Sur!5e0!3m2!1ses-419!2scu!4v1736397151258!5m2!1se"/>
     <hyperlink ref="B3" r:id="rId2"/>
-    <hyperlink ref="C3"/>
-    <hyperlink ref="C4"/>
-    <hyperlink ref="C5"/>
+    <hyperlink ref="C3" display="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d499050.19918622077!2d-61.59029995!3d12.25980255!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x8c381789f4877bd1%3A0x36d8c7015a1f4f8e!2sGranada!5e0!3m2!1ses-419!2scu!4v1736397370223!5m2!1ses-419!2s"/>
+    <hyperlink ref="C4" display="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d1398041.1378619722!2d8.224118950000001!3d46.8131873!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x478c64ef6f596d61%3A0x5c56b5110fcb7b15!2sSuiza!5e0!3m2!1ses-419!2scu!4v1736397425772!5m2!1ses-419!"/>
+    <hyperlink ref="C5" display="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d2020756.4108567983!2d-11.8374914!3d8.42228685!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0xf0106183aabf343%3A0x5369e9cdc72cf719!2sSierra%20Leona!5e0!3m2!1ses-419!2scu!4v1736397598450!5m2!1ses-41"/>
+    <hyperlink ref="C6"/>
+    <hyperlink ref="B7" r:id="rId3"/>
+    <hyperlink ref="C7"/>
+    <hyperlink ref="C237"/>
+    <hyperlink ref="B64" r:id="rId4"/>
+    <hyperlink ref="C64"/>
+    <hyperlink ref="C141"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId5"/>
 </worksheet>
 </file>